--- a/Places.xlsx
+++ b/Places.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georg\Documents\Travel\Places\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AED44C-2236-4482-8C93-1434B260CB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802CD2ED-CB22-481C-9741-F9F56FD35C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="110">
   <si>
     <t>Place</t>
   </si>
@@ -260,6 +260,96 @@
   </si>
   <si>
     <t>Astero, Kimon</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thessaloniki </t>
+  </si>
+  <si>
+    <t>Kastoria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ioannina </t>
+  </si>
+  <si>
+    <t>Paksoi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preveza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leukada </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Athens </t>
+  </si>
+  <si>
+    <t>Volos</t>
+  </si>
+  <si>
+    <t>Tsagkarada</t>
+  </si>
+  <si>
+    <t>Armenistis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drama </t>
+  </si>
+  <si>
+    <t>Sitagroi</t>
+  </si>
+  <si>
+    <t>Kavala</t>
+  </si>
+  <si>
+    <t>Xanthi</t>
+  </si>
+  <si>
+    <t>Thasos</t>
+  </si>
+  <si>
+    <t>Samothraki</t>
+  </si>
+  <si>
+    <t>Limnos</t>
+  </si>
+  <si>
+    <t>Lesvos</t>
+  </si>
+  <si>
+    <t>Chios</t>
+  </si>
+  <si>
+    <t>Rodos</t>
+  </si>
+  <si>
+    <t>Naxos</t>
+  </si>
+  <si>
+    <t>Paros</t>
+  </si>
+  <si>
+    <t>Skiathos</t>
+  </si>
+  <si>
+    <t>Skopelos</t>
+  </si>
+  <si>
+    <t>Sifnos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peraia </t>
+  </si>
+  <si>
+    <t>Metsovo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prespes </t>
   </si>
 </sst>
 </file>
@@ -567,10 +657,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55:B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1596,6 +1686,412 @@
         <v>14.990641999999999</v>
       </c>
     </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A54" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E54" s="7">
+        <v>40.626631000000003</v>
+      </c>
+      <c r="F54" s="7">
+        <v>22.950029000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A55" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E55" s="7">
+        <v>40.521648999999996</v>
+      </c>
+      <c r="F55" s="7">
+        <v>21.263010999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A56" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E56" s="7">
+        <v>39.669618999999997</v>
+      </c>
+      <c r="F56" s="7">
+        <v>20.857987000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A57" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E57" s="7">
+        <v>39.198498999999998</v>
+      </c>
+      <c r="F57" s="7">
+        <v>20.184436000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A58" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E58" s="7">
+        <v>38.955786000000003</v>
+      </c>
+      <c r="F58" s="7">
+        <v>20.75263</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A59" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E59" s="7">
+        <v>38.827415999999999</v>
+      </c>
+      <c r="F59" s="7">
+        <v>20.700458999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A60" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E60" s="7">
+        <v>38.244990999999999</v>
+      </c>
+      <c r="F60" s="7">
+        <v>21.734522999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A61" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E61" s="7">
+        <v>37.983759999999997</v>
+      </c>
+      <c r="F61" s="7">
+        <v>23.72784</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A62" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E62" s="7">
+        <v>39.359924999999997</v>
+      </c>
+      <c r="F62" s="7">
+        <v>22.947213000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A63" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E63" s="7">
+        <v>39.388793999999997</v>
+      </c>
+      <c r="F63" s="7">
+        <v>23.173162999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A64" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E64" s="7">
+        <v>40.154102000000002</v>
+      </c>
+      <c r="F64" s="7">
+        <v>23.915412</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A65" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E65" s="7">
+        <v>41.149323000000003</v>
+      </c>
+      <c r="F65" s="7">
+        <v>24.147006000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A66" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E66" s="7">
+        <v>41.109025000000003</v>
+      </c>
+      <c r="F66" s="7">
+        <v>24.029107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A67" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E67" s="7">
+        <v>40.935738000000001</v>
+      </c>
+      <c r="F67" s="7">
+        <v>24.412331999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A68" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E68" s="7">
+        <v>41.138108000000003</v>
+      </c>
+      <c r="F68" s="7">
+        <v>24.88841</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A69" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E69" s="7">
+        <v>40.630231999999999</v>
+      </c>
+      <c r="F69" s="7">
+        <v>24.575970999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A70" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E70" s="7">
+        <v>40.451402000000002</v>
+      </c>
+      <c r="F70" s="7">
+        <v>25.588498999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A71" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E71" s="7">
+        <v>39.877859999999998</v>
+      </c>
+      <c r="F71" s="7">
+        <v>25.065902000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A72" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E72" s="7">
+        <v>39.106766</v>
+      </c>
+      <c r="F72" s="7">
+        <v>26.549226000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A73" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E73" s="7">
+        <v>38.371211000000002</v>
+      </c>
+      <c r="F73" s="7">
+        <v>26.130711999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A74" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E74" s="7">
+        <v>36.427728000000002</v>
+      </c>
+      <c r="F74" s="7">
+        <v>28.216380999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A75" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E75" s="7">
+        <v>37.068413999999997</v>
+      </c>
+      <c r="F75" s="7">
+        <v>25.449898000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A76" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E76" s="7">
+        <v>37.118786999999998</v>
+      </c>
+      <c r="F76" s="7">
+        <v>25.240739000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A77" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E77" s="7">
+        <v>39.165528999999999</v>
+      </c>
+      <c r="F77" s="7">
+        <v>23.489733999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A78" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E78" s="7">
+        <v>39.121442999999999</v>
+      </c>
+      <c r="F78" s="7">
+        <v>23.726915999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A79" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E79" s="7">
+        <v>36.972248</v>
+      </c>
+      <c r="F79" s="7">
+        <v>24.723973999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A80" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E80" s="7">
+        <v>40.504716999999999</v>
+      </c>
+      <c r="F80" s="7">
+        <v>22.923787000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A81" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E81" s="7">
+        <v>39.769033</v>
+      </c>
+      <c r="F81" s="7">
+        <v>21.181526999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A82" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E82" s="7">
+        <v>40.808191000000001</v>
+      </c>
+      <c r="F82" s="7">
+        <v>21.128466</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Places.xlsx
+++ b/Places.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georg\Documents\Travel\Places\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802CD2ED-CB22-481C-9741-F9F56FD35C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B6A04D-9566-4A23-AB18-7AFD8DBE4A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="171">
   <si>
     <t>Place</t>
   </si>
@@ -350,16 +350,200 @@
   </si>
   <si>
     <t xml:space="preserve">Prespes </t>
+  </si>
+  <si>
+    <t>Stammheim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paris </t>
+  </si>
+  <si>
+    <t>Colmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France </t>
+  </si>
+  <si>
+    <t>Dublin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irland </t>
+  </si>
+  <si>
+    <t>Danai</t>
+  </si>
+  <si>
+    <t>Vasilina</t>
+  </si>
+  <si>
+    <t>Seealpsee</t>
+  </si>
+  <si>
+    <t>Truebsee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gemma, Sabrina </t>
+  </si>
+  <si>
+    <t>Oeschinensee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gemma, Nina, Jule </t>
+  </si>
+  <si>
+    <t>Zermatt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gemma, Sabrina, Jule </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabrina </t>
+  </si>
+  <si>
+    <t>Gelmersee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date </t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
+    <t>Lauterbrunnen</t>
+  </si>
+  <si>
+    <t>Gemma, Sabrina, Christian</t>
+  </si>
+  <si>
+    <t>St. Gallen</t>
+  </si>
+  <si>
+    <t>Brig</t>
+  </si>
+  <si>
+    <t>Gemma wearing sleeping mask.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solved the riddle of the ask two men one question </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gemma, Sabrina, Christian </t>
+  </si>
+  <si>
+    <t>Eilean Donan Castle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trip with rented car to highlands inverness and Isle of Sky. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First time in Netherlands trip with Kimon, Maria and Giannis. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second trip to Netherlands </t>
+  </si>
+  <si>
+    <t>Edinburgh and Pitlochry trip in Scotland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 day trip to Paris with Vasilina after I finished my thesis at UZH. Had just been accepted at Roche for internship. Vasilina was looking for a job in Netherlands at that time. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First time Kimon visited Switzerland and we went for one day to Colmar. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Three days full of drinking Guiness and whiskey with Danai and George. First trip of my life that I don’t explore anything and just drink with friends. Nice feeling, no regrets. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekend excursion for a hike while I am doing my internship at Roche. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Never trust a mini couper  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First time in Switzerland. Few days trip with Despoina to George and Alex in Lausanne. Never thought that I will study here at that time. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">One day trip to Ticino with Daniel during my studies at UZH. It was covid time. Most stress free travel of my life. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change of the year in Swiss alps with Annina, Carlos and others. This was the Covid year. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">One day trip with Vasiliki during my studies at UZH. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kimon was studying at Delft for the master degree. </t>
+  </si>
+  <si>
+    <t>One day trip alone when I was living in Winterthur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day trip to Bern, Fribourg, Lausanne and Montreux with Daniel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day trip to Bern, Fribourg, Lausanne and Montreux with Daniel. Also went there with Gemma and her sister for the Jazz festival. </t>
+  </si>
+  <si>
+    <t>Seven day summer school with EcoLab.</t>
+  </si>
+  <si>
+    <t>Lavertezzo</t>
+  </si>
+  <si>
+    <t>Sabrina, Gemma and Nina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two day trip to Ticino with Sabri, Gemma and Nina and munstang. Close to the end of my intership. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petros </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milano </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genova </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cannes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marseille </t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barcelona </t>
+  </si>
+  <si>
+    <t>Petros, Nikoleta and Lazis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petros, Despoina and Nikoleta </t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interail trip with Petros </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -396,6 +580,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -423,22 +613,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,15 +850,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55:B82"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1796875" customWidth="1"/>
+    <col min="7" max="7" width="25.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -684,418 +884,454 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2021</v>
-      </c>
-      <c r="E2" s="5">
-        <v>47.50564</v>
-      </c>
-      <c r="F2" s="5">
-        <v>8.7241300000000006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2021</v>
-      </c>
-      <c r="E3" s="5">
-        <v>47.366669999999999</v>
-      </c>
-      <c r="F3" s="5">
-        <v>8.5500000000000007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2021</v>
-      </c>
-      <c r="E4" s="5">
-        <v>47.225569999999998</v>
-      </c>
-      <c r="F4" s="5">
-        <v>8.8222799999999992</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2021</v>
-      </c>
-      <c r="E5" s="5">
-        <v>47.172420000000002</v>
-      </c>
-      <c r="F5" s="5">
-        <v>8.5174500000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="G1" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2">
+        <v>2013</v>
+      </c>
+      <c r="E2" s="7">
+        <v>40.354810000000001</v>
+      </c>
+      <c r="F2" s="7">
+        <v>18.172440000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3">
+        <v>2013</v>
+      </c>
+      <c r="E3" s="7">
+        <v>37.075420000000001</v>
+      </c>
+      <c r="F3" s="7">
+        <v>15.28664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4">
+        <v>2013</v>
+      </c>
+      <c r="E4" s="7">
+        <v>37.310650000000003</v>
+      </c>
+      <c r="F4" s="7">
+        <v>13.576610000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5">
+        <v>2013</v>
+      </c>
+      <c r="E5" s="7">
+        <v>37.853580000000001</v>
+      </c>
+      <c r="F5" s="7">
+        <v>15.28851</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6">
+        <v>2013</v>
+      </c>
+      <c r="E6" s="7">
+        <v>37.750267999999998</v>
+      </c>
+      <c r="F6" s="7">
+        <v>14.990641999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="8">
+        <v>2019</v>
+      </c>
+      <c r="E7" s="7">
+        <v>42.698345000000003</v>
+      </c>
+      <c r="F7" s="7">
+        <v>20.1663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2019</v>
+      </c>
+      <c r="E8" s="5">
+        <v>55.952060000000003</v>
+      </c>
+      <c r="F8" s="5">
+        <v>-3.1964800000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2019</v>
+      </c>
+      <c r="E9" s="5">
+        <v>56.70514</v>
+      </c>
+      <c r="F9" s="5">
+        <v>-3.7343199999999999</v>
+      </c>
+      <c r="G9" s="9">
+        <v>43469</v>
+      </c>
+      <c r="H9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1">
-        <v>2021</v>
-      </c>
-      <c r="E6" s="5">
-        <v>47.0505</v>
-      </c>
-      <c r="F6" s="5">
-        <v>8.3064</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2021</v>
-      </c>
-      <c r="E7" s="5">
-        <v>47.697319999999998</v>
-      </c>
-      <c r="F7" s="5">
-        <v>8.6349300000000007</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2021</v>
-      </c>
-      <c r="E8" s="5">
-        <v>46.948090000000001</v>
-      </c>
-      <c r="F8" s="5">
-        <v>7.4474400000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="D10" s="1">
+        <v>2019</v>
+      </c>
+      <c r="E10" s="5">
+        <v>57.479080000000003</v>
+      </c>
+      <c r="F10" s="5">
+        <v>-4.2239800000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="1">
-        <v>2021</v>
-      </c>
-      <c r="E9" s="5">
-        <v>47.558390000000003</v>
-      </c>
-      <c r="F9" s="5">
-        <v>7.5732699999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2021</v>
-      </c>
-      <c r="E10" s="5">
-        <v>46.991790000000002</v>
-      </c>
-      <c r="F10" s="5">
-        <v>6.931</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D11" s="1">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="E11" s="5">
-        <v>46.802370000000003</v>
+        <v>57.412880000000001</v>
       </c>
       <c r="F11" s="5">
-        <v>7.1512799999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>-6.1941800000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A12" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2021</v>
-      </c>
-      <c r="E12" s="5">
-        <v>46.433010000000003</v>
-      </c>
-      <c r="F12" s="5">
-        <v>6.9114300000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+        <v>52</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>2019</v>
+      </c>
+      <c r="E12">
+        <v>57.274028000000001</v>
+      </c>
+      <c r="F12">
+        <v>-5.5161110000000004</v>
+      </c>
+      <c r="G12" s="9">
+        <v>43586</v>
+      </c>
+      <c r="H12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="E13" s="5">
-        <v>46.515999999999998</v>
+        <v>56.415349999999997</v>
       </c>
       <c r="F13" s="5">
-        <v>6.6328199999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1">
+        <v>-5.4718400000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D14" s="1">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="E14" s="5">
-        <v>46.204391000000001</v>
+        <v>56.819800000000001</v>
       </c>
       <c r="F14" s="5">
-        <v>6.1431579999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1">
+        <v>-5.1052</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="D15" s="1">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="E15" s="5">
-        <v>46.170859999999998</v>
+        <v>56.68282</v>
       </c>
       <c r="F15" s="5">
-        <v>8.7995300000000007</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1">
+        <v>-5.1059799999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="D16" s="1">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="E16" s="5">
-        <v>46.192779999999999</v>
+        <v>56.230519999999999</v>
       </c>
       <c r="F16" s="5">
-        <v>9.0170300000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1">
+        <v>-5.0747400000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="D17" s="1">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="E17" s="5">
-        <v>46.010080000000002</v>
+        <v>56.119030000000002</v>
       </c>
       <c r="F17" s="5">
-        <v>8.9600399999999993</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1">
+        <v>-3.93682</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D18" s="1">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="E18" s="5">
-        <v>46.533990000000003</v>
+        <v>55.86515</v>
       </c>
       <c r="F18" s="5">
-        <v>9.8727599999999995</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1">
+        <v>-4.2576299999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D19" s="1">
         <v>2021</v>
       </c>
       <c r="E19" s="5">
-        <v>46.683869999999999</v>
+        <v>51.220469999999999</v>
       </c>
       <c r="F19" s="5">
-        <v>7.8663800000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1">
+        <v>4.4002600000000003</v>
+      </c>
+      <c r="G19" s="9">
+        <v>44560</v>
+      </c>
+      <c r="H19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D20" s="1">
         <v>2021</v>
       </c>
       <c r="E20" s="5">
-        <v>46.785780000000003</v>
+        <v>52.00667</v>
       </c>
       <c r="F20" s="5">
-        <v>8.1598400000000009</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1">
+        <v>4.3555599999999997</v>
+      </c>
+      <c r="G20" s="9">
+        <v>44557</v>
+      </c>
+      <c r="H20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D21" s="1">
         <v>2021</v>
       </c>
       <c r="E21" s="5">
-        <v>46.751179999999998</v>
+        <v>52.07667</v>
       </c>
       <c r="F21" s="5">
-        <v>7.6216600000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="12.5">
+        <v>4.29861</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D22" s="1">
         <v>2021</v>
       </c>
       <c r="E22" s="5">
-        <v>52.377955999999998</v>
+        <v>51.922499999999999</v>
       </c>
       <c r="F22" s="5">
-        <v>4.8970700000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="12.5">
+        <v>4.4791699999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="12.5">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>35</v>
@@ -1107,15 +1343,21 @@
         <v>2021</v>
       </c>
       <c r="E23" s="5">
-        <v>52.00667</v>
+        <v>51.81</v>
       </c>
       <c r="F23" s="5">
-        <v>4.3555599999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="12.5">
-      <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>4.67361</v>
+      </c>
+      <c r="G23" s="9">
+        <v>44560</v>
+      </c>
+      <c r="H23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="12.5">
+      <c r="A24" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>35</v>
@@ -1127,35 +1369,47 @@
         <v>2021</v>
       </c>
       <c r="E24" s="5">
-        <v>52.07667</v>
+        <v>51.975830000000002</v>
       </c>
       <c r="F24" s="5">
-        <v>4.29861</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="12.5">
+        <v>4.3138899999999998</v>
+      </c>
+      <c r="G24" s="9">
+        <v>44560</v>
+      </c>
+      <c r="H24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="12.5">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D25" s="1">
         <v>2021</v>
       </c>
       <c r="E25" s="5">
-        <v>51.922499999999999</v>
+        <v>51.586559999999999</v>
       </c>
       <c r="F25" s="5">
-        <v>4.4791699999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="12.5">
+        <v>4.7759600000000004</v>
+      </c>
+      <c r="G25" s="9">
+        <v>44381</v>
+      </c>
+      <c r="H25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="12.5">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>35</v>
@@ -1167,15 +1421,21 @@
         <v>2021</v>
       </c>
       <c r="E26" s="5">
-        <v>51.586559999999999</v>
-      </c>
-      <c r="F26" s="5">
-        <v>4.7759600000000004</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="12.5">
+        <v>52.63167</v>
+      </c>
+      <c r="F26" s="6">
+        <v>4.7486100000000002</v>
+      </c>
+      <c r="G26" s="9">
+        <v>44382</v>
+      </c>
+      <c r="H26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="12.5">
       <c r="A27" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>35</v>
@@ -1187,15 +1447,21 @@
         <v>2021</v>
       </c>
       <c r="E27" s="5">
-        <v>52.63167</v>
-      </c>
-      <c r="F27" s="6">
-        <v>4.7486100000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="12.5">
+        <v>52.642499999999998</v>
+      </c>
+      <c r="F27" s="5">
+        <v>5.0597200000000004</v>
+      </c>
+      <c r="G27" s="9">
+        <v>44383</v>
+      </c>
+      <c r="H27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="12.5">
       <c r="A28" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>35</v>
@@ -1207,892 +1473,1485 @@
         <v>2021</v>
       </c>
       <c r="E28" s="5">
-        <v>52.642499999999998</v>
+        <v>52.380839999999999</v>
       </c>
       <c r="F28" s="5">
-        <v>5.0597200000000004</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="12.5">
+        <v>4.6368299999999998</v>
+      </c>
+      <c r="G28" s="9">
+        <v>44384</v>
+      </c>
+      <c r="H28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="12.5">
       <c r="A29" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D29" s="1">
         <v>2021</v>
       </c>
       <c r="E29" s="5">
-        <v>52.380839999999999</v>
+        <v>52.377955999999998</v>
       </c>
       <c r="F29" s="5">
-        <v>4.6368299999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="12.5">
+        <v>4.8970700000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="12.5">
       <c r="A30" s="1" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D30" s="1">
         <v>2021</v>
       </c>
       <c r="E30" s="5">
-        <v>51.81</v>
+        <v>46.991790000000002</v>
       </c>
       <c r="F30" s="5">
-        <v>4.67361</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="12.5">
-      <c r="A31" s="2" t="s">
-        <v>47</v>
+        <v>6.931</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="12.5">
+      <c r="A31" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D31" s="1">
         <v>2021</v>
       </c>
       <c r="E31" s="5">
-        <v>51.975830000000002</v>
+        <v>46.533990000000003</v>
       </c>
       <c r="F31" s="5">
-        <v>4.3138899999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="12.5">
+        <v>9.8727599999999995</v>
+      </c>
+      <c r="G31" s="9">
+        <v>44198</v>
+      </c>
+      <c r="H31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="12.5">
       <c r="A32" s="1" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D32" s="1">
         <v>2021</v>
       </c>
       <c r="E32" s="5">
-        <v>51.220469999999999</v>
+        <v>47.172420000000002</v>
       </c>
       <c r="F32" s="5">
-        <v>4.4002600000000003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="12.5">
+        <v>8.5174500000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="12.5">
       <c r="A33" s="1" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>52</v>
+        <v>7</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D33" s="1">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="E33" s="5">
-        <v>55.86515</v>
+        <v>46.802370000000003</v>
       </c>
       <c r="F33" s="5">
-        <v>-4.2576299999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="12.5">
+        <v>7.1512799999999999</v>
+      </c>
+      <c r="G33" s="9">
+        <v>44363</v>
+      </c>
+      <c r="H33" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="12.5">
       <c r="A34" s="1" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D34" s="1">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="E34" s="5">
-        <v>55.952060000000003</v>
+        <v>46.433010000000003</v>
       </c>
       <c r="F34" s="5">
-        <v>-3.1964800000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="12.5">
+        <v>6.9114300000000002</v>
+      </c>
+      <c r="G34" s="9">
+        <v>44363</v>
+      </c>
+      <c r="H34" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="12.5">
       <c r="A35" s="1" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="D35" s="1">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="E35" s="5">
-        <v>56.119030000000002</v>
+        <v>46.170859999999998</v>
       </c>
       <c r="F35" s="5">
-        <v>-3.93682</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="12.5">
+        <v>8.7995300000000007</v>
+      </c>
+      <c r="G35" s="9">
+        <v>44290</v>
+      </c>
+      <c r="H35" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="12.5">
       <c r="A36" s="1" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="D36" s="1">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="E36" s="5">
-        <v>56.415349999999997</v>
+        <v>46.192779999999999</v>
       </c>
       <c r="F36" s="5">
-        <v>-5.4718400000000003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="12.5">
+        <v>9.0170300000000001</v>
+      </c>
+      <c r="G36" s="9">
+        <v>44290</v>
+      </c>
+      <c r="H36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="12.5">
       <c r="A37" s="1" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="D37" s="1">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="E37" s="5">
-        <v>56.819800000000001</v>
+        <v>46.010080000000002</v>
       </c>
       <c r="F37" s="5">
-        <v>-5.1052</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="12.5">
+        <v>8.9600399999999993</v>
+      </c>
+      <c r="G37" s="9">
+        <v>44290</v>
+      </c>
+      <c r="H37" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="12.5">
       <c r="A38" s="1" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="D38" s="1">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="E38" s="5">
-        <v>56.68282</v>
+        <v>46.948090000000001</v>
       </c>
       <c r="F38" s="5">
-        <v>-5.1059799999999997</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="12.5">
+        <v>7.4474400000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="12.5">
       <c r="A39" s="1" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="D39" s="1">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="E39" s="5">
-        <v>56.230519999999999</v>
+        <v>46.515999999999998</v>
       </c>
       <c r="F39" s="5">
-        <v>-5.0747400000000003</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="12.5">
+        <v>6.6328199999999997</v>
+      </c>
+      <c r="G39" s="9">
+        <v>43775</v>
+      </c>
+      <c r="H39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="12.5">
       <c r="A40" s="1" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E40" s="5">
+        <v>46.204391000000001</v>
+      </c>
+      <c r="F40" s="5">
+        <v>6.1431579999999997</v>
+      </c>
+      <c r="G40" s="9">
+        <v>43775</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="12.5">
+      <c r="A41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="1">
-        <v>2019</v>
-      </c>
-      <c r="E40" s="5">
-        <v>57.479080000000003</v>
-      </c>
-      <c r="F40" s="5">
-        <v>-4.2239800000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="12.5">
-      <c r="A41" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="D41" s="1">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="E41" s="5">
-        <v>56.70514</v>
+        <v>47.0505</v>
       </c>
       <c r="F41" s="5">
-        <v>-3.7343199999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="12.5">
+        <v>8.3064</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="12.5">
       <c r="A42" s="1" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="1">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="E42" s="5">
-        <v>57.412880000000001</v>
+        <v>47.558390000000003</v>
       </c>
       <c r="F42" s="5">
-        <v>-6.1941800000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="12.5">
-      <c r="A43" s="3" t="s">
-        <v>65</v>
+        <v>7.5732699999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="12.5">
+      <c r="A43" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>66</v>
+        <v>7</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2021</v>
       </c>
       <c r="E43" s="5">
-        <v>42.672719999999998</v>
+        <v>46.683869999999999</v>
       </c>
       <c r="F43" s="5">
-        <v>21.166879999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A44" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D44" s="8">
-        <v>2019</v>
-      </c>
-      <c r="E44" s="7">
-        <v>42.698345000000003</v>
-      </c>
-      <c r="F44" s="7">
-        <v>20.1663</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A45" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E45" s="7">
-        <v>41.891930000000002</v>
-      </c>
-      <c r="F45" s="7">
-        <v>12.511329999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A46" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="7">
-        <v>43.779249999999998</v>
-      </c>
-      <c r="F46" s="7">
-        <v>11.246259999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A47" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="7">
-        <v>40.745739999999998</v>
-      </c>
-      <c r="F47" s="7">
-        <v>14.496980000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A48" s="8" t="s">
+        <v>7.8663800000000004</v>
+      </c>
+      <c r="G43" s="9">
+        <v>44548</v>
+      </c>
+      <c r="H43" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="12.5">
+      <c r="A44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E44" s="5">
+        <v>46.785780000000003</v>
+      </c>
+      <c r="F44" s="5">
+        <v>8.1598400000000009</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E45" s="5">
+        <v>46.751179999999998</v>
+      </c>
+      <c r="F45" s="5">
+        <v>7.6216600000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E46" s="5">
+        <v>47.50564</v>
+      </c>
+      <c r="F46" s="5">
+        <v>8.7241300000000006</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E47" s="5">
+        <v>47.366669999999999</v>
+      </c>
+      <c r="F47" s="5">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E48" s="5">
+        <v>47.225569999999998</v>
+      </c>
+      <c r="F48" s="5">
+        <v>8.8222799999999992</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E49" s="5">
+        <v>47.697319999999998</v>
+      </c>
+      <c r="F49" s="5">
+        <v>8.6349300000000007</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A50" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50">
+        <v>2022</v>
+      </c>
+      <c r="E50">
+        <v>48.080779999999997</v>
+      </c>
+      <c r="F50">
+        <v>7.3558399999999997</v>
+      </c>
+      <c r="G50" s="9">
+        <v>44666</v>
+      </c>
+      <c r="H50" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A51" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51">
+        <v>2022</v>
+      </c>
+      <c r="E51">
+        <v>48.853409999999997</v>
+      </c>
+      <c r="F51">
+        <v>2.3488000000000002</v>
+      </c>
+      <c r="G51" s="9">
+        <v>44625</v>
+      </c>
+      <c r="H51" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A52" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" t="s">
+        <v>116</v>
+      </c>
+      <c r="D52">
+        <v>2022</v>
+      </c>
+      <c r="E52">
+        <v>53.333060000000003</v>
+      </c>
+      <c r="F52">
+        <v>-6.2488900000000003</v>
+      </c>
+      <c r="G52" s="9">
+        <v>44690</v>
+      </c>
+      <c r="H52" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A53" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>122</v>
+      </c>
+      <c r="D53">
+        <v>2022</v>
+      </c>
+      <c r="E53">
+        <v>46.793889</v>
+      </c>
+      <c r="F53">
+        <v>8.3908330000000007</v>
+      </c>
+      <c r="G53" s="9">
+        <v>44716</v>
+      </c>
+      <c r="H53" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A54" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>120</v>
+      </c>
+      <c r="D54">
+        <v>2022</v>
+      </c>
+      <c r="E54">
+        <v>47.268889000000001</v>
+      </c>
+      <c r="F54">
+        <v>9.4</v>
+      </c>
+      <c r="G54" s="9">
+        <v>44707</v>
+      </c>
+      <c r="H54" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A55" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D55">
+        <v>2022</v>
+      </c>
+      <c r="E55" s="11">
+        <v>47.423560000000002</v>
+      </c>
+      <c r="F55" s="11">
+        <v>9.3774899999999999</v>
+      </c>
+      <c r="G55" s="9">
+        <v>44706</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A56" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D56">
+        <v>2022</v>
+      </c>
+      <c r="E56">
+        <v>46.498333000000002</v>
+      </c>
+      <c r="F56">
+        <v>7.7269439999999996</v>
+      </c>
+      <c r="G56" s="9">
+        <v>44723</v>
+      </c>
+      <c r="H56" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A57" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>124</v>
+      </c>
+      <c r="D57">
+        <v>2022</v>
+      </c>
+      <c r="E57">
+        <v>46.023603999999999</v>
+      </c>
+      <c r="F57">
+        <v>7.7486069999999998</v>
+      </c>
+      <c r="G57" s="9">
+        <v>44766</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A58" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D58">
+        <v>2022</v>
+      </c>
+      <c r="E58" s="11">
+        <v>46.599991000000003</v>
+      </c>
+      <c r="F58" s="11">
+        <v>7.908887</v>
+      </c>
+      <c r="G58" s="9">
+        <v>44764</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A59" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D59">
+        <v>2022</v>
+      </c>
+      <c r="E59" s="11">
+        <v>46.316136</v>
+      </c>
+      <c r="F59" s="11">
+        <v>7.9872899999999998</v>
+      </c>
+      <c r="G59" s="9">
+        <v>44765</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A60" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60">
+        <v>2022</v>
+      </c>
+      <c r="E60">
+        <v>46.616110999999997</v>
+      </c>
+      <c r="F60">
+        <v>8.3322219999999998</v>
+      </c>
+      <c r="G60" s="9">
+        <v>44772</v>
+      </c>
+      <c r="H60" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A61" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1">
+        <v>2022</v>
+      </c>
+      <c r="E61" s="5">
+        <v>47.636623999999998</v>
+      </c>
+      <c r="F61" s="5">
+        <v>8.7891720000000007</v>
+      </c>
+      <c r="G61" s="9">
+        <v>44591</v>
+      </c>
+      <c r="H61" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A62" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B62" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E62" s="7">
         <v>42.697510000000001</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F62" s="7">
         <v>23.324149999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A49" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D49">
-        <v>2013</v>
-      </c>
-      <c r="E49" s="7">
-        <v>40.354810000000001</v>
-      </c>
-      <c r="F49" s="7">
-        <v>18.172440000000002</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A50" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D50">
-        <v>2013</v>
-      </c>
-      <c r="E50" s="7">
-        <v>37.075420000000001</v>
-      </c>
-      <c r="F50" s="7">
-        <v>15.28664</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A51" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D51">
-        <v>2013</v>
-      </c>
-      <c r="E51" s="7">
-        <v>37.310650000000003</v>
-      </c>
-      <c r="F51" s="7">
-        <v>13.576610000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A52" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D52">
-        <v>2013</v>
-      </c>
-      <c r="E52" s="7">
-        <v>37.853580000000001</v>
-      </c>
-      <c r="F52" s="7">
-        <v>15.28851</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A53" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D53">
-        <v>2013</v>
-      </c>
-      <c r="E53" s="7">
-        <v>37.750267999999998</v>
-      </c>
-      <c r="F53" s="7">
-        <v>14.990641999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A54" s="8" t="s">
+    <row r="63" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A63" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E54" s="7">
-        <v>40.626631000000003</v>
-      </c>
-      <c r="F54" s="7">
-        <v>22.950029000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A55" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E55" s="7">
-        <v>40.521648999999996</v>
-      </c>
-      <c r="F55" s="7">
-        <v>21.263010999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A56" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E56" s="7">
-        <v>39.669618999999997</v>
-      </c>
-      <c r="F56" s="7">
-        <v>20.857987000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A57" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E57" s="7">
-        <v>39.198498999999998</v>
-      </c>
-      <c r="F57" s="7">
-        <v>20.184436000000002</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A58" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E58" s="7">
-        <v>38.955786000000003</v>
-      </c>
-      <c r="F58" s="7">
-        <v>20.75263</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A59" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E59" s="7">
-        <v>38.827415999999999</v>
-      </c>
-      <c r="F59" s="7">
-        <v>20.700458999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A60" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E60" s="7">
-        <v>38.244990999999999</v>
-      </c>
-      <c r="F60" s="7">
-        <v>21.734522999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A61" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E61" s="7">
-        <v>37.983759999999997</v>
-      </c>
-      <c r="F61" s="7">
-        <v>23.72784</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A62" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E62" s="7">
-        <v>39.359924999999997</v>
-      </c>
-      <c r="F62" s="7">
-        <v>22.947213000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A63" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>80</v>
       </c>
       <c r="E63" s="7">
-        <v>39.388793999999997</v>
+        <v>40.626631000000003</v>
       </c>
       <c r="F63" s="7">
-        <v>23.173162999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="15.75" customHeight="1">
+        <v>22.950029000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" customHeight="1">
       <c r="A64" s="8" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>80</v>
       </c>
       <c r="E64" s="7">
-        <v>40.154102000000002</v>
+        <v>40.521648999999996</v>
       </c>
       <c r="F64" s="7">
-        <v>23.915412</v>
+        <v>21.263010999999999</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1">
       <c r="A65" s="8" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>80</v>
       </c>
       <c r="E65" s="7">
-        <v>41.149323000000003</v>
+        <v>39.669618999999997</v>
       </c>
       <c r="F65" s="7">
-        <v>24.147006000000001</v>
+        <v>20.857987000000001</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1">
       <c r="A66" s="8" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>80</v>
       </c>
       <c r="E66" s="7">
-        <v>41.109025000000003</v>
+        <v>39.198498999999998</v>
       </c>
       <c r="F66" s="7">
-        <v>24.029107</v>
+        <v>20.184436000000002</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1">
       <c r="A67" s="8" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>80</v>
       </c>
       <c r="E67" s="7">
-        <v>40.935738000000001</v>
+        <v>38.955786000000003</v>
       </c>
       <c r="F67" s="7">
-        <v>24.412331999999999</v>
+        <v>20.75263</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1">
       <c r="A68" s="8" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>80</v>
       </c>
       <c r="E68" s="7">
-        <v>41.138108000000003</v>
+        <v>38.827415999999999</v>
       </c>
       <c r="F68" s="7">
-        <v>24.88841</v>
+        <v>20.700458999999999</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" customHeight="1">
       <c r="A69" s="8" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>80</v>
       </c>
       <c r="E69" s="7">
-        <v>40.630231999999999</v>
+        <v>38.244990999999999</v>
       </c>
       <c r="F69" s="7">
-        <v>24.575970999999999</v>
+        <v>21.734522999999999</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" customHeight="1">
       <c r="A70" s="8" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>80</v>
       </c>
       <c r="E70" s="7">
-        <v>40.451402000000002</v>
+        <v>37.983759999999997</v>
       </c>
       <c r="F70" s="7">
-        <v>25.588498999999999</v>
+        <v>23.72784</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" customHeight="1">
       <c r="A71" s="8" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>80</v>
       </c>
       <c r="E71" s="7">
-        <v>39.877859999999998</v>
+        <v>39.359924999999997</v>
       </c>
       <c r="F71" s="7">
-        <v>25.065902000000001</v>
+        <v>22.947213000000001</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" customHeight="1">
       <c r="A72" s="8" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>80</v>
       </c>
       <c r="E72" s="7">
-        <v>39.106766</v>
+        <v>39.388793999999997</v>
       </c>
       <c r="F72" s="7">
-        <v>26.549226000000001</v>
+        <v>23.173162999999999</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1">
       <c r="A73" s="8" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>80</v>
       </c>
       <c r="E73" s="7">
-        <v>38.371211000000002</v>
+        <v>40.154102000000002</v>
       </c>
       <c r="F73" s="7">
-        <v>26.130711999999999</v>
+        <v>23.915412</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1">
       <c r="A74" s="8" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>80</v>
       </c>
       <c r="E74" s="7">
-        <v>36.427728000000002</v>
+        <v>41.149323000000003</v>
       </c>
       <c r="F74" s="7">
-        <v>28.216380999999998</v>
+        <v>24.147006000000001</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1">
       <c r="A75" s="8" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>80</v>
       </c>
       <c r="E75" s="7">
-        <v>37.068413999999997</v>
+        <v>41.109025000000003</v>
       </c>
       <c r="F75" s="7">
-        <v>25.449898000000001</v>
+        <v>24.029107</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" customHeight="1">
       <c r="A76" s="8" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>80</v>
       </c>
       <c r="E76" s="7">
-        <v>37.118786999999998</v>
+        <v>40.935738000000001</v>
       </c>
       <c r="F76" s="7">
-        <v>25.240739000000001</v>
+        <v>24.412331999999999</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" customHeight="1">
       <c r="A77" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>80</v>
       </c>
       <c r="E77" s="7">
-        <v>39.165528999999999</v>
+        <v>41.138108000000003</v>
       </c>
       <c r="F77" s="7">
-        <v>23.489733999999999</v>
+        <v>24.88841</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" customHeight="1">
       <c r="A78" s="8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>80</v>
       </c>
       <c r="E78" s="7">
-        <v>39.121442999999999</v>
+        <v>40.630231999999999</v>
       </c>
       <c r="F78" s="7">
-        <v>23.726915999999999</v>
+        <v>24.575970999999999</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1">
       <c r="A79" s="8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>80</v>
       </c>
       <c r="E79" s="7">
-        <v>36.972248</v>
+        <v>40.451402000000002</v>
       </c>
       <c r="F79" s="7">
-        <v>24.723973999999998</v>
+        <v>25.588498999999999</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" customHeight="1">
       <c r="A80" s="8" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>80</v>
       </c>
       <c r="E80" s="7">
-        <v>40.504716999999999</v>
+        <v>39.877859999999998</v>
       </c>
       <c r="F80" s="7">
-        <v>22.923787000000001</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="15.75" customHeight="1">
+        <v>25.065902000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15.75" customHeight="1">
       <c r="A81" s="8" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>80</v>
       </c>
       <c r="E81" s="7">
-        <v>39.769033</v>
+        <v>39.106766</v>
       </c>
       <c r="F81" s="7">
-        <v>21.181526999999999</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="15.75" customHeight="1">
+        <v>26.549226000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15.75" customHeight="1">
       <c r="A82" s="8" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>80</v>
       </c>
       <c r="E82" s="7">
+        <v>38.371211000000002</v>
+      </c>
+      <c r="F82" s="7">
+        <v>26.130711999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A83" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E83" s="7">
+        <v>36.427728000000002</v>
+      </c>
+      <c r="F83" s="7">
+        <v>28.216380999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A84" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E84" s="7">
+        <v>37.068413999999997</v>
+      </c>
+      <c r="F84" s="7">
+        <v>25.449898000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A85" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E85" s="7">
+        <v>37.118786999999998</v>
+      </c>
+      <c r="F85" s="7">
+        <v>25.240739000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A86" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E86" s="7">
+        <v>39.165528999999999</v>
+      </c>
+      <c r="F86" s="7">
+        <v>23.489733999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A87" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E87" s="7">
+        <v>39.121442999999999</v>
+      </c>
+      <c r="F87" s="7">
+        <v>23.726915999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A88" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E88" s="7">
+        <v>36.972248</v>
+      </c>
+      <c r="F88" s="7">
+        <v>24.723973999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A89" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E89" s="7">
+        <v>40.504716999999999</v>
+      </c>
+      <c r="F89" s="7">
+        <v>22.923787000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A90" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E90" s="7">
+        <v>39.769033</v>
+      </c>
+      <c r="F90" s="7">
+        <v>21.181526999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A91" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E91" s="7">
         <v>40.808191000000001</v>
       </c>
-      <c r="F82" s="7">
+      <c r="F91" s="7">
         <v>21.128466</v>
       </c>
     </row>
+    <row r="92" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A92" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E92" s="7">
+        <v>41.891930000000002</v>
+      </c>
+      <c r="F92" s="7">
+        <v>12.511329999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A93" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" s="7">
+        <v>43.779249999999998</v>
+      </c>
+      <c r="F93" s="7">
+        <v>11.246259999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A94" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" s="7">
+        <v>40.745739999999998</v>
+      </c>
+      <c r="F94" s="7">
+        <v>14.496980000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A95" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E95" s="5">
+        <v>42.672719999999998</v>
+      </c>
+      <c r="F95" s="5">
+        <v>21.166879999999999</v>
+      </c>
+      <c r="H95" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A96" t="s">
+        <v>155</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D96">
+        <v>2022</v>
+      </c>
+      <c r="E96">
+        <v>46.25</v>
+      </c>
+      <c r="F96">
+        <v>8.8333329999999997</v>
+      </c>
+      <c r="G96" s="9">
+        <v>44795</v>
+      </c>
+      <c r="H96" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A97" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D97">
+        <v>2022</v>
+      </c>
+      <c r="E97">
+        <v>45.465421900000003</v>
+      </c>
+      <c r="F97">
+        <v>9.1859242999999999</v>
+      </c>
+      <c r="G97" s="9">
+        <v>44800</v>
+      </c>
+      <c r="H97" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A98" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D98">
+        <v>2022</v>
+      </c>
+      <c r="E98">
+        <v>44.414164999999997</v>
+      </c>
+      <c r="F98">
+        <v>8.9421839999999992</v>
+      </c>
+      <c r="G98" s="9">
+        <v>44801</v>
+      </c>
+      <c r="H98" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A99" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D99">
+        <v>2022</v>
+      </c>
+      <c r="E99">
+        <v>43.551299999999998</v>
+      </c>
+      <c r="F99">
+        <v>7.0128000000000004</v>
+      </c>
+      <c r="G99" s="9">
+        <v>44802</v>
+      </c>
+      <c r="H99" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A100" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D100">
+        <v>2022</v>
+      </c>
+      <c r="E100">
+        <v>43.296398000000003</v>
+      </c>
+      <c r="F100">
+        <v>5.37</v>
+      </c>
+      <c r="G100" s="9">
+        <v>44802</v>
+      </c>
+      <c r="H100" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A101" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D101">
+        <v>2022</v>
+      </c>
+      <c r="E101">
+        <v>43.611899999999999</v>
+      </c>
+      <c r="F101">
+        <v>3.8772000000000002</v>
+      </c>
+      <c r="G101" s="9">
+        <v>44802</v>
+      </c>
+      <c r="H101" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A102" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D102">
+        <v>2022</v>
+      </c>
+      <c r="E102">
+        <v>41.390205000000002</v>
+      </c>
+      <c r="F102">
+        <v>2.154007</v>
+      </c>
+      <c r="G102" s="9">
+        <v>44805</v>
+      </c>
+      <c r="H102" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A103" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D103">
+        <v>2022</v>
+      </c>
+      <c r="E103">
+        <v>45.763420000000004</v>
+      </c>
+      <c r="F103">
+        <v>4.8342770000000002</v>
+      </c>
+      <c r="G103" s="9">
+        <v>44807</v>
+      </c>
+      <c r="H103" t="s">
+        <v>170</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H95">
+    <sortCondition ref="D2:D95"/>
+    <sortCondition ref="B2:B95"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Places.xlsx
+++ b/Places.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georg\Documents\Travel\Places\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B6A04D-9566-4A23-AB18-7AFD8DBE4A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3EEB37-8032-4577-AFBF-F247C28D5B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="187">
   <si>
     <t>Place</t>
   </si>
@@ -532,7 +532,55 @@
     <t>Lyon</t>
   </si>
   <si>
-    <t xml:space="preserve">Interail trip with Petros </t>
+    <t xml:space="preserve">Sabrina, Christian </t>
+  </si>
+  <si>
+    <t>Bari</t>
+  </si>
+  <si>
+    <t>Gallipoli</t>
+  </si>
+  <si>
+    <t>Santa Maria di Leuca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polignano </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabrina, Christian, Maria </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trip to south Italy with Sabri and Christian. The day that Maria arrived. She stayed for less than 20 hours after a flight from Cyprus to Thessaloniki to Mykonos to Budapest and finally to Italy. She was desperate to buy a vaccum cleaner. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Four days to South Italy with Sabri and Christian. Soo much food in amazing restaurants. First time that I try seafood. Really cool beatch bars. </t>
+  </si>
+  <si>
+    <t>Sabri forgot her swimsuit in the sink and the sink open…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interail trip with Petros. Fancy place but to glamurus. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interail trip with Petros. We stayed in a hostel and met a young german girl traveling around europe. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interail trip with Petros. Really bad version of Chalkidiki. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interail trip with Petros. Met Nikoleta and Despoina after many years. Connection with Despoina seems a bit unstable. Its probably the last time we meet. Although she says that she is interested in keeping contact, it does not feel like it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interail trip with Petros. One of the most beautiful cities in France I have been so far. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interail trip with Petros. With Nikoleta and Paulos. We also met Lazis after a long time. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interail trip with Petros. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second trip to Netherlands. Day trip with bus to Antwerp. </t>
   </si>
 </sst>
 </file>
@@ -850,15 +898,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.1796875" customWidth="1"/>
     <col min="7" max="7" width="25.90625" style="9" bestFit="1" customWidth="1"/>
@@ -1260,7 +1308,7 @@
         <v>44560</v>
       </c>
       <c r="H19" t="s">
-        <v>139</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
@@ -2788,7 +2836,7 @@
         <v>44800</v>
       </c>
       <c r="H97" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15.75" customHeight="1">
@@ -2814,7 +2862,7 @@
         <v>44801</v>
       </c>
       <c r="H98" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.75" customHeight="1">
@@ -2840,7 +2888,7 @@
         <v>44802</v>
       </c>
       <c r="H99" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15.75" customHeight="1">
@@ -2866,7 +2914,7 @@
         <v>44802</v>
       </c>
       <c r="H100" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="15.75" customHeight="1">
@@ -2892,7 +2940,7 @@
         <v>44802</v>
       </c>
       <c r="H101" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15.75" customHeight="1">
@@ -2918,7 +2966,7 @@
         <v>44805</v>
       </c>
       <c r="H102" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="15.75" customHeight="1">
@@ -2944,7 +2992,108 @@
         <v>44807</v>
       </c>
       <c r="H103" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A104" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C104" s="8" t="s">
         <v>170</v>
+      </c>
+      <c r="D104">
+        <v>2022</v>
+      </c>
+      <c r="E104">
+        <v>41.125278000000002</v>
+      </c>
+      <c r="F104">
+        <v>16.866667</v>
+      </c>
+      <c r="G104" s="9">
+        <v>44822</v>
+      </c>
+      <c r="H104" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A105" t="s">
+        <v>172</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D105">
+        <v>2022</v>
+      </c>
+      <c r="E105">
+        <v>40.055850999999997</v>
+      </c>
+      <c r="F105">
+        <v>17.992615000000001</v>
+      </c>
+      <c r="G105" s="9">
+        <v>44823</v>
+      </c>
+      <c r="H105" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A106" t="s">
+        <v>173</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D106">
+        <v>2022</v>
+      </c>
+      <c r="E106">
+        <v>39.800596797600001</v>
+      </c>
+      <c r="F106">
+        <v>18.354165250000001</v>
+      </c>
+      <c r="G106" s="9">
+        <v>44824</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A107" t="s">
+        <v>174</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D107">
+        <v>2022</v>
+      </c>
+      <c r="E107">
+        <v>40.99221</v>
+      </c>
+      <c r="F107">
+        <v>17.221489999999999</v>
+      </c>
+      <c r="G107" s="9">
+        <v>44824</v>
+      </c>
+      <c r="H107" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/Places.xlsx
+++ b/Places.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georg\Documents\Travel\Places\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3EEB37-8032-4577-AFBF-F247C28D5B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB14290E-2C20-4421-BBFD-B3B03F52A176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="193">
   <si>
     <t>Place</t>
   </si>
@@ -481,9 +481,6 @@
     <t xml:space="preserve">Day trip to Bern, Fribourg, Lausanne and Montreux with Daniel </t>
   </si>
   <si>
-    <t xml:space="preserve">Day trip to Bern, Fribourg, Lausanne and Montreux with Daniel. Also went there with Gemma and her sister for the Jazz festival. </t>
-  </si>
-  <si>
     <t>Seven day summer school with EcoLab.</t>
   </si>
   <si>
@@ -581,6 +578,27 @@
   </si>
   <si>
     <t xml:space="preserve">Second trip to Netherlands. Day trip with bus to Antwerp. </t>
+  </si>
+  <si>
+    <t>Lörrach</t>
+  </si>
+  <si>
+    <t>First trip with new e-bike to Lorrach</t>
+  </si>
+  <si>
+    <t>Alone</t>
+  </si>
+  <si>
+    <t>Day trip to Bern, Fribourg, Lausanne and Montreux with Daniel. Also went there on the 16th of July 2022 with Gemma and her sister, Marina, for the Jazz festival. First time that I met Joelle.</t>
+  </si>
+  <si>
+    <t>Klewenalp</t>
+  </si>
+  <si>
+    <t>Gemma, Sabrina, Sofia, Nina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day trip to mountain with view of Luzern. First time that I try the lifts. </t>
   </si>
 </sst>
 </file>
@@ -898,10 +916,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H110" sqref="H110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1308,7 +1326,7 @@
         <v>44560</v>
       </c>
       <c r="H19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
@@ -1668,7 +1686,7 @@
         <v>44363</v>
       </c>
       <c r="H34" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="12.5">
@@ -2784,18 +2802,18 @@
         <v>21.166879999999999</v>
       </c>
       <c r="H95" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15.75" customHeight="1">
       <c r="A96" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D96">
         <v>2022</v>
@@ -2810,18 +2828,18 @@
         <v>44795</v>
       </c>
       <c r="H96" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="15.75" customHeight="1">
       <c r="A97" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C97" s="8" t="s">
         <v>158</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>159</v>
       </c>
       <c r="D97">
         <v>2022</v>
@@ -2836,18 +2854,18 @@
         <v>44800</v>
       </c>
       <c r="H97" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15.75" customHeight="1">
       <c r="A98" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C98" s="8" t="s">
         <v>158</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>159</v>
       </c>
       <c r="D98">
         <v>2022</v>
@@ -2862,18 +2880,18 @@
         <v>44801</v>
       </c>
       <c r="H98" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.75" customHeight="1">
       <c r="A99" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D99">
         <v>2022</v>
@@ -2888,18 +2906,18 @@
         <v>44802</v>
       </c>
       <c r="H99" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15.75" customHeight="1">
       <c r="A100" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D100">
         <v>2022</v>
@@ -2914,18 +2932,18 @@
         <v>44802</v>
       </c>
       <c r="H100" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="15.75" customHeight="1">
       <c r="A101" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D101">
         <v>2022</v>
@@ -2940,18 +2958,18 @@
         <v>44802</v>
       </c>
       <c r="H101" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15.75" customHeight="1">
       <c r="A102" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C102" s="8" t="s">
         <v>166</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>167</v>
       </c>
       <c r="D102">
         <v>2022</v>
@@ -2966,18 +2984,18 @@
         <v>44805</v>
       </c>
       <c r="H102" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="15.75" customHeight="1">
       <c r="A103" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D103">
         <v>2022</v>
@@ -2992,18 +3010,18 @@
         <v>44807</v>
       </c>
       <c r="H103" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15.75" customHeight="1">
       <c r="A104" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D104">
         <v>2022</v>
@@ -3018,18 +3036,18 @@
         <v>44822</v>
       </c>
       <c r="H104" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="15.75" customHeight="1">
       <c r="A105" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D105">
         <v>2022</v>
@@ -3044,18 +3062,18 @@
         <v>44823</v>
       </c>
       <c r="H105" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="15.75" customHeight="1">
       <c r="A106" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D106">
         <v>2022</v>
@@ -3072,13 +3090,13 @@
     </row>
     <row r="107" spans="1:8" ht="15.75" customHeight="1">
       <c r="A107" t="s">
+        <v>173</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C107" s="8" t="s">
         <v>174</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>175</v>
       </c>
       <c r="D107">
         <v>2022</v>
@@ -3093,7 +3111,59 @@
         <v>44824</v>
       </c>
       <c r="H107" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A108" t="s">
+        <v>186</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D108">
+        <v>2022</v>
+      </c>
+      <c r="E108">
+        <v>47.630859999999998</v>
+      </c>
+      <c r="F108">
+        <v>7.665832</v>
+      </c>
+      <c r="G108" s="9">
+        <v>44920</v>
+      </c>
+      <c r="H108" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A109" t="s">
+        <v>190</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D109">
+        <v>2023</v>
+      </c>
+      <c r="E109">
+        <v>46.938800999999998</v>
+      </c>
+      <c r="F109">
+        <v>8.4761690000000005</v>
+      </c>
+      <c r="G109" s="9">
+        <v>44940</v>
+      </c>
+      <c r="H109" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/Places.xlsx
+++ b/Places.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georg\Documents\Travel\Places\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB14290E-2C20-4421-BBFD-B3B03F52A176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EBF667-3CE8-43EE-B862-7543864B3C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="226">
   <si>
     <t>Place</t>
   </si>
@@ -382,9 +382,6 @@
     <t>Truebsee</t>
   </si>
   <si>
-    <t xml:space="preserve">Gemma, Sabrina </t>
-  </si>
-  <si>
     <t>Oeschinensee</t>
   </si>
   <si>
@@ -397,9 +394,6 @@
     <t xml:space="preserve">Gemma, Sabrina, Jule </t>
   </si>
   <si>
-    <t xml:space="preserve">Sabrina </t>
-  </si>
-  <si>
     <t>Gelmersee</t>
   </si>
   <si>
@@ -487,9 +481,6 @@
     <t>Lavertezzo</t>
   </si>
   <si>
-    <t>Sabrina, Gemma and Nina</t>
-  </si>
-  <si>
     <t xml:space="preserve">Two day trip to Ticino with Sabri, Gemma and Nina and munstang. Close to the end of my intership. </t>
   </si>
   <si>
@@ -520,12 +511,6 @@
     <t xml:space="preserve">Barcelona </t>
   </si>
   <si>
-    <t>Petros, Nikoleta and Lazis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petros, Despoina and Nikoleta </t>
-  </si>
-  <si>
     <t>Lyon</t>
   </si>
   <si>
@@ -553,15 +538,6 @@
     <t xml:space="preserve">Four days to South Italy with Sabri and Christian. Soo much food in amazing restaurants. First time that I try seafood. Really cool beatch bars. </t>
   </si>
   <si>
-    <t>Sabri forgot her swimsuit in the sink and the sink open…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interail trip with Petros. Fancy place but to glamurus. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interail trip with Petros. We stayed in a hostel and met a young german girl traveling around europe. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Interail trip with Petros. Really bad version of Chalkidiki. </t>
   </si>
   <si>
@@ -599,6 +575,132 @@
   </si>
   <si>
     <t xml:space="preserve">Day trip to mountain with view of Luzern. First time that I try the lifts. </t>
+  </si>
+  <si>
+    <t>Andermatt</t>
+  </si>
+  <si>
+    <t>Gemma, Sabrina, Dimitris, Kleopatra, Sofia, Nina, Christian, Jule, Marina, Adriana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekend trip to Andermatt to a cabin in the woods. 11 people from 6 different nationalities (if you cound Catalan as a nationality). First time that I try to sky. Amazing time. The biggest difference was about the type of alcohol and how to cook the pasta. </t>
+  </si>
+  <si>
+    <t>Predore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ski day in Italy. It was when I cut my thumb in Sabris ski boots. </t>
+  </si>
+  <si>
+    <t>Cles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Half day to the emergencies Hospital in a small village in Italy with my favorite friend Sabrina </t>
+  </si>
+  <si>
+    <t>Ponte di Legno and Temu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 day trip for Christians graduation. Even though everything went bad in this trip, it was one of my favorite trips. Also met Xanthoula in Milano for a drink after 4 years. </t>
+  </si>
+  <si>
+    <t>First time: Interail trip with Petros. Fancy place but too glamurus. The second time on the 17th of February 2023 with Sabri, Christian and other Italina friends. There was a public transport strike that day and we had to use the limes to get to the club we wanted to go. I also met super randomly Xanthoula that day after four years. The second time I enjoyed it way more because of the Italian friends and of the unexpected meeting with Xanthoula.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interail trip with Petros. We stayed in a hostel and met a young german girl traveling around Europe. </t>
+  </si>
+  <si>
+    <t>Diitris, Kelopatra, Sabrina, Christian, Gemma, Marina, Sofia, Nina, Jule, Adriana</t>
+  </si>
+  <si>
+    <t>Uri, Engelberg</t>
+  </si>
+  <si>
+    <t>Amazing weekend to Alps cabin in the woods full of snow. First time I tried to ski. 6 Nationalities friendship.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sabri forgot her swimsuit in the sink and the sink open… We where staying in an airbandb from Christian's relatives. Have not enjoyed Italy that much ever again. </t>
+  </si>
+  <si>
+    <t>Kato, Vassiliki</t>
+  </si>
+  <si>
+    <t>Kato visitied me to Winterthur exactly after I presented my half thesis and we went a trip together.</t>
+  </si>
+  <si>
+    <t>Lived there from December 2018 and until march 2019. During that period, Despoina, Maria, Petros, Kimon, Kato and my parrents visited me.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lived here from September 2021 and until March 2022. No h best period of my life. I was doing my master thesis. It was after coid era. During that period, Maria, Kimon and Kato visited me. There I met Anastasia. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First time to Basel with kato was horrible. I ended up living here from April 2022. Changed at least 4 houses. </t>
+  </si>
+  <si>
+    <t>Lived in Herliberg with Aninia, Corina, Carlitos and Nona from August 2020 and until June 2021.</t>
+  </si>
+  <si>
+    <t>Petros visited me in Glasgow and we went for a trip to Stirling.</t>
+  </si>
+  <si>
+    <t>Trip to Rome from 15 of Julu 2017 to maybe 19 of july. Just me and Despoina. We did the Classical touristic stuff but we did not have any Italian friend to guide us around.</t>
+  </si>
+  <si>
+    <t>Liestal</t>
+  </si>
+  <si>
+    <t>Sofia, Jule, Nina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We went to see the famous Lestal fire parade before the Fashnacht in Basel. Basically people parading with open fires around the village. The most crouded train I have ever been in Switzerland. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Car trip with Sabri, Christian and Christians cousin in south Italy. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">That night before the nightmare with the mini couper where I slept with sabri and they were laghting at me for sleeping with blanckets during summer. </t>
+  </si>
+  <si>
+    <t>I went there alone one weekend when I was living in Winterthur as a day escape. The waterfalls were not that impresive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First time with Vasiliki. "okay". Second time with another 8 people we took the boat and went down the river with beers and music. There was Gemma, Sofia, Sabrina, Marina, a friend of Gemma, and 2 friends of Marina. </t>
+  </si>
+  <si>
+    <t>I think I was there with Anastasia and Mike.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One time I was there with Irisa on my way to Delft to find Kimon. It was Covid then and Kimon tought that he was positive so I spend the night there waiting for the results of the test. The first time I was there with Maria again on our way to find Kimon in Delft. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was when the best profile picture in the history of mankind was taken. </t>
+  </si>
+  <si>
+    <t>On our way to Cailler we ended up in the “best all you can eat brunch in Bulle”. 
+As “students” we went to the Cailler chocolate factory where Sofia took 10 pieces of chocolate, George 30 pieces and I ended up the winner with 50 pieces :p. 
+As the sun appeared we went for a little walk and ended up in a suspension bridge where we took this picture. 
+Finally, to top off our day, we went to Gruyère (for the 4th time) to see the cute town and buy some cheese.</t>
+  </si>
+  <si>
+    <t>Sofia, Nina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gruyère </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petros, Despoina, Nikoleta </t>
+  </si>
+  <si>
+    <t>Petros, Nikoleta, Lazis</t>
+  </si>
+  <si>
+    <t>Sabrina, Christian, Fabio, others</t>
+  </si>
+  <si>
+    <t>Sabrina, Gemma, Nina</t>
+  </si>
+  <si>
+    <t>Sabrina, Christian, Rafa, Andreas, other Italians</t>
   </si>
 </sst>
 </file>
@@ -679,7 +781,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -698,6 +800,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -916,10 +1021,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H110" sqref="H110"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -927,7 +1032,7 @@
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.1796875" customWidth="1"/>
-    <col min="7" max="7" width="25.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.6328125" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.6328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -951,10 +1056,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
@@ -1058,20 +1163,29 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="8">
+      <c r="A7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="1">
         <v>2019</v>
       </c>
-      <c r="E7" s="7">
-        <v>42.698345000000003</v>
-      </c>
-      <c r="F7" s="7">
-        <v>20.1663</v>
+      <c r="E7" s="5">
+        <v>56.70514</v>
+      </c>
+      <c r="F7" s="5">
+        <v>-3.7343199999999999</v>
+      </c>
+      <c r="G7" s="9">
+        <v>43469</v>
+      </c>
+      <c r="H7" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
@@ -1093,31 +1207,34 @@
       <c r="F8" s="5">
         <v>-3.1964800000000002</v>
       </c>
+      <c r="H8" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>63</v>
+      <c r="A9" s="11" t="s">
+        <v>134</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="C9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9">
         <v>2019</v>
       </c>
-      <c r="E9" s="5">
-        <v>56.70514</v>
-      </c>
-      <c r="F9" s="5">
-        <v>-3.7343199999999999</v>
+      <c r="E9">
+        <v>57.274028000000001</v>
+      </c>
+      <c r="F9">
+        <v>-5.5161110000000004</v>
       </c>
       <c r="G9" s="9">
-        <v>43469</v>
+        <v>43508</v>
       </c>
       <c r="H9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
@@ -1139,6 +1256,9 @@
       <c r="F10" s="5">
         <v>-4.2239800000000001</v>
       </c>
+      <c r="G10" s="9">
+        <v>43507</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -1159,36 +1279,33 @@
       <c r="F11" s="5">
         <v>-6.1941800000000002</v>
       </c>
+      <c r="G11" s="9">
+        <v>43508</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="11" t="s">
-        <v>136</v>
+      <c r="A12" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1">
         <v>2019</v>
       </c>
-      <c r="E12">
-        <v>57.274028000000001</v>
-      </c>
-      <c r="F12">
-        <v>-5.5161110000000004</v>
-      </c>
-      <c r="G12" s="9">
-        <v>43586</v>
-      </c>
-      <c r="H12" t="s">
-        <v>137</v>
+      <c r="E12" s="5">
+        <v>56.415349999999997</v>
+      </c>
+      <c r="F12" s="5">
+        <v>-5.4718400000000003</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>52</v>
@@ -1200,35 +1317,38 @@
         <v>2019</v>
       </c>
       <c r="E13" s="5">
-        <v>56.415349999999997</v>
+        <v>56.819800000000001</v>
       </c>
       <c r="F13" s="5">
-        <v>-5.4718400000000003</v>
+        <v>-5.1052</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D14" s="1">
         <v>2019</v>
       </c>
       <c r="E14" s="5">
-        <v>56.819800000000001</v>
+        <v>56.68282</v>
       </c>
       <c r="F14" s="5">
-        <v>-5.1052</v>
+        <v>-5.1059799999999997</v>
+      </c>
+      <c r="G14" s="9">
+        <v>43551</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>52</v>
@@ -1240,50 +1360,56 @@
         <v>2019</v>
       </c>
       <c r="E15" s="5">
-        <v>56.68282</v>
+        <v>56.230519999999999</v>
       </c>
       <c r="F15" s="5">
-        <v>-5.1059799999999997</v>
+        <v>-5.0747400000000003</v>
+      </c>
+      <c r="G15" s="9">
+        <v>43552</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D16" s="1">
         <v>2019</v>
       </c>
       <c r="E16" s="5">
-        <v>56.230519999999999</v>
+        <v>56.119030000000002</v>
       </c>
       <c r="F16" s="5">
-        <v>-5.0747400000000003</v>
+        <v>-3.93682</v>
+      </c>
+      <c r="G16" s="9">
+        <v>43542</v>
+      </c>
+      <c r="H16" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="A17" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="8">
         <v>2019</v>
       </c>
-      <c r="E17" s="5">
-        <v>56.119030000000002</v>
-      </c>
-      <c r="F17" s="5">
-        <v>-3.93682</v>
+      <c r="E17" s="7">
+        <v>42.698345000000003</v>
+      </c>
+      <c r="F17" s="7">
+        <v>20.1663</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1">
@@ -1293,6 +1419,9 @@
       <c r="B18" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="C18" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="D18" s="1">
         <v>2019</v>
       </c>
@@ -1302,578 +1431,611 @@
       <c r="F18" s="5">
         <v>-4.2576299999999998</v>
       </c>
+      <c r="G18" s="9">
+        <v>43435</v>
+      </c>
+      <c r="H18" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D19" s="1">
         <v>2021</v>
       </c>
       <c r="E19" s="5">
-        <v>51.220469999999999</v>
+        <v>46.991790000000002</v>
       </c>
       <c r="F19" s="5">
-        <v>4.4002600000000003</v>
+        <v>6.931</v>
       </c>
       <c r="G19" s="9">
-        <v>44560</v>
-      </c>
-      <c r="H19" t="s">
-        <v>185</v>
+        <v>44366</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D20" s="1">
         <v>2021</v>
       </c>
       <c r="E20" s="5">
-        <v>52.00667</v>
+        <v>46.533990000000003</v>
       </c>
       <c r="F20" s="5">
-        <v>4.3555599999999997</v>
+        <v>9.8727599999999995</v>
       </c>
       <c r="G20" s="9">
-        <v>44557</v>
+        <v>44198</v>
       </c>
       <c r="H20" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="D21" s="1">
         <v>2021</v>
       </c>
       <c r="E21" s="5">
-        <v>52.07667</v>
+        <v>46.170859999999998</v>
       </c>
       <c r="F21" s="5">
-        <v>4.29861</v>
+        <v>8.7995300000000007</v>
+      </c>
+      <c r="G21" s="9">
+        <v>44290</v>
+      </c>
+      <c r="H21" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="D22" s="1">
         <v>2021</v>
       </c>
       <c r="E22" s="5">
-        <v>51.922499999999999</v>
+        <v>46.192779999999999</v>
       </c>
       <c r="F22" s="5">
-        <v>4.4791699999999999</v>
+        <v>9.0170300000000001</v>
+      </c>
+      <c r="G22" s="9">
+        <v>44290</v>
+      </c>
+      <c r="H22" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="12.5">
       <c r="A23" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="D23" s="1">
         <v>2021</v>
       </c>
       <c r="E23" s="5">
-        <v>51.81</v>
+        <v>46.010080000000002</v>
       </c>
       <c r="F23" s="5">
-        <v>4.67361</v>
+        <v>8.9600399999999993</v>
       </c>
       <c r="G23" s="9">
-        <v>44560</v>
+        <v>44290</v>
       </c>
       <c r="H23" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="12.5">
-      <c r="A24" s="2" t="s">
-        <v>47</v>
+      <c r="A24" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="D24" s="1">
         <v>2021</v>
       </c>
       <c r="E24" s="5">
-        <v>51.975830000000002</v>
+        <v>46.802370000000003</v>
       </c>
       <c r="F24" s="5">
-        <v>4.3138899999999998</v>
+        <v>7.1512799999999999</v>
       </c>
       <c r="G24" s="9">
-        <v>44560</v>
+        <v>44363</v>
       </c>
       <c r="H24" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="12.5">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="D25" s="1">
         <v>2021</v>
       </c>
       <c r="E25" s="5">
-        <v>51.586559999999999</v>
+        <v>46.433010000000003</v>
       </c>
       <c r="F25" s="5">
-        <v>4.7759600000000004</v>
+        <v>6.9114300000000002</v>
       </c>
       <c r="G25" s="9">
-        <v>44381</v>
+        <v>44363</v>
       </c>
       <c r="H25" t="s">
-        <v>138</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="12.5">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="D26" s="1">
         <v>2021</v>
       </c>
       <c r="E26" s="5">
-        <v>52.63167</v>
-      </c>
-      <c r="F26" s="6">
-        <v>4.7486100000000002</v>
-      </c>
-      <c r="G26" s="9">
-        <v>44382</v>
-      </c>
-      <c r="H26" t="s">
-        <v>138</v>
+        <v>47.172420000000002</v>
+      </c>
+      <c r="F26" s="5">
+        <v>8.5174500000000002</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="12.5">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D27" s="1">
         <v>2021</v>
       </c>
       <c r="E27" s="5">
-        <v>52.642499999999998</v>
+        <v>46.948090000000001</v>
       </c>
       <c r="F27" s="5">
-        <v>5.0597200000000004</v>
-      </c>
-      <c r="G27" s="9">
-        <v>44383</v>
-      </c>
-      <c r="H27" t="s">
-        <v>138</v>
+        <v>7.4474400000000003</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="12.5">
       <c r="A28" s="1" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D28" s="1">
         <v>2021</v>
       </c>
       <c r="E28" s="5">
-        <v>52.380839999999999</v>
+        <v>46.515999999999998</v>
       </c>
       <c r="F28" s="5">
-        <v>4.6368299999999998</v>
+        <v>6.6328199999999997</v>
       </c>
       <c r="G28" s="9">
-        <v>44384</v>
+        <v>43775</v>
       </c>
       <c r="H28" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="12.5">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D29" s="1">
         <v>2021</v>
       </c>
       <c r="E29" s="5">
-        <v>52.377955999999998</v>
+        <v>46.204391000000001</v>
       </c>
       <c r="F29" s="5">
-        <v>4.8970700000000003</v>
+        <v>6.1431579999999997</v>
+      </c>
+      <c r="G29" s="9">
+        <v>43775</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="12.5">
       <c r="A30" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D30" s="1">
         <v>2021</v>
       </c>
       <c r="E30" s="5">
-        <v>46.991790000000002</v>
+        <v>47.558390000000003</v>
       </c>
       <c r="F30" s="5">
-        <v>6.931</v>
+        <v>7.5732699999999999</v>
+      </c>
+      <c r="G30" s="9">
+        <v>44525</v>
+      </c>
+      <c r="H30" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="12.5">
       <c r="A31" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>29</v>
+        <v>200</v>
       </c>
       <c r="D31" s="1">
         <v>2021</v>
       </c>
       <c r="E31" s="5">
-        <v>46.533990000000003</v>
+        <v>47.0505</v>
       </c>
       <c r="F31" s="5">
-        <v>9.8727599999999995</v>
+        <v>8.3064</v>
       </c>
       <c r="G31" s="9">
-        <v>44198</v>
+        <v>44527</v>
       </c>
       <c r="H31" t="s">
-        <v>148</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="12.5">
       <c r="A32" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D32" s="1">
         <v>2021</v>
       </c>
       <c r="E32" s="5">
-        <v>47.172420000000002</v>
+        <v>52.00667</v>
       </c>
       <c r="F32" s="5">
-        <v>8.5174500000000002</v>
+        <v>4.3555599999999997</v>
+      </c>
+      <c r="G32" s="9">
+        <v>44557</v>
+      </c>
+      <c r="H32" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="12.5">
       <c r="A33" s="1" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D33" s="1">
         <v>2021</v>
       </c>
       <c r="E33" s="5">
-        <v>46.802370000000003</v>
+        <v>51.81</v>
       </c>
       <c r="F33" s="5">
-        <v>7.1512799999999999</v>
+        <v>4.67361</v>
       </c>
       <c r="G33" s="9">
-        <v>44363</v>
+        <v>44560</v>
       </c>
       <c r="H33" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="12.5">
-      <c r="A34" s="1" t="s">
-        <v>21</v>
+      <c r="A34" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D34" s="1">
         <v>2021</v>
       </c>
       <c r="E34" s="5">
-        <v>46.433010000000003</v>
+        <v>51.975830000000002</v>
       </c>
       <c r="F34" s="5">
-        <v>6.9114300000000002</v>
+        <v>4.3138899999999998</v>
       </c>
       <c r="G34" s="9">
-        <v>44363</v>
+        <v>44560</v>
       </c>
       <c r="H34" t="s">
-        <v>189</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="12.5">
       <c r="A35" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D35" s="1">
         <v>2021</v>
       </c>
       <c r="E35" s="5">
-        <v>46.170859999999998</v>
+        <v>52.07667</v>
       </c>
       <c r="F35" s="5">
-        <v>8.7995300000000007</v>
+        <v>4.29861</v>
       </c>
       <c r="G35" s="9">
-        <v>44290</v>
-      </c>
-      <c r="H35" t="s">
-        <v>147</v>
+        <v>44382</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="12.5">
       <c r="A36" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D36" s="1">
         <v>2021</v>
       </c>
       <c r="E36" s="5">
-        <v>46.192779999999999</v>
+        <v>51.922499999999999</v>
       </c>
       <c r="F36" s="5">
-        <v>9.0170300000000001</v>
+        <v>4.4791699999999999</v>
       </c>
       <c r="G36" s="9">
-        <v>44290</v>
-      </c>
-      <c r="H36" t="s">
-        <v>147</v>
+        <v>44383</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="12.5">
       <c r="A37" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D37" s="1">
         <v>2021</v>
       </c>
       <c r="E37" s="5">
-        <v>46.010080000000002</v>
+        <v>51.220469999999999</v>
       </c>
       <c r="F37" s="5">
-        <v>8.9600399999999993</v>
+        <v>4.4002600000000003</v>
       </c>
       <c r="G37" s="9">
-        <v>44290</v>
+        <v>44560</v>
       </c>
       <c r="H37" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="12.5">
       <c r="A38" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D38" s="1">
         <v>2021</v>
       </c>
       <c r="E38" s="5">
-        <v>46.948090000000001</v>
+        <v>51.586559999999999</v>
       </c>
       <c r="F38" s="5">
-        <v>7.4474400000000003</v>
+        <v>4.7759600000000004</v>
+      </c>
+      <c r="G38" s="9">
+        <v>44381</v>
+      </c>
+      <c r="H38" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="12.5">
       <c r="A39" s="1" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D39" s="1">
         <v>2021</v>
       </c>
       <c r="E39" s="5">
-        <v>46.515999999999998</v>
-      </c>
-      <c r="F39" s="5">
-        <v>6.6328199999999997</v>
+        <v>52.63167</v>
+      </c>
+      <c r="F39" s="6">
+        <v>4.7486100000000002</v>
       </c>
       <c r="G39" s="9">
-        <v>43775</v>
+        <v>44382</v>
       </c>
       <c r="H39" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="12.5">
       <c r="A40" s="1" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D40" s="1">
         <v>2021</v>
       </c>
       <c r="E40" s="5">
-        <v>46.204391000000001</v>
+        <v>52.642499999999998</v>
       </c>
       <c r="F40" s="5">
-        <v>6.1431579999999997</v>
+        <v>5.0597200000000004</v>
       </c>
       <c r="G40" s="9">
-        <v>43775</v>
+        <v>44383</v>
+      </c>
+      <c r="H40" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="12.5">
       <c r="A41" s="1" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D41" s="1">
         <v>2021</v>
       </c>
       <c r="E41" s="5">
-        <v>47.0505</v>
+        <v>52.380839999999999</v>
       </c>
       <c r="F41" s="5">
-        <v>8.3064</v>
+        <v>4.6368299999999998</v>
+      </c>
+      <c r="G41" s="9">
+        <v>44384</v>
+      </c>
+      <c r="H41" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="12.5">
       <c r="A42" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D42" s="1">
         <v>2021</v>
       </c>
       <c r="E42" s="5">
-        <v>47.558390000000003</v>
+        <v>52.377955999999998</v>
       </c>
       <c r="F42" s="5">
-        <v>7.5732699999999999</v>
+        <v>4.8970700000000003</v>
+      </c>
+      <c r="G42" s="9">
+        <v>44381</v>
+      </c>
+      <c r="H42" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="12.5">
@@ -1899,7 +2061,7 @@
         <v>44548</v>
       </c>
       <c r="H43" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="12.5">
@@ -1921,6 +2083,9 @@
       <c r="F44" s="5">
         <v>8.1598400000000009</v>
       </c>
+      <c r="H44" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
@@ -1941,6 +2106,9 @@
       <c r="F45" s="5">
         <v>7.6216600000000003</v>
       </c>
+      <c r="H45" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
@@ -1958,6 +2126,12 @@
       <c r="F46" s="5">
         <v>8.7241300000000006</v>
       </c>
+      <c r="G46" s="9">
+        <v>44440</v>
+      </c>
+      <c r="H46" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
@@ -1975,6 +2149,12 @@
       <c r="F47" s="5">
         <v>8.5500000000000007</v>
       </c>
+      <c r="G47" s="9">
+        <v>44068</v>
+      </c>
+      <c r="H47" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
@@ -2009,54 +2189,57 @@
       <c r="F49" s="5">
         <v>8.6349300000000007</v>
       </c>
+      <c r="H49" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A50" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C50" t="s">
-        <v>38</v>
+      <c r="A50" t="s">
+        <v>178</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="D50">
         <v>2022</v>
       </c>
       <c r="E50">
-        <v>48.080779999999997</v>
+        <v>47.630859999999998</v>
       </c>
       <c r="F50">
-        <v>7.3558399999999997</v>
+        <v>7.665832</v>
       </c>
       <c r="G50" s="9">
-        <v>44666</v>
+        <v>44920</v>
       </c>
       <c r="H50" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1">
       <c r="A51" s="8" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D51">
         <v>2022</v>
       </c>
       <c r="E51">
-        <v>48.853409999999997</v>
+        <v>53.333060000000003</v>
       </c>
       <c r="F51">
-        <v>2.3488000000000002</v>
+        <v>-6.2488900000000003</v>
       </c>
       <c r="G51" s="9">
-        <v>44625</v>
+        <v>44690</v>
       </c>
       <c r="H51" t="s">
         <v>141</v>
@@ -2064,54 +2247,54 @@
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1">
       <c r="A52" s="8" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D52">
         <v>2022</v>
       </c>
       <c r="E52">
-        <v>53.333060000000003</v>
+        <v>46.793889</v>
       </c>
       <c r="F52">
-        <v>-6.2488900000000003</v>
+        <v>8.3908330000000007</v>
       </c>
       <c r="G52" s="9">
-        <v>44690</v>
+        <v>44716</v>
       </c>
       <c r="H52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A53" s="8" t="s">
-        <v>119</v>
+      <c r="A53" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C53" t="s">
-        <v>122</v>
+      <c r="C53" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="D53">
         <v>2022</v>
       </c>
-      <c r="E53">
-        <v>46.793889</v>
-      </c>
-      <c r="F53">
-        <v>8.3908330000000007</v>
+      <c r="E53" s="11">
+        <v>47.423560000000002</v>
+      </c>
+      <c r="F53" s="11">
+        <v>9.3774899999999999</v>
       </c>
       <c r="G53" s="9">
-        <v>44716</v>
-      </c>
-      <c r="H53" t="s">
-        <v>144</v>
+        <v>44706</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1">
@@ -2122,7 +2305,7 @@
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D54">
         <v>2022</v>
@@ -2137,1039 +2320,1241 @@
         <v>44707</v>
       </c>
       <c r="H54" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A55" s="11" t="s">
-        <v>131</v>
+      <c r="A55" t="s">
+        <v>120</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D55">
         <v>2022</v>
       </c>
-      <c r="E55" s="11">
-        <v>47.423560000000002</v>
-      </c>
-      <c r="F55" s="11">
-        <v>9.3774899999999999</v>
+      <c r="E55">
+        <v>46.498333000000002</v>
+      </c>
+      <c r="F55">
+        <v>7.7269439999999996</v>
       </c>
       <c r="G55" s="9">
-        <v>44706</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>133</v>
+        <v>44723</v>
+      </c>
+      <c r="H55" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A56" t="s">
-        <v>121</v>
+      <c r="A56" s="8" t="s">
+        <v>127</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="D56">
         <v>2022</v>
       </c>
-      <c r="E56">
-        <v>46.498333000000002</v>
-      </c>
-      <c r="F56">
-        <v>7.7269439999999996</v>
+      <c r="E56" s="11">
+        <v>46.599991000000003</v>
+      </c>
+      <c r="F56" s="11">
+        <v>7.908887</v>
       </c>
       <c r="G56" s="9">
-        <v>44723</v>
-      </c>
-      <c r="H56" t="s">
-        <v>144</v>
+        <v>44764</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15.75" customHeight="1">
       <c r="A57" s="8" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C57" t="s">
-        <v>124</v>
+      <c r="C57" s="11" t="s">
+        <v>123</v>
       </c>
       <c r="D57">
         <v>2022</v>
       </c>
-      <c r="E57">
-        <v>46.023603999999999</v>
-      </c>
-      <c r="F57">
-        <v>7.7486069999999998</v>
+      <c r="E57" s="11">
+        <v>46.316136</v>
+      </c>
+      <c r="F57" s="11">
+        <v>7.9872899999999998</v>
       </c>
       <c r="G57" s="9">
-        <v>44766</v>
+        <v>44765</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>145</v>
+        <v>212</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75" customHeight="1">
       <c r="A58" s="8" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C58" s="11" t="s">
-        <v>124</v>
+      <c r="C58" t="s">
+        <v>123</v>
       </c>
       <c r="D58">
         <v>2022</v>
       </c>
-      <c r="E58" s="11">
-        <v>46.599991000000003</v>
-      </c>
-      <c r="F58" s="11">
-        <v>7.908887</v>
+      <c r="E58">
+        <v>46.023603999999999</v>
+      </c>
+      <c r="F58">
+        <v>7.7486069999999998</v>
       </c>
       <c r="G58" s="9">
-        <v>44764</v>
+        <v>44766</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.75" customHeight="1">
       <c r="A59" s="8" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>124</v>
+        <v>113</v>
+      </c>
+      <c r="C59" t="s">
+        <v>38</v>
       </c>
       <c r="D59">
         <v>2022</v>
       </c>
-      <c r="E59" s="11">
-        <v>46.316136</v>
-      </c>
-      <c r="F59" s="11">
-        <v>7.9872899999999998</v>
+      <c r="E59">
+        <v>48.080779999999997</v>
+      </c>
+      <c r="F59">
+        <v>7.3558399999999997</v>
       </c>
       <c r="G59" s="9">
-        <v>44765</v>
+        <v>44666</v>
+      </c>
+      <c r="H59" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A60" t="s">
-        <v>126</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" t="s">
-        <v>125</v>
+      <c r="A60" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>155</v>
       </c>
       <c r="D60">
         <v>2022</v>
       </c>
       <c r="E60">
-        <v>46.616110999999997</v>
+        <v>45.465421900000003</v>
       </c>
       <c r="F60">
-        <v>8.3322219999999998</v>
+        <v>9.1859242999999999</v>
       </c>
       <c r="G60" s="9">
-        <v>44772</v>
+        <v>44800</v>
       </c>
       <c r="H60" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A61" s="1" t="s">
-        <v>110</v>
+      <c r="A61" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1">
+        <v>154</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D61">
         <v>2022</v>
       </c>
-      <c r="E61" s="5">
-        <v>47.636623999999998</v>
-      </c>
-      <c r="F61" s="5">
-        <v>8.7891720000000007</v>
+      <c r="E61">
+        <v>44.414164999999997</v>
+      </c>
+      <c r="F61">
+        <v>8.9421839999999992</v>
       </c>
       <c r="G61" s="9">
-        <v>44591</v>
+        <v>44801</v>
       </c>
       <c r="H61" t="s">
-        <v>151</v>
+        <v>195</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15.75" customHeight="1">
       <c r="A62" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E62" s="7">
-        <v>42.697510000000001</v>
-      </c>
-      <c r="F62" s="7">
-        <v>23.324149999999999</v>
+        <v>158</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D62">
+        <v>2022</v>
+      </c>
+      <c r="E62">
+        <v>43.551299999999998</v>
+      </c>
+      <c r="F62">
+        <v>7.0128000000000004</v>
+      </c>
+      <c r="G62" s="9">
+        <v>44802</v>
+      </c>
+      <c r="H62" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" customHeight="1">
       <c r="A63" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E63" s="7">
-        <v>40.626631000000003</v>
-      </c>
-      <c r="F63" s="7">
-        <v>22.950029000000001</v>
+        <v>160</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D63">
+        <v>2022</v>
+      </c>
+      <c r="E63">
+        <v>43.611899999999999</v>
+      </c>
+      <c r="F63">
+        <v>3.8772000000000002</v>
+      </c>
+      <c r="G63" s="9">
+        <v>44802</v>
+      </c>
+      <c r="H63" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1">
       <c r="A64" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E64" s="7">
-        <v>40.521648999999996</v>
-      </c>
-      <c r="F64" s="7">
-        <v>21.263010999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1">
+        <v>163</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D64">
+        <v>2022</v>
+      </c>
+      <c r="E64">
+        <v>45.763420000000004</v>
+      </c>
+      <c r="F64">
+        <v>4.8342770000000002</v>
+      </c>
+      <c r="G64" s="9">
+        <v>44807</v>
+      </c>
+      <c r="H64" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" customHeight="1">
       <c r="A65" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E65" s="7">
-        <v>39.669618999999997</v>
-      </c>
-      <c r="F65" s="7">
-        <v>20.857987000000001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="15.75" customHeight="1">
+        <v>159</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D65">
+        <v>2022</v>
+      </c>
+      <c r="E65">
+        <v>43.296398000000003</v>
+      </c>
+      <c r="F65">
+        <v>5.37</v>
+      </c>
+      <c r="G65" s="9">
+        <v>44802</v>
+      </c>
+      <c r="H65" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" customHeight="1">
       <c r="A66" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E66" s="7">
-        <v>39.198498999999998</v>
-      </c>
-      <c r="F66" s="7">
-        <v>20.184436000000002</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="15.75" customHeight="1">
+        <v>162</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D66">
+        <v>2022</v>
+      </c>
+      <c r="E66">
+        <v>41.390205000000002</v>
+      </c>
+      <c r="F66">
+        <v>2.154007</v>
+      </c>
+      <c r="G66" s="9">
+        <v>44805</v>
+      </c>
+      <c r="H66" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" customHeight="1">
       <c r="A67" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E67" s="7">
-        <v>38.955786000000003</v>
-      </c>
-      <c r="F67" s="7">
-        <v>20.75263</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A68" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E68" s="7">
-        <v>38.827415999999999</v>
-      </c>
-      <c r="F68" s="7">
-        <v>20.700458999999999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A69" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E69" s="7">
-        <v>38.244990999999999</v>
-      </c>
-      <c r="F69" s="7">
-        <v>21.734522999999999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A70" s="8" t="s">
-        <v>88</v>
+        <v>165</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D67">
+        <v>2022</v>
+      </c>
+      <c r="E67">
+        <v>41.125278000000002</v>
+      </c>
+      <c r="F67">
+        <v>16.866667</v>
+      </c>
+      <c r="G67" s="9">
+        <v>44822</v>
+      </c>
+      <c r="H67" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A68" t="s">
+        <v>166</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D68">
+        <v>2022</v>
+      </c>
+      <c r="E68">
+        <v>40.055850999999997</v>
+      </c>
+      <c r="F68">
+        <v>17.992615000000001</v>
+      </c>
+      <c r="G68" s="9">
+        <v>44823</v>
+      </c>
+      <c r="H68" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A69" t="s">
+        <v>167</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D69">
+        <v>2022</v>
+      </c>
+      <c r="E69">
+        <v>39.800596797600001</v>
+      </c>
+      <c r="F69">
+        <v>18.354165250000001</v>
+      </c>
+      <c r="G69" s="9">
+        <v>44824</v>
+      </c>
+      <c r="H69" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A70" t="s">
+        <v>124</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E70" s="7">
-        <v>37.983759999999997</v>
-      </c>
-      <c r="F70" s="7">
-        <v>23.72784</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A71" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E71" s="7">
-        <v>39.359924999999997</v>
-      </c>
-      <c r="F71" s="7">
-        <v>22.947213000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A72" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E72" s="7">
-        <v>39.388793999999997</v>
-      </c>
-      <c r="F72" s="7">
-        <v>23.173162999999999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="15.75" customHeight="1">
+        <v>7</v>
+      </c>
+      <c r="C70" t="s">
+        <v>223</v>
+      </c>
+      <c r="D70">
+        <v>2022</v>
+      </c>
+      <c r="E70">
+        <v>46.616110999999997</v>
+      </c>
+      <c r="F70">
+        <v>8.3322219999999998</v>
+      </c>
+      <c r="G70" s="9">
+        <v>44772</v>
+      </c>
+      <c r="H70" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A71" t="s">
+        <v>168</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D71">
+        <v>2022</v>
+      </c>
+      <c r="E71">
+        <v>40.99221</v>
+      </c>
+      <c r="F71">
+        <v>17.221489999999999</v>
+      </c>
+      <c r="G71" s="9">
+        <v>44824</v>
+      </c>
+      <c r="H71" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A72" t="s">
+        <v>152</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D72">
+        <v>2022</v>
+      </c>
+      <c r="E72">
+        <v>46.25</v>
+      </c>
+      <c r="F72">
+        <v>8.8333329999999997</v>
+      </c>
+      <c r="G72" s="9">
+        <v>44795</v>
+      </c>
+      <c r="H72" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15.75" customHeight="1">
       <c r="A73" s="8" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E73" s="7">
-        <v>40.154102000000002</v>
-      </c>
-      <c r="F73" s="7">
-        <v>23.915412</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A74" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E74" s="7">
-        <v>41.149323000000003</v>
-      </c>
-      <c r="F74" s="7">
-        <v>24.147006000000001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A75" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E75" s="7">
-        <v>41.109025000000003</v>
-      </c>
-      <c r="F75" s="7">
-        <v>24.029107</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A76" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E76" s="7">
-        <v>40.935738000000001</v>
-      </c>
-      <c r="F76" s="7">
-        <v>24.412331999999999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A77" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E77" s="7">
-        <v>41.138108000000003</v>
-      </c>
-      <c r="F77" s="7">
-        <v>24.88841</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A78" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E78" s="7">
-        <v>40.630231999999999</v>
-      </c>
-      <c r="F78" s="7">
-        <v>24.575970999999999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A79" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E79" s="7">
-        <v>40.451402000000002</v>
-      </c>
-      <c r="F79" s="7">
-        <v>25.588498999999999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A80" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E80" s="7">
-        <v>39.877859999999998</v>
-      </c>
-      <c r="F80" s="7">
-        <v>25.065902000000001</v>
+        <v>113</v>
+      </c>
+      <c r="C73" t="s">
+        <v>117</v>
+      </c>
+      <c r="D73">
+        <v>2022</v>
+      </c>
+      <c r="E73">
+        <v>48.853409999999997</v>
+      </c>
+      <c r="F73">
+        <v>2.3488000000000002</v>
+      </c>
+      <c r="G73" s="9">
+        <v>44625</v>
+      </c>
+      <c r="H73" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A74" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D74" s="1">
+        <v>2022</v>
+      </c>
+      <c r="E74" s="5">
+        <v>47.636623999999998</v>
+      </c>
+      <c r="F74" s="5">
+        <v>8.7891720000000007</v>
+      </c>
+      <c r="G74" s="9">
+        <v>44591</v>
+      </c>
+      <c r="H74" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A75" t="s">
+        <v>197</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D75">
+        <v>2023</v>
+      </c>
+      <c r="E75">
+        <v>46.734780000000001</v>
+      </c>
+      <c r="F75">
+        <v>8.5217100000000006</v>
+      </c>
+      <c r="G75" s="9">
+        <v>44948</v>
+      </c>
+      <c r="H75" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A76" t="s">
+        <v>185</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D76">
+        <v>2023</v>
+      </c>
+      <c r="E76">
+        <v>46.635497458000003</v>
+      </c>
+      <c r="F76">
+        <v>8.5894976419999995</v>
+      </c>
+      <c r="G76" s="9">
+        <v>44583</v>
+      </c>
+      <c r="H76" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A77" t="s">
+        <v>182</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D77">
+        <v>2023</v>
+      </c>
+      <c r="E77">
+        <v>46.938800999999998</v>
+      </c>
+      <c r="F77">
+        <v>8.4761690000000005</v>
+      </c>
+      <c r="G77" s="9">
+        <v>44940</v>
+      </c>
+      <c r="H77" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A78" t="s">
+        <v>188</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D78">
+        <v>2023</v>
+      </c>
+      <c r="E78">
+        <v>45.681187999999999</v>
+      </c>
+      <c r="F78">
+        <v>10.017573000000001</v>
+      </c>
+      <c r="G78" s="9">
+        <v>44973</v>
+      </c>
+      <c r="H78" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A79" t="s">
+        <v>192</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D79">
+        <v>2023</v>
+      </c>
+      <c r="E79">
+        <v>46.259526000000001</v>
+      </c>
+      <c r="F79">
+        <v>10.508959000000001</v>
+      </c>
+      <c r="G79" s="9">
+        <v>44974</v>
+      </c>
+      <c r="H79" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A80" t="s">
+        <v>190</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D80">
+        <v>2023</v>
+      </c>
+      <c r="E80">
+        <v>46.361384999999999</v>
+      </c>
+      <c r="F80">
+        <v>11.032558999999999</v>
+      </c>
+      <c r="G80" s="9">
+        <v>44975</v>
+      </c>
+      <c r="H80" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15.75" customHeight="1">
       <c r="A81" s="8" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>80</v>
+        <v>69</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D81">
+        <v>2017</v>
       </c>
       <c r="E81" s="7">
-        <v>39.106766</v>
+        <v>41.891930000000002</v>
       </c>
       <c r="F81" s="7">
-        <v>26.549226000000001</v>
+        <v>12.511329999999999</v>
+      </c>
+      <c r="G81" s="9">
+        <v>42933</v>
+      </c>
+      <c r="H81" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15.75" customHeight="1">
       <c r="A82" s="8" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>80</v>
+        <v>69</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="E82" s="7">
-        <v>38.371211000000002</v>
+        <v>43.779249999999998</v>
       </c>
       <c r="F82" s="7">
-        <v>26.130711999999999</v>
+        <v>11.246259999999999</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.75" customHeight="1">
       <c r="A83" s="8" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>80</v>
+        <v>69</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="E83" s="7">
-        <v>36.427728000000002</v>
+        <v>40.745739999999998</v>
       </c>
       <c r="F83" s="7">
-        <v>28.216380999999998</v>
+        <v>14.496980000000001</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15.75" customHeight="1">
       <c r="A84" s="8" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E84" s="7">
-        <v>37.068413999999997</v>
+        <v>42.697510000000001</v>
       </c>
       <c r="F84" s="7">
-        <v>25.449898000000001</v>
+        <v>23.324149999999999</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1">
       <c r="A85" s="8" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>80</v>
       </c>
       <c r="E85" s="7">
-        <v>37.118786999999998</v>
+        <v>40.626631000000003</v>
       </c>
       <c r="F85" s="7">
-        <v>25.240739000000001</v>
+        <v>22.950029000000001</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15.75" customHeight="1">
       <c r="A86" s="8" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>80</v>
       </c>
       <c r="E86" s="7">
-        <v>39.165528999999999</v>
+        <v>40.521648999999996</v>
       </c>
       <c r="F86" s="7">
-        <v>23.489733999999999</v>
+        <v>21.263010999999999</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15.75" customHeight="1">
       <c r="A87" s="8" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>80</v>
       </c>
       <c r="E87" s="7">
-        <v>39.121442999999999</v>
+        <v>39.669618999999997</v>
       </c>
       <c r="F87" s="7">
-        <v>23.726915999999999</v>
+        <v>20.857987000000001</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15.75" customHeight="1">
       <c r="A88" s="8" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B88" s="8" t="s">
         <v>80</v>
       </c>
       <c r="E88" s="7">
-        <v>36.972248</v>
+        <v>39.198498999999998</v>
       </c>
       <c r="F88" s="7">
-        <v>24.723973999999998</v>
+        <v>20.184436000000002</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="15.75" customHeight="1">
       <c r="A89" s="8" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>80</v>
       </c>
       <c r="E89" s="7">
-        <v>40.504716999999999</v>
+        <v>38.955786000000003</v>
       </c>
       <c r="F89" s="7">
-        <v>22.923787000000001</v>
+        <v>20.75263</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15.75" customHeight="1">
       <c r="A90" s="8" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="B90" s="8" t="s">
         <v>80</v>
       </c>
       <c r="E90" s="7">
-        <v>39.769033</v>
+        <v>38.827415999999999</v>
       </c>
       <c r="F90" s="7">
-        <v>21.181526999999999</v>
+        <v>20.700458999999999</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15.75" customHeight="1">
       <c r="A91" s="8" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>80</v>
       </c>
       <c r="E91" s="7">
-        <v>40.808191000000001</v>
+        <v>38.244990999999999</v>
       </c>
       <c r="F91" s="7">
-        <v>21.128466</v>
+        <v>21.734522999999999</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="15.75" customHeight="1">
       <c r="A92" s="8" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="E92" s="7">
-        <v>41.891930000000002</v>
+        <v>37.983759999999997</v>
       </c>
       <c r="F92" s="7">
-        <v>12.511329999999999</v>
+        <v>23.72784</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="15.75" customHeight="1">
       <c r="A93" s="8" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="E93" s="7">
-        <v>43.779249999999998</v>
+        <v>39.359924999999997</v>
       </c>
       <c r="F93" s="7">
-        <v>11.246259999999999</v>
+        <v>22.947213000000001</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="15.75" customHeight="1">
       <c r="A94" s="8" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="E94" s="7">
-        <v>40.745739999999998</v>
+        <v>39.388793999999997</v>
       </c>
       <c r="F94" s="7">
-        <v>14.496980000000001</v>
+        <v>23.173162999999999</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E95" s="7">
+        <v>40.154102000000002</v>
+      </c>
+      <c r="F95" s="7">
+        <v>23.915412</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A96" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E96" s="7">
+        <v>41.149323000000003</v>
+      </c>
+      <c r="F96" s="7">
+        <v>24.147006000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A97" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E97" s="7">
+        <v>41.109025000000003</v>
+      </c>
+      <c r="F97" s="7">
+        <v>24.029107</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A98" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E98" s="7">
+        <v>40.935738000000001</v>
+      </c>
+      <c r="F98" s="7">
+        <v>24.412331999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A99" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E99" s="7">
+        <v>41.138108000000003</v>
+      </c>
+      <c r="F99" s="7">
+        <v>24.88841</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A100" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E100" s="7">
+        <v>40.630231999999999</v>
+      </c>
+      <c r="F100" s="7">
+        <v>24.575970999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A101" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E101" s="7">
+        <v>40.451402000000002</v>
+      </c>
+      <c r="F101" s="7">
+        <v>25.588498999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A102" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E102" s="7">
+        <v>39.877859999999998</v>
+      </c>
+      <c r="F102" s="7">
+        <v>25.065902000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A103" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E103" s="7">
+        <v>39.106766</v>
+      </c>
+      <c r="F103" s="7">
+        <v>26.549226000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A104" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E104" s="7">
+        <v>38.371211000000002</v>
+      </c>
+      <c r="F104" s="7">
+        <v>26.130711999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A105" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E105" s="7">
+        <v>36.427728000000002</v>
+      </c>
+      <c r="F105" s="7">
+        <v>28.216380999999998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A106" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E106" s="7">
+        <v>37.068413999999997</v>
+      </c>
+      <c r="F106" s="7">
+        <v>25.449898000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A107" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E107" s="7">
+        <v>37.118786999999998</v>
+      </c>
+      <c r="F107" s="7">
+        <v>25.240739000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A108" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E108" s="7">
+        <v>39.165528999999999</v>
+      </c>
+      <c r="F108" s="7">
+        <v>23.489733999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A109" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E109" s="7">
+        <v>39.121442999999999</v>
+      </c>
+      <c r="F109" s="7">
+        <v>23.726915999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A110" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E110" s="7">
+        <v>36.972248</v>
+      </c>
+      <c r="F110" s="7">
+        <v>24.723973999999998</v>
+      </c>
+      <c r="G110" s="9">
+        <v>43683</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A111" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E111" s="7">
+        <v>40.504716999999999</v>
+      </c>
+      <c r="F111" s="7">
+        <v>22.923787000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A112" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E112" s="7">
+        <v>39.769033</v>
+      </c>
+      <c r="F112" s="7">
+        <v>21.181526999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A113" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E113" s="7">
+        <v>40.808191000000001</v>
+      </c>
+      <c r="F113" s="7">
+        <v>21.128466</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A114" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E95" s="5">
+      <c r="E114" s="5">
         <v>42.672719999999998</v>
       </c>
-      <c r="F95" s="5">
+      <c r="F114" s="5">
         <v>21.166879999999999</v>
       </c>
-      <c r="H95" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A96" t="s">
-        <v>154</v>
-      </c>
-      <c r="B96" s="1" t="s">
+      <c r="H114" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A115" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C96" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D96">
-        <v>2022</v>
-      </c>
-      <c r="E96">
-        <v>46.25</v>
-      </c>
-      <c r="F96">
-        <v>8.8333329999999997</v>
-      </c>
-      <c r="G96" s="9">
-        <v>44795</v>
-      </c>
-      <c r="H96" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A97" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D97">
-        <v>2022</v>
-      </c>
-      <c r="E97">
-        <v>45.465421900000003</v>
-      </c>
-      <c r="F97">
-        <v>9.1859242999999999</v>
-      </c>
-      <c r="G97" s="9">
-        <v>44800</v>
-      </c>
-      <c r="H97" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A98" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D98">
-        <v>2022</v>
-      </c>
-      <c r="E98">
-        <v>44.414164999999997</v>
-      </c>
-      <c r="F98">
-        <v>8.9421839999999992</v>
-      </c>
-      <c r="G98" s="9">
-        <v>44801</v>
-      </c>
-      <c r="H98" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A99" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D99">
-        <v>2022</v>
-      </c>
-      <c r="E99">
-        <v>43.551299999999998</v>
-      </c>
-      <c r="F99">
-        <v>7.0128000000000004</v>
-      </c>
-      <c r="G99" s="9">
-        <v>44802</v>
-      </c>
-      <c r="H99" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A100" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D100">
-        <v>2022</v>
-      </c>
-      <c r="E100">
-        <v>43.296398000000003</v>
-      </c>
-      <c r="F100">
-        <v>5.37</v>
-      </c>
-      <c r="G100" s="9">
-        <v>44802</v>
-      </c>
-      <c r="H100" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A101" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D101">
-        <v>2022</v>
-      </c>
-      <c r="E101">
-        <v>43.611899999999999</v>
-      </c>
-      <c r="F101">
-        <v>3.8772000000000002</v>
-      </c>
-      <c r="G101" s="9">
-        <v>44802</v>
-      </c>
-      <c r="H101" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A102" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D102">
-        <v>2022</v>
-      </c>
-      <c r="E102">
-        <v>41.390205000000002</v>
-      </c>
-      <c r="F102">
-        <v>2.154007</v>
-      </c>
-      <c r="G102" s="9">
-        <v>44805</v>
-      </c>
-      <c r="H102" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A103" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D103">
-        <v>2022</v>
-      </c>
-      <c r="E103">
-        <v>45.763420000000004</v>
-      </c>
-      <c r="F103">
-        <v>4.8342770000000002</v>
-      </c>
-      <c r="G103" s="9">
-        <v>44807</v>
-      </c>
-      <c r="H103" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A104" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D104">
-        <v>2022</v>
-      </c>
-      <c r="E104">
-        <v>41.125278000000002</v>
-      </c>
-      <c r="F104">
-        <v>16.866667</v>
-      </c>
-      <c r="G104" s="9">
-        <v>44822</v>
-      </c>
-      <c r="H104" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A105" t="s">
-        <v>171</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D105">
-        <v>2022</v>
-      </c>
-      <c r="E105">
-        <v>40.055850999999997</v>
-      </c>
-      <c r="F105">
-        <v>17.992615000000001</v>
-      </c>
-      <c r="G105" s="9">
-        <v>44823</v>
-      </c>
-      <c r="H105" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A106" t="s">
-        <v>172</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D106">
-        <v>2022</v>
-      </c>
-      <c r="E106">
-        <v>39.800596797600001</v>
-      </c>
-      <c r="F106">
-        <v>18.354165250000001</v>
-      </c>
-      <c r="G106" s="9">
-        <v>44824</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A107" t="s">
-        <v>173</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D107">
-        <v>2022</v>
-      </c>
-      <c r="E107">
-        <v>40.99221</v>
-      </c>
-      <c r="F107">
-        <v>17.221489999999999</v>
-      </c>
-      <c r="G107" s="9">
-        <v>44824</v>
-      </c>
-      <c r="H107" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A108" t="s">
-        <v>186</v>
-      </c>
-      <c r="B108" s="1" t="s">
+      <c r="C115" t="s">
+        <v>209</v>
+      </c>
+      <c r="D115">
+        <v>2023</v>
+      </c>
+      <c r="E115">
+        <v>47.484813000000003</v>
+      </c>
+      <c r="F115">
+        <v>7.7341870000000004</v>
+      </c>
+      <c r="G115" s="9">
+        <v>44983</v>
+      </c>
+      <c r="H115" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A116" t="s">
+        <v>220</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C108" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D108">
-        <v>2022</v>
-      </c>
-      <c r="E108">
-        <v>47.630859999999998</v>
-      </c>
-      <c r="F108">
-        <v>7.665832</v>
-      </c>
-      <c r="G108" s="9">
-        <v>44920</v>
-      </c>
-      <c r="H108" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A109" t="s">
-        <v>190</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="D109">
+      <c r="C116" t="s">
+        <v>219</v>
+      </c>
+      <c r="D116">
         <v>2023</v>
       </c>
-      <c r="E109">
-        <v>46.938800999999998</v>
-      </c>
-      <c r="F109">
-        <v>8.4761690000000005</v>
-      </c>
-      <c r="G109" s="9">
-        <v>44940</v>
-      </c>
-      <c r="H109" t="s">
-        <v>192</v>
+      <c r="E116">
+        <v>46.583629000000002</v>
+      </c>
+      <c r="F116" s="5">
+        <v>7.0815279999999996</v>
+      </c>
+      <c r="G116" s="9">
+        <v>45004</v>
+      </c>
+      <c r="H116" s="12" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H95">
-    <sortCondition ref="D2:D95"/>
-    <sortCondition ref="B2:B95"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H114">
+    <sortCondition ref="D2:D114"/>
+    <sortCondition ref="C2:C114"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Places.xlsx
+++ b/Places.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georg\Documents\Travel\Places\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EBF667-3CE8-43EE-B862-7543864B3C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A7E985-9D7B-4ABB-9C6A-4E01E57C1B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="243">
   <si>
     <t>Place</t>
   </si>
@@ -701,6 +701,57 @@
   </si>
   <si>
     <t>Sabrina, Christian, Rafa, Andreas, other Italians</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bordeaux </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First time to Bordeaux (27-30 of April) for my PhD. Met the Lab team, small walks into the city and a couble of drinks with Manel and the other PhD students. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camping summer in Sifnos. We were hicking a lot. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Despoina </t>
+  </si>
+  <si>
+    <t>Kato, Maria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kimon, Despoina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vou, Ni, Desios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petros, Despoina, Danai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carnival in Patras with Despoina, Petros, Danai, Alex and others. The biggest fight between me and Despoina probably. Anastasia was there too. </t>
+  </si>
+  <si>
+    <t>Kato, Kimon, Dimitrakopoulos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probably my first trip outside of Greece ever. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charitini </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway </t>
+  </si>
+  <si>
+    <t>Oslo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two dat trip to the northest place I have ever been. Unfortunately it was a poor place selection. I had to work all Saturday for the OGF preperation for FAP-CD40. On Sunday I almost lost the train to Oslo airport after running 45 minutes this my stuff in the rain. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A week in Oslo for the European Causal inference meeting. A lot of networking with causality people. </t>
+  </si>
+  <si>
+    <t>Kongsvinger</t>
   </si>
 </sst>
 </file>
@@ -1021,10 +1072,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H116"/>
+  <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3066,11 +3117,17 @@
       <c r="B84" s="8" t="s">
         <v>73</v>
       </c>
+      <c r="C84" s="8" t="s">
+        <v>235</v>
+      </c>
       <c r="E84" s="7">
         <v>42.697510000000001</v>
       </c>
       <c r="F84" s="7">
         <v>23.324149999999999</v>
+      </c>
+      <c r="H84" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1">
@@ -3150,6 +3207,9 @@
       <c r="B90" s="8" t="s">
         <v>80</v>
       </c>
+      <c r="C90" t="s">
+        <v>13</v>
+      </c>
       <c r="E90" s="7">
         <v>38.827415999999999</v>
       </c>
@@ -3164,11 +3224,17 @@
       <c r="B91" s="8" t="s">
         <v>80</v>
       </c>
+      <c r="C91" t="s">
+        <v>233</v>
+      </c>
       <c r="E91" s="7">
         <v>38.244990999999999</v>
       </c>
       <c r="F91" s="7">
         <v>21.734522999999999</v>
+      </c>
+      <c r="H91" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="15.75" customHeight="1">
@@ -3220,6 +3286,9 @@
       <c r="B95" s="8" t="s">
         <v>80</v>
       </c>
+      <c r="C95" t="s">
+        <v>232</v>
+      </c>
       <c r="E95" s="7">
         <v>40.154102000000002</v>
       </c>
@@ -3241,7 +3310,7 @@
         <v>24.147006000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="15.75" customHeight="1">
+    <row r="97" spans="1:8" ht="15.75" customHeight="1">
       <c r="A97" s="8" t="s">
         <v>93</v>
       </c>
@@ -3255,7 +3324,7 @@
         <v>24.029107</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="15.75" customHeight="1">
+    <row r="98" spans="1:8" ht="15.75" customHeight="1">
       <c r="A98" s="8" t="s">
         <v>94</v>
       </c>
@@ -3269,7 +3338,7 @@
         <v>24.412331999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15.75" customHeight="1">
+    <row r="99" spans="1:8" ht="15.75" customHeight="1">
       <c r="A99" s="8" t="s">
         <v>95</v>
       </c>
@@ -3283,7 +3352,7 @@
         <v>24.88841</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="15.75" customHeight="1">
+    <row r="100" spans="1:8" ht="15.75" customHeight="1">
       <c r="A100" s="8" t="s">
         <v>96</v>
       </c>
@@ -3297,7 +3366,7 @@
         <v>24.575970999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15.75" customHeight="1">
+    <row r="101" spans="1:8" ht="15.75" customHeight="1">
       <c r="A101" s="8" t="s">
         <v>97</v>
       </c>
@@ -3311,7 +3380,7 @@
         <v>25.588498999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15.75" customHeight="1">
+    <row r="102" spans="1:8" ht="15.75" customHeight="1">
       <c r="A102" s="8" t="s">
         <v>98</v>
       </c>
@@ -3325,13 +3394,16 @@
         <v>25.065902000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="15.75" customHeight="1">
+    <row r="103" spans="1:8" ht="15.75" customHeight="1">
       <c r="A103" s="8" t="s">
         <v>99</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>80</v>
       </c>
+      <c r="C103" t="s">
+        <v>231</v>
+      </c>
       <c r="E103" s="7">
         <v>39.106766</v>
       </c>
@@ -3339,7 +3411,7 @@
         <v>26.549226000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="15.75" customHeight="1">
+    <row r="104" spans="1:8" ht="15.75" customHeight="1">
       <c r="A104" s="8" t="s">
         <v>100</v>
       </c>
@@ -3353,7 +3425,7 @@
         <v>26.130711999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="15.75" customHeight="1">
+    <row r="105" spans="1:8" ht="15.75" customHeight="1">
       <c r="A105" s="8" t="s">
         <v>101</v>
       </c>
@@ -3367,7 +3439,7 @@
         <v>28.216380999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="15.75" customHeight="1">
+    <row r="106" spans="1:8" ht="15.75" customHeight="1">
       <c r="A106" s="8" t="s">
         <v>102</v>
       </c>
@@ -3381,13 +3453,16 @@
         <v>25.449898000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="15.75" customHeight="1">
+    <row r="107" spans="1:8" ht="15.75" customHeight="1">
       <c r="A107" s="8" t="s">
         <v>103</v>
       </c>
       <c r="B107" s="8" t="s">
         <v>80</v>
       </c>
+      <c r="C107" t="s">
+        <v>56</v>
+      </c>
       <c r="E107" s="7">
         <v>37.118786999999998</v>
       </c>
@@ -3395,13 +3470,16 @@
         <v>25.240739000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="15.75" customHeight="1">
+    <row r="108" spans="1:8" ht="15.75" customHeight="1">
       <c r="A108" s="8" t="s">
         <v>104</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>80</v>
       </c>
+      <c r="C108" t="s">
+        <v>230</v>
+      </c>
       <c r="E108" s="7">
         <v>39.165528999999999</v>
       </c>
@@ -3409,7 +3487,7 @@
         <v>23.489733999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="15.75" customHeight="1">
+    <row r="109" spans="1:8" ht="15.75" customHeight="1">
       <c r="A109" s="8" t="s">
         <v>105</v>
       </c>
@@ -3423,13 +3501,19 @@
         <v>23.726915999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="15.75" customHeight="1">
+    <row r="110" spans="1:8" ht="15.75" customHeight="1">
       <c r="A110" s="8" t="s">
         <v>106</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>80</v>
       </c>
+      <c r="C110" t="s">
+        <v>38</v>
+      </c>
+      <c r="D110">
+        <v>2019</v>
+      </c>
       <c r="E110" s="7">
         <v>36.972248</v>
       </c>
@@ -3439,14 +3523,20 @@
       <c r="G110" s="9">
         <v>43683</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" ht="15.75" customHeight="1">
+      <c r="H110" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="15.75" customHeight="1">
       <c r="A111" s="8" t="s">
         <v>107</v>
       </c>
       <c r="B111" s="8" t="s">
         <v>80</v>
       </c>
+      <c r="C111" t="s">
+        <v>229</v>
+      </c>
       <c r="E111" s="7">
         <v>40.504716999999999</v>
       </c>
@@ -3454,12 +3544,15 @@
         <v>22.923787000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="15.75" customHeight="1">
+    <row r="112" spans="1:8" ht="15.75" customHeight="1">
       <c r="A112" s="8" t="s">
         <v>108</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>80</v>
+      </c>
+      <c r="C112" t="s">
+        <v>229</v>
       </c>
       <c r="E112" s="7">
         <v>39.769033</v>
@@ -3489,6 +3582,9 @@
       <c r="B114" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="C114" t="s">
+        <v>237</v>
+      </c>
       <c r="E114" s="5">
         <v>42.672719999999998</v>
       </c>
@@ -3549,6 +3645,78 @@
       </c>
       <c r="H116" s="12" t="s">
         <v>218</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A117" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C117" t="s">
+        <v>180</v>
+      </c>
+      <c r="D117">
+        <v>2023</v>
+      </c>
+      <c r="E117">
+        <v>44.838689000000002</v>
+      </c>
+      <c r="F117" s="5">
+        <v>-0.57411000000000001</v>
+      </c>
+      <c r="G117" s="9">
+        <v>45012</v>
+      </c>
+      <c r="H117" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A118" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D118">
+        <v>2023</v>
+      </c>
+      <c r="E118">
+        <v>59.916871999999998</v>
+      </c>
+      <c r="F118" s="5">
+        <v>10.728199</v>
+      </c>
+      <c r="G118" s="9">
+        <v>45033</v>
+      </c>
+      <c r="H118" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A119" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D119">
+        <v>2023</v>
+      </c>
+      <c r="E119">
+        <v>60.199133000000003</v>
+      </c>
+      <c r="F119" s="5">
+        <v>12.010057</v>
+      </c>
+      <c r="G119" s="9">
+        <v>45037</v>
+      </c>
+      <c r="H119" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/Places.xlsx
+++ b/Places.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georg\Documents\Travel\Places\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9CB4C7-EDEC-4383-957A-5126731F304B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D3B83F-FBA8-4017-B9EF-B33F58786191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="267">
   <si>
     <t>Place</t>
   </si>
@@ -812,6 +812,18 @@
   </si>
   <si>
     <t>Sofia, Gemma, Sabrina, Marina, Christina, Alex, Nina, Jule, Daniel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia, Gemma </t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Copenhagen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I self invited myself and Sofia to Gemma's place in Cph. We went there from Thursday night until Monday morning. Relatively chill weekend compared to the previous ones. The weather was quite winterish given that it was middle of summer. Also visited the christiantown which is technically another "nation". At that point I am very happy with my relationship with Sofia. Feelings are mutual. Probably the first time I was obviously angry in front of Sofia and Gemma because Yasmin, a friend of Sofia, through some very direct questions, brings me back feelings similar to those from when I was living with Ilias. Both of them handled it expectedly good. Last day, Sunday, we also visited Jægersborg Dyrehave which is a natural park with deers just outside Cph. Notes from the weekend: seen movie "About time" which was suggested to my by Sofia. Discussions about when would we go if we could travel in time and what we would do. Sofia would go somewhere back and do a wild party with costumes. Gemma and I did not know yet. Probably in the future. </t>
   </si>
 </sst>
 </file>
@@ -1133,10 +1145,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C115" sqref="C115"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H126" sqref="H126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3954,6 +3966,32 @@
         <v>212</v>
       </c>
     </row>
+    <row r="126" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A126" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C126" t="s">
+        <v>263</v>
+      </c>
+      <c r="D126" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E126">
+        <v>55.693223000000003</v>
+      </c>
+      <c r="F126" s="5">
+        <v>12.590375999999999</v>
+      </c>
+      <c r="G126" s="9">
+        <v>45129</v>
+      </c>
+      <c r="H126" t="s">
+        <v>266</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H125">
     <sortCondition ref="B2:B125"/>

--- a/Places.xlsx
+++ b/Places.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georg\Documents\Travel\Places\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D3B83F-FBA8-4017-B9EF-B33F58786191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981019E4-0A4D-471D-B662-A1652AC8B9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="271">
   <si>
     <t>Place</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t xml:space="preserve">Bern </t>
-  </si>
-  <si>
-    <t>Daniel, Kato</t>
   </si>
   <si>
     <t xml:space="preserve">Basel </t>
@@ -824,6 +821,21 @@
   </si>
   <si>
     <t xml:space="preserve">I self invited myself and Sofia to Gemma's place in Cph. We went there from Thursday night until Monday morning. Relatively chill weekend compared to the previous ones. The weather was quite winterish given that it was middle of summer. Also visited the christiantown which is technically another "nation". At that point I am very happy with my relationship with Sofia. Feelings are mutual. Probably the first time I was obviously angry in front of Sofia and Gemma because Yasmin, a friend of Sofia, through some very direct questions, brings me back feelings similar to those from when I was living with Ilias. Both of them handled it expectedly good. Last day, Sunday, we also visited Jægersborg Dyrehave which is a natural park with deers just outside Cph. Notes from the weekend: seen movie "About time" which was suggested to my by Sofia. Discussions about when would we go if we could travel in time and what we would do. Sofia would go somewhere back and do a wild party with costumes. Gemma and I did not know yet. Probably in the future. </t>
+  </si>
+  <si>
+    <t>Kato, Sofia, Gemma, Sabrina, Jule, Nina, Daniel</t>
+  </si>
+  <si>
+    <t>Daniel, Sofia, Nina, Tamas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One day trip to Ticino with Daniel during my studies at UZH. Also with Sofia, Nina and Tamas on July 2023 for 3 days. </t>
+  </si>
+  <si>
+    <t>Daniel, Kato, Sofia, Nina, Alex, Jule, Gemma, Sabri, Marina, Kristina</t>
+  </si>
+  <si>
+    <t>Daniel, Gemma, Marina, Joelle, Jule</t>
   </si>
 </sst>
 </file>
@@ -1147,8 +1159,8 @@
   </sheetPr>
   <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H126" sqref="H126"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1180,21 +1192,21 @@
         <v>5</v>
       </c>
       <c r="G1" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>125</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="D2" s="1">
         <v>2021</v>
@@ -1209,18 +1221,18 @@
         <v>44560</v>
       </c>
       <c r="H2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="A3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>73</v>
-      </c>
       <c r="C3" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E3" s="7">
         <v>42.697510000000001</v>
@@ -1229,18 +1241,18 @@
         <v>23.324149999999999</v>
       </c>
       <c r="H3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D4">
         <v>2023</v>
@@ -1255,18 +1267,18 @@
         <v>45012</v>
       </c>
       <c r="H4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="A5" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>113</v>
-      </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5">
         <v>2022</v>
@@ -1281,18 +1293,18 @@
         <v>44666</v>
       </c>
       <c r="H5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D6">
         <v>2022</v>
@@ -1307,18 +1319,18 @@
         <v>44802</v>
       </c>
       <c r="H6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D7">
         <v>2022</v>
@@ -1333,18 +1345,18 @@
         <v>44802</v>
       </c>
       <c r="H7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D8">
         <v>2022</v>
@@ -1359,18 +1371,18 @@
         <v>44807</v>
       </c>
       <c r="H8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D9">
         <v>2022</v>
@@ -1385,18 +1397,18 @@
         <v>44802</v>
       </c>
       <c r="H9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D10">
         <v>2022</v>
@@ -1411,18 +1423,18 @@
         <v>44625</v>
       </c>
       <c r="H10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E11" s="7">
         <v>40.504716999999999</v>
@@ -1433,13 +1445,13 @@
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E12" s="7">
         <v>39.769033</v>
@@ -1450,10 +1462,10 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -1467,13 +1479,13 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E14" s="7">
         <v>39.165528999999999</v>
@@ -1484,13 +1496,13 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15">
         <v>2019</v>
@@ -1505,18 +1517,18 @@
         <v>43683</v>
       </c>
       <c r="H15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E16" s="7">
         <v>39.106766</v>
@@ -1527,13 +1539,13 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
       <c r="A17" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" s="7">
         <v>37.118786999999998</v>
@@ -1544,13 +1556,13 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E18" s="7">
         <v>38.244990999999999</v>
@@ -1559,18 +1571,18 @@
         <v>21.734522999999999</v>
       </c>
       <c r="H18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1">
       <c r="A19" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E19" s="7">
         <v>40.154102000000002</v>
@@ -1581,10 +1593,10 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E20" s="7">
         <v>40.626631000000003</v>
@@ -1595,10 +1607,10 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E21" s="7">
         <v>40.521648999999996</v>
@@ -1609,10 +1621,10 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E22" s="7">
         <v>39.669618999999997</v>
@@ -1623,10 +1635,10 @@
     </row>
     <row r="23" spans="1:8" ht="12.5">
       <c r="A23" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E23" s="7">
         <v>39.198498999999998</v>
@@ -1637,10 +1649,10 @@
     </row>
     <row r="24" spans="1:8" ht="12.5">
       <c r="A24" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E24" s="7">
         <v>38.955786000000003</v>
@@ -1651,10 +1663,10 @@
     </row>
     <row r="25" spans="1:8" ht="12.5">
       <c r="A25" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E25" s="7">
         <v>37.983759999999997</v>
@@ -1665,10 +1677,10 @@
     </row>
     <row r="26" spans="1:8" ht="12.5">
       <c r="A26" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E26" s="7">
         <v>39.359924999999997</v>
@@ -1679,10 +1691,10 @@
     </row>
     <row r="27" spans="1:8" ht="12.5">
       <c r="A27" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E27" s="7">
         <v>39.388793999999997</v>
@@ -1693,10 +1705,10 @@
     </row>
     <row r="28" spans="1:8" ht="12.5">
       <c r="A28" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E28" s="7">
         <v>41.149323000000003</v>
@@ -1707,10 +1719,10 @@
     </row>
     <row r="29" spans="1:8" ht="12.5">
       <c r="A29" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E29" s="7">
         <v>41.109025000000003</v>
@@ -1721,10 +1733,10 @@
     </row>
     <row r="30" spans="1:8" ht="12.5">
       <c r="A30" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E30" s="7">
         <v>40.935738000000001</v>
@@ -1735,10 +1747,10 @@
     </row>
     <row r="31" spans="1:8" ht="12.5">
       <c r="A31" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E31" s="7">
         <v>41.138108000000003</v>
@@ -1749,10 +1761,10 @@
     </row>
     <row r="32" spans="1:8" ht="12.5">
       <c r="A32" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E32" s="7">
         <v>40.630231999999999</v>
@@ -1763,10 +1775,10 @@
     </row>
     <row r="33" spans="1:8" ht="12.5">
       <c r="A33" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E33" s="7">
         <v>40.451402000000002</v>
@@ -1777,10 +1789,10 @@
     </row>
     <row r="34" spans="1:8" ht="12.5">
       <c r="A34" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E34" s="7">
         <v>39.877859999999998</v>
@@ -1791,10 +1803,10 @@
     </row>
     <row r="35" spans="1:8" ht="12.5">
       <c r="A35" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E35" s="7">
         <v>38.371211000000002</v>
@@ -1805,10 +1817,10 @@
     </row>
     <row r="36" spans="1:8" ht="12.5">
       <c r="A36" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E36" s="7">
         <v>36.427728000000002</v>
@@ -1819,10 +1831,10 @@
     </row>
     <row r="37" spans="1:8" ht="12.5">
       <c r="A37" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E37" s="7">
         <v>37.068413999999997</v>
@@ -1833,10 +1845,10 @@
     </row>
     <row r="38" spans="1:8" ht="12.5">
       <c r="A38" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E38" s="7">
         <v>39.121442999999999</v>
@@ -1847,10 +1859,10 @@
     </row>
     <row r="39" spans="1:8" ht="12.5">
       <c r="A39" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E39" s="7">
         <v>40.808191000000001</v>
@@ -1861,13 +1873,13 @@
     </row>
     <row r="40" spans="1:8" ht="12.5">
       <c r="A40" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="C40" t="s">
         <v>115</v>
-      </c>
-      <c r="C40" t="s">
-        <v>116</v>
       </c>
       <c r="D40">
         <v>2022</v>
@@ -1882,18 +1894,18 @@
         <v>44690</v>
       </c>
       <c r="H40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="12.5">
       <c r="A41" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" t="s">
         <v>256</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C41" t="s">
-        <v>257</v>
       </c>
       <c r="D41">
         <v>2023</v>
@@ -1908,18 +1920,18 @@
         <v>45108</v>
       </c>
       <c r="H41" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="12.5">
       <c r="A42" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D42">
         <v>2023</v>
@@ -1934,18 +1946,18 @@
         <v>45107</v>
       </c>
       <c r="H42" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="12.5">
       <c r="A43" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D43">
         <v>2013</v>
@@ -1959,13 +1971,13 @@
     </row>
     <row r="44" spans="1:8" ht="12.5">
       <c r="A44" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="D44">
         <v>2013</v>
@@ -1979,13 +1991,13 @@
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1">
       <c r="A45" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D45">
         <v>2013</v>
@@ -1999,13 +2011,13 @@
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D46">
         <v>2013</v>
@@ -2019,13 +2031,13 @@
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1">
       <c r="A47" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D47">
         <v>2013</v>
@@ -2037,18 +2049,18 @@
         <v>14.990641999999999</v>
       </c>
       <c r="H47" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1">
       <c r="A48" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>69</v>
-      </c>
       <c r="C48" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D48">
         <v>2017</v>
@@ -2063,15 +2075,15 @@
         <v>42933</v>
       </c>
       <c r="H48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1">
       <c r="A49" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>13</v>
@@ -2085,10 +2097,10 @@
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1">
       <c r="A50" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>13</v>
@@ -2102,13 +2114,13 @@
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1">
       <c r="A51" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D51">
         <v>2023</v>
@@ -2123,18 +2135,18 @@
         <v>44973</v>
       </c>
       <c r="H51" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1">
       <c r="A52" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D52">
         <v>2023</v>
@@ -2149,18 +2161,18 @@
         <v>44974</v>
       </c>
       <c r="H52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1">
       <c r="A53" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D53">
         <v>2023</v>
@@ -2175,18 +2187,18 @@
         <v>44975</v>
       </c>
       <c r="H53" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1">
       <c r="A54" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>153</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>154</v>
       </c>
       <c r="D54">
         <v>2022</v>
@@ -2201,18 +2213,18 @@
         <v>44800</v>
       </c>
       <c r="H54" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1">
       <c r="A55" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>153</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>154</v>
       </c>
       <c r="D55">
         <v>2022</v>
@@ -2227,18 +2239,18 @@
         <v>44801</v>
       </c>
       <c r="H55" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.75" customHeight="1">
       <c r="A56" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D56">
         <v>2022</v>
@@ -2253,18 +2265,18 @@
         <v>44822</v>
       </c>
       <c r="H56" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15.75" customHeight="1">
       <c r="A57" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D57">
         <v>2022</v>
@@ -2279,18 +2291,18 @@
         <v>44823</v>
       </c>
       <c r="H57" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75" customHeight="1">
       <c r="A58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D58">
         <v>2022</v>
@@ -2305,18 +2317,18 @@
         <v>44824</v>
       </c>
       <c r="H58" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.75" customHeight="1">
       <c r="A59" t="s">
+        <v>166</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>167</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>168</v>
       </c>
       <c r="D59">
         <v>2022</v>
@@ -2331,18 +2343,18 @@
         <v>44824</v>
       </c>
       <c r="H59" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" customHeight="1">
       <c r="A60" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="C60" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E60" s="5">
         <v>42.672719999999998</v>
@@ -2351,15 +2363,15 @@
         <v>21.166879999999999</v>
       </c>
       <c r="H60" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.75" customHeight="1">
       <c r="A61" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D61" s="8">
         <v>2019</v>
@@ -2373,13 +2385,13 @@
     </row>
     <row r="62" spans="1:8" ht="15.75" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D62" s="1">
         <v>2021</v>
@@ -2396,13 +2408,13 @@
     </row>
     <row r="63" spans="1:8" ht="15.75" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D63" s="1">
         <v>2021</v>
@@ -2419,13 +2431,13 @@
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1">
       <c r="A64" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="D64" s="1">
         <v>2021</v>
@@ -2440,18 +2452,18 @@
         <v>44557</v>
       </c>
       <c r="H64" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D65" s="1">
         <v>2021</v>
@@ -2466,18 +2478,18 @@
         <v>44560</v>
       </c>
       <c r="H65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D66" s="1">
         <v>2021</v>
@@ -2492,18 +2504,18 @@
         <v>44560</v>
       </c>
       <c r="H66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1">
       <c r="A67" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D67" s="1">
         <v>2021</v>
@@ -2518,18 +2530,18 @@
         <v>44381</v>
       </c>
       <c r="H67" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D68" s="1">
         <v>2021</v>
@@ -2544,18 +2556,18 @@
         <v>44382</v>
       </c>
       <c r="H68" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D69" s="1">
         <v>2021</v>
@@ -2570,18 +2582,18 @@
         <v>44383</v>
       </c>
       <c r="H69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D70" s="1">
         <v>2021</v>
@@ -2596,18 +2608,18 @@
         <v>44384</v>
       </c>
       <c r="H70" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1">
       <c r="A71" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="D71" s="1">
         <v>2021</v>
@@ -2622,15 +2634,15 @@
         <v>44381</v>
       </c>
       <c r="H71" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1">
       <c r="A72" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D72">
         <v>2023</v>
@@ -2645,15 +2657,15 @@
         <v>45033</v>
       </c>
       <c r="H72" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15.75" customHeight="1">
       <c r="A73" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D73">
         <v>2023</v>
@@ -2668,18 +2680,18 @@
         <v>45037</v>
       </c>
       <c r="H73" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1">
       <c r="A74" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="C74" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D74" s="1">
         <v>2019</v>
@@ -2694,18 +2706,18 @@
         <v>43435</v>
       </c>
       <c r="H74" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D75" s="1">
         <v>2019</v>
@@ -2720,18 +2732,18 @@
         <v>43469</v>
       </c>
       <c r="H75" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1">
       <c r="A76" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="D76" s="1">
         <v>2019</v>
@@ -2746,15 +2758,15 @@
         <v>43530</v>
       </c>
       <c r="H76" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>13</v>
@@ -2774,10 +2786,10 @@
     </row>
     <row r="78" spans="1:8" ht="15.75" customHeight="1">
       <c r="A78" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C78" s="11" t="s">
         <v>13</v>
@@ -2795,15 +2807,15 @@
         <v>43508</v>
       </c>
       <c r="H78" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15.75" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>13</v>
@@ -2823,13 +2835,13 @@
     </row>
     <row r="80" spans="1:8" ht="15.75" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D80" s="1">
         <v>2019</v>
@@ -2843,13 +2855,13 @@
     </row>
     <row r="81" spans="1:8" ht="15.75" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D81" s="1">
         <v>2019</v>
@@ -2863,13 +2875,13 @@
     </row>
     <row r="82" spans="1:8" ht="15.75" customHeight="1">
       <c r="A82" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="D82" s="1">
         <v>2019</v>
@@ -2886,13 +2898,13 @@
     </row>
     <row r="83" spans="1:8" ht="15.75" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D83" s="1">
         <v>2019</v>
@@ -2909,13 +2921,13 @@
     </row>
     <row r="84" spans="1:8" ht="15.75" customHeight="1">
       <c r="A84" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="D84" s="1">
         <v>2019</v>
@@ -2930,18 +2942,18 @@
         <v>43542</v>
       </c>
       <c r="H84" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1">
       <c r="A85" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D85">
         <v>2022</v>
@@ -2956,18 +2968,18 @@
         <v>44805</v>
       </c>
       <c r="H85" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15.75" customHeight="1">
       <c r="A86" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C86" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D86">
         <v>2023</v>
@@ -2982,18 +2994,18 @@
         <v>45052</v>
       </c>
       <c r="H86" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15.75" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D87" s="1">
         <v>2022</v>
@@ -3008,18 +3020,18 @@
         <v>44591</v>
       </c>
       <c r="H87" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15.75" customHeight="1">
       <c r="A88" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D88">
         <v>2022</v>
@@ -3034,18 +3046,18 @@
         <v>44920</v>
       </c>
       <c r="H88" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="15.75" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D89" s="1">
         <v>2021</v>
@@ -3062,13 +3074,13 @@
     </row>
     <row r="90" spans="1:8" ht="15.75" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D90" s="1">
         <v>2021</v>
@@ -3083,18 +3095,18 @@
         <v>44198</v>
       </c>
       <c r="H90" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15.75" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>11</v>
+        <v>267</v>
       </c>
       <c r="D91" s="1">
         <v>2021</v>
@@ -3109,18 +3121,18 @@
         <v>44290</v>
       </c>
       <c r="H91" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="15.75" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>11</v>
+        <v>267</v>
       </c>
       <c r="D92" s="1">
         <v>2021</v>
@@ -3135,18 +3147,18 @@
         <v>44290</v>
       </c>
       <c r="H92" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="15.75" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>11</v>
+        <v>267</v>
       </c>
       <c r="D93" s="1">
         <v>2021</v>
@@ -3161,12 +3173,12 @@
         <v>44290</v>
       </c>
       <c r="H93" t="s">
-        <v>145</v>
+        <v>268</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="15.75" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>7</v>
@@ -3187,18 +3199,18 @@
         <v>44363</v>
       </c>
       <c r="H94" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="15.75" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>11</v>
+        <v>270</v>
       </c>
       <c r="D95" s="1">
         <v>2021</v>
@@ -3213,7 +3225,7 @@
         <v>44363</v>
       </c>
       <c r="H95" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15.75" customHeight="1">
@@ -3239,7 +3251,7 @@
         <v>44290</v>
       </c>
       <c r="H96" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="15.75" customHeight="1">
@@ -3250,7 +3262,7 @@
         <v>7</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>16</v>
+        <v>269</v>
       </c>
       <c r="D97" s="1">
         <v>2021</v>
@@ -3265,18 +3277,18 @@
         <v>44329</v>
       </c>
       <c r="H97" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15.75" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D98" s="1">
         <v>2021</v>
@@ -3291,18 +3303,18 @@
         <v>43775</v>
       </c>
       <c r="H98" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.75" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D99" s="1">
         <v>2021</v>
@@ -3319,13 +3331,13 @@
     </row>
     <row r="100" spans="1:8" ht="15.75" customHeight="1">
       <c r="A100" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D100">
         <v>2023</v>
@@ -3340,18 +3352,18 @@
         <v>44948</v>
       </c>
       <c r="H100" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="15.75" customHeight="1">
       <c r="A101" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D101">
         <v>2022</v>
@@ -3366,18 +3378,18 @@
         <v>44716</v>
       </c>
       <c r="H101" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15.75" customHeight="1">
       <c r="A102" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D102">
         <v>2022</v>
@@ -3392,18 +3404,18 @@
         <v>44706</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="15.75" customHeight="1">
       <c r="A103" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D103">
         <v>2022</v>
@@ -3418,18 +3430,18 @@
         <v>44707</v>
       </c>
       <c r="H103" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15.75" customHeight="1">
       <c r="A104" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D104">
         <v>2022</v>
@@ -3444,18 +3456,18 @@
         <v>44723</v>
       </c>
       <c r="H104" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="15.75" customHeight="1">
       <c r="A105" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D105">
         <v>2023</v>
@@ -3470,18 +3482,18 @@
         <v>44583</v>
       </c>
       <c r="H105" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="15.75" customHeight="1">
       <c r="A106" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D106">
         <v>2022</v>
@@ -3496,18 +3508,18 @@
         <v>44764</v>
       </c>
       <c r="H106" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15.75" customHeight="1">
       <c r="A107" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B107" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D107">
         <v>2022</v>
@@ -3522,18 +3534,18 @@
         <v>44765</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15.75" customHeight="1">
       <c r="A108" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D108">
         <v>2022</v>
@@ -3548,18 +3560,18 @@
         <v>44766</v>
       </c>
       <c r="H108" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="15.75" customHeight="1">
       <c r="A109" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D109">
         <v>2023</v>
@@ -3574,18 +3586,18 @@
         <v>44940</v>
       </c>
       <c r="H109" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="15.75" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>13</v>
+        <v>266</v>
       </c>
       <c r="D110" s="1">
         <v>2021</v>
@@ -3600,7 +3612,7 @@
         <v>44525</v>
       </c>
       <c r="H110" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="15.75" customHeight="1">
@@ -3611,7 +3623,7 @@
         <v>7</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D111" s="1">
         <v>2021</v>
@@ -3626,18 +3638,18 @@
         <v>44527</v>
       </c>
       <c r="H111" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="15.75" customHeight="1">
       <c r="A112" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D112">
         <v>2022</v>
@@ -3652,18 +3664,18 @@
         <v>44772</v>
       </c>
       <c r="H112" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="15.75" customHeight="1">
       <c r="A113" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D113">
         <v>2022</v>
@@ -3678,18 +3690,18 @@
         <v>44795</v>
       </c>
       <c r="H113" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="15.75" customHeight="1">
       <c r="A114" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B114" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D114">
         <v>2022</v>
@@ -3704,18 +3716,18 @@
         <v>44730</v>
       </c>
       <c r="H114" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="15.75" customHeight="1">
       <c r="A115" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D115">
         <v>2023</v>
@@ -3730,18 +3742,18 @@
         <v>44983</v>
       </c>
       <c r="H115" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="15.75" customHeight="1">
       <c r="A116" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B116" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D116">
         <v>2023</v>
@@ -3756,18 +3768,18 @@
         <v>45095</v>
       </c>
       <c r="H116" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="15.75" customHeight="1">
       <c r="A117" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D117">
         <v>2023</v>
@@ -3782,18 +3794,18 @@
         <v>45004</v>
       </c>
       <c r="H117" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="15.75" customHeight="1">
       <c r="A118" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D118">
         <v>2023</v>
@@ -3808,18 +3820,18 @@
         <v>45066</v>
       </c>
       <c r="H118" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="15.75" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D119" s="1">
         <v>2021</v>
@@ -3834,18 +3846,18 @@
         <v>44548</v>
       </c>
       <c r="H119" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="15.75" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D120" s="1">
         <v>2021</v>
@@ -3857,18 +3869,18 @@
         <v>8.1598400000000009</v>
       </c>
       <c r="H120" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="15.75" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D121" s="1">
         <v>2021</v>
@@ -3880,7 +3892,7 @@
         <v>7.6216600000000003</v>
       </c>
       <c r="H121" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="15.75" customHeight="1">
@@ -3903,7 +3915,7 @@
         <v>44068</v>
       </c>
       <c r="H122" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="15.75" customHeight="1">
@@ -3926,7 +3938,7 @@
         <v>44440</v>
       </c>
       <c r="H123" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="15.75" customHeight="1">
@@ -3963,18 +3975,18 @@
         <v>8.6349300000000007</v>
       </c>
       <c r="H125" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="15.75" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C126" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D126" s="1">
         <v>2023</v>
@@ -3989,7 +4001,7 @@
         <v>45129</v>
       </c>
       <c r="H126" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/Places.xlsx
+++ b/Places.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georg\Documents\Travel\Places\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981019E4-0A4D-471D-B662-A1652AC8B9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50730FC2-22A3-4E5C-9A1A-73E669519D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="274">
   <si>
     <t>Place</t>
   </si>
@@ -836,6 +836,15 @@
   </si>
   <si>
     <t>Daniel, Gemma, Marina, Joelle, Jule</t>
+  </si>
+  <si>
+    <t>Date_2</t>
+  </si>
+  <si>
+    <t>Aninnia, Carlos, Corina</t>
+  </si>
+  <si>
+    <t>Herrliberg</t>
   </si>
 </sst>
 </file>
@@ -1157,10 +1166,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H126"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C114" sqref="C114"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1169,10 +1178,11 @@
     <col min="3" max="3" width="23.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.1796875" customWidth="1"/>
     <col min="7" max="7" width="26.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.6328125" customWidth="1"/>
+    <col min="8" max="8" width="26.6328125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="21.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1194,11 +1204,14 @@
       <c r="G1" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
@@ -1220,11 +1233,11 @@
       <c r="G2" s="9">
         <v>44560</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>71</v>
       </c>
@@ -1240,11 +1253,11 @@
       <c r="F3" s="7">
         <v>23.324149999999999</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>224</v>
       </c>
@@ -1266,11 +1279,11 @@
       <c r="G4" s="9">
         <v>45012</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>111</v>
       </c>
@@ -1292,11 +1305,11 @@
       <c r="G5" s="9">
         <v>44666</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>156</v>
       </c>
@@ -1318,11 +1331,11 @@
       <c r="G6" s="9">
         <v>44802</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>158</v>
       </c>
@@ -1344,11 +1357,11 @@
       <c r="G7" s="9">
         <v>44802</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>161</v>
       </c>
@@ -1370,11 +1383,11 @@
       <c r="G8" s="9">
         <v>44807</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>157</v>
       </c>
@@ -1396,11 +1409,11 @@
       <c r="G9" s="9">
         <v>44802</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>110</v>
       </c>
@@ -1422,11 +1435,11 @@
       <c r="G10" s="9">
         <v>44625</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>106</v>
       </c>
@@ -1443,7 +1456,7 @@
         <v>22.923787000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>107</v>
       </c>
@@ -1460,7 +1473,7 @@
         <v>21.181526999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="8" t="s">
         <v>85</v>
       </c>
@@ -1477,7 +1490,7 @@
         <v>20.700458999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="8" t="s">
         <v>103</v>
       </c>
@@ -1494,7 +1507,7 @@
         <v>23.489733999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="8" t="s">
         <v>105</v>
       </c>
@@ -1516,11 +1529,11 @@
       <c r="G15" s="9">
         <v>43683</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="A16" s="8" t="s">
         <v>98</v>
       </c>
@@ -1537,7 +1550,7 @@
         <v>26.549226000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="8" t="s">
         <v>102</v>
       </c>
@@ -1554,7 +1567,7 @@
         <v>25.240739000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="8" t="s">
         <v>86</v>
       </c>
@@ -1570,11 +1583,11 @@
       <c r="F18" s="7">
         <v>21.734522999999999</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="8" t="s">
         <v>90</v>
       </c>
@@ -1591,7 +1604,7 @@
         <v>23.915412</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="8" t="s">
         <v>80</v>
       </c>
@@ -1605,7 +1618,7 @@
         <v>22.950029000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="8" t="s">
         <v>81</v>
       </c>
@@ -1619,7 +1632,7 @@
         <v>21.263010999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="A22" s="8" t="s">
         <v>82</v>
       </c>
@@ -1633,7 +1646,7 @@
         <v>20.857987000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="12.5">
+    <row r="23" spans="1:9" ht="12.5">
       <c r="A23" s="8" t="s">
         <v>83</v>
       </c>
@@ -1647,7 +1660,7 @@
         <v>20.184436000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="12.5">
+    <row r="24" spans="1:9" ht="12.5">
       <c r="A24" s="8" t="s">
         <v>84</v>
       </c>
@@ -1661,7 +1674,7 @@
         <v>20.75263</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="12.5">
+    <row r="25" spans="1:9" ht="12.5">
       <c r="A25" s="8" t="s">
         <v>87</v>
       </c>
@@ -1675,7 +1688,7 @@
         <v>23.72784</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="12.5">
+    <row r="26" spans="1:9" ht="12.5">
       <c r="A26" s="8" t="s">
         <v>88</v>
       </c>
@@ -1689,7 +1702,7 @@
         <v>22.947213000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="12.5">
+    <row r="27" spans="1:9" ht="12.5">
       <c r="A27" s="8" t="s">
         <v>89</v>
       </c>
@@ -1703,7 +1716,7 @@
         <v>23.173162999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="12.5">
+    <row r="28" spans="1:9" ht="12.5">
       <c r="A28" s="8" t="s">
         <v>91</v>
       </c>
@@ -1717,7 +1730,7 @@
         <v>24.147006000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="12.5">
+    <row r="29" spans="1:9" ht="12.5">
       <c r="A29" s="8" t="s">
         <v>92</v>
       </c>
@@ -1731,7 +1744,7 @@
         <v>24.029107</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="12.5">
+    <row r="30" spans="1:9" ht="12.5">
       <c r="A30" s="8" t="s">
         <v>93</v>
       </c>
@@ -1745,7 +1758,7 @@
         <v>24.412331999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="12.5">
+    <row r="31" spans="1:9" ht="12.5">
       <c r="A31" s="8" t="s">
         <v>94</v>
       </c>
@@ -1759,7 +1772,7 @@
         <v>24.88841</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="12.5">
+    <row r="32" spans="1:9" ht="12.5">
       <c r="A32" s="8" t="s">
         <v>95</v>
       </c>
@@ -1773,7 +1786,7 @@
         <v>24.575970999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="12.5">
+    <row r="33" spans="1:9" ht="12.5">
       <c r="A33" s="8" t="s">
         <v>96</v>
       </c>
@@ -1787,7 +1800,7 @@
         <v>25.588498999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="12.5">
+    <row r="34" spans="1:9" ht="12.5">
       <c r="A34" s="8" t="s">
         <v>97</v>
       </c>
@@ -1801,7 +1814,7 @@
         <v>25.065902000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="12.5">
+    <row r="35" spans="1:9" ht="12.5">
       <c r="A35" s="8" t="s">
         <v>99</v>
       </c>
@@ -1815,7 +1828,7 @@
         <v>26.130711999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="12.5">
+    <row r="36" spans="1:9" ht="12.5">
       <c r="A36" s="8" t="s">
         <v>100</v>
       </c>
@@ -1829,7 +1842,7 @@
         <v>28.216380999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="12.5">
+    <row r="37" spans="1:9" ht="12.5">
       <c r="A37" s="8" t="s">
         <v>101</v>
       </c>
@@ -1843,7 +1856,7 @@
         <v>25.449898000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="12.5">
+    <row r="38" spans="1:9" ht="12.5">
       <c r="A38" s="8" t="s">
         <v>104</v>
       </c>
@@ -1857,7 +1870,7 @@
         <v>23.726915999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="12.5">
+    <row r="39" spans="1:9" ht="12.5">
       <c r="A39" s="8" t="s">
         <v>108</v>
       </c>
@@ -1871,7 +1884,7 @@
         <v>21.128466</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="12.5">
+    <row r="40" spans="1:9" ht="12.5">
       <c r="A40" s="8" t="s">
         <v>113</v>
       </c>
@@ -1893,11 +1906,11 @@
       <c r="G40" s="9">
         <v>44690</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="12.5">
+    <row r="41" spans="1:9" ht="12.5">
       <c r="A41" s="8" t="s">
         <v>255</v>
       </c>
@@ -1919,11 +1932,11 @@
       <c r="G41" s="9">
         <v>45108</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="12.5">
+    <row r="42" spans="1:9" ht="12.5">
       <c r="A42" t="s">
         <v>258</v>
       </c>
@@ -1945,11 +1958,11 @@
       <c r="G42" s="9">
         <v>45107</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="12.5">
+    <row r="43" spans="1:9" ht="12.5">
       <c r="A43" s="8" t="s">
         <v>73</v>
       </c>
@@ -1969,7 +1982,7 @@
         <v>18.172440000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="12.5">
+    <row r="44" spans="1:9" ht="12.5">
       <c r="A44" s="8" t="s">
         <v>77</v>
       </c>
@@ -1989,7 +2002,7 @@
         <v>15.28664</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1">
+    <row r="45" spans="1:9" ht="15.75" customHeight="1">
       <c r="A45" s="8" t="s">
         <v>74</v>
       </c>
@@ -2009,7 +2022,7 @@
         <v>13.576610000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1">
+    <row r="46" spans="1:9" ht="15.75" customHeight="1">
       <c r="A46" s="8" t="s">
         <v>75</v>
       </c>
@@ -2029,7 +2042,7 @@
         <v>15.28851</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1">
+    <row r="47" spans="1:9" ht="15.75" customHeight="1">
       <c r="A47" s="8" t="s">
         <v>76</v>
       </c>
@@ -2048,11 +2061,11 @@
       <c r="F47" s="7">
         <v>14.990641999999999</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1">
+    <row r="48" spans="1:9" ht="15.75" customHeight="1">
       <c r="A48" s="8" t="s">
         <v>67</v>
       </c>
@@ -2074,11 +2087,11 @@
       <c r="G48" s="9">
         <v>42933</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.75" customHeight="1">
+    <row r="49" spans="1:9" ht="15.75" customHeight="1">
       <c r="A49" s="8" t="s">
         <v>69</v>
       </c>
@@ -2095,7 +2108,7 @@
         <v>11.246259999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15.75" customHeight="1">
+    <row r="50" spans="1:9" ht="15.75" customHeight="1">
       <c r="A50" s="8" t="s">
         <v>70</v>
       </c>
@@ -2112,7 +2125,7 @@
         <v>14.496980000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15.75" customHeight="1">
+    <row r="51" spans="1:9" ht="15.75" customHeight="1">
       <c r="A51" t="s">
         <v>186</v>
       </c>
@@ -2134,11 +2147,11 @@
       <c r="G51" s="9">
         <v>44973</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.75" customHeight="1">
+    <row r="52" spans="1:9" ht="15.75" customHeight="1">
       <c r="A52" t="s">
         <v>190</v>
       </c>
@@ -2160,11 +2173,11 @@
       <c r="G52" s="9">
         <v>44974</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75" customHeight="1">
+    <row r="53" spans="1:9" ht="15.75" customHeight="1">
       <c r="A53" t="s">
         <v>188</v>
       </c>
@@ -2186,11 +2199,11 @@
       <c r="G53" s="9">
         <v>44975</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75" customHeight="1">
+    <row r="54" spans="1:9" ht="15.75" customHeight="1">
       <c r="A54" s="8" t="s">
         <v>154</v>
       </c>
@@ -2212,11 +2225,11 @@
       <c r="G54" s="9">
         <v>44800</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15.75" customHeight="1">
+    <row r="55" spans="1:9" ht="15.75" customHeight="1">
       <c r="A55" s="8" t="s">
         <v>155</v>
       </c>
@@ -2238,11 +2251,11 @@
       <c r="G55" s="9">
         <v>44801</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.75" customHeight="1">
+    <row r="56" spans="1:9" ht="15.75" customHeight="1">
       <c r="A56" s="8" t="s">
         <v>163</v>
       </c>
@@ -2264,11 +2277,11 @@
       <c r="G56" s="9">
         <v>44822</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15.75" customHeight="1">
+    <row r="57" spans="1:9" ht="15.75" customHeight="1">
       <c r="A57" t="s">
         <v>164</v>
       </c>
@@ -2290,11 +2303,11 @@
       <c r="G57" s="9">
         <v>44823</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.75" customHeight="1">
+    <row r="58" spans="1:9" ht="15.75" customHeight="1">
       <c r="A58" t="s">
         <v>165</v>
       </c>
@@ -2316,11 +2329,11 @@
       <c r="G58" s="9">
         <v>44824</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.75" customHeight="1">
+    <row r="59" spans="1:9" ht="15.75" customHeight="1">
       <c r="A59" t="s">
         <v>166</v>
       </c>
@@ -2342,11 +2355,11 @@
       <c r="G59" s="9">
         <v>44824</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" customHeight="1">
+    <row r="60" spans="1:9" ht="15.75" customHeight="1">
       <c r="A60" s="3" t="s">
         <v>64</v>
       </c>
@@ -2362,11 +2375,11 @@
       <c r="F60" s="5">
         <v>21.166879999999999</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.75" customHeight="1">
+    <row r="61" spans="1:9" ht="15.75" customHeight="1">
       <c r="A61" s="8" t="s">
         <v>66</v>
       </c>
@@ -2383,7 +2396,7 @@
         <v>20.1663</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.75" customHeight="1">
+    <row r="62" spans="1:9" ht="15.75" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>38</v>
       </c>
@@ -2406,7 +2419,7 @@
         <v>44382</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15.75" customHeight="1">
+    <row r="63" spans="1:9" ht="15.75" customHeight="1">
       <c r="A63" s="1" t="s">
         <v>39</v>
       </c>
@@ -2429,7 +2442,7 @@
         <v>44383</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15.75" customHeight="1">
+    <row r="64" spans="1:9" ht="15.75" customHeight="1">
       <c r="A64" s="1" t="s">
         <v>36</v>
       </c>
@@ -2451,11 +2464,11 @@
       <c r="G64" s="9">
         <v>44557</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15.75" customHeight="1">
+    <row r="65" spans="1:9" ht="15.75" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>45</v>
       </c>
@@ -2477,11 +2490,11 @@
       <c r="G65" s="9">
         <v>44560</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15.75" customHeight="1">
+    <row r="66" spans="1:9" ht="15.75" customHeight="1">
       <c r="A66" s="2" t="s">
         <v>46</v>
       </c>
@@ -2503,11 +2516,11 @@
       <c r="G66" s="9">
         <v>44560</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15.75" customHeight="1">
+    <row r="67" spans="1:9" ht="15.75" customHeight="1">
       <c r="A67" s="1" t="s">
         <v>40</v>
       </c>
@@ -2529,11 +2542,11 @@
       <c r="G67" s="9">
         <v>44381</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15.75" customHeight="1">
+    <row r="68" spans="1:9" ht="15.75" customHeight="1">
       <c r="A68" s="1" t="s">
         <v>42</v>
       </c>
@@ -2555,11 +2568,11 @@
       <c r="G68" s="9">
         <v>44382</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15.75" customHeight="1">
+    <row r="69" spans="1:9" ht="15.75" customHeight="1">
       <c r="A69" s="1" t="s">
         <v>43</v>
       </c>
@@ -2581,11 +2594,11 @@
       <c r="G69" s="9">
         <v>44383</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.75" customHeight="1">
+    <row r="70" spans="1:9" ht="15.75" customHeight="1">
       <c r="A70" s="1" t="s">
         <v>44</v>
       </c>
@@ -2607,11 +2620,11 @@
       <c r="G70" s="9">
         <v>44384</v>
       </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15.75" customHeight="1">
+    <row r="71" spans="1:9" ht="15.75" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>33</v>
       </c>
@@ -2633,17 +2646,20 @@
       <c r="G71" s="9">
         <v>44381</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.75" customHeight="1">
+    <row r="72" spans="1:9" ht="15.75" customHeight="1">
       <c r="A72" s="8" t="s">
         <v>236</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>235</v>
       </c>
+      <c r="C72" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="D72">
         <v>2023</v>
       </c>
@@ -2656,17 +2672,20 @@
       <c r="G72" s="9">
         <v>45033</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15.75" customHeight="1">
+    <row r="73" spans="1:9" ht="15.75" customHeight="1">
       <c r="A73" s="8" t="s">
         <v>239</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>235</v>
       </c>
+      <c r="C73" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="D73">
         <v>2023</v>
       </c>
@@ -2679,11 +2698,11 @@
       <c r="G73" s="9">
         <v>45037</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15.75" customHeight="1">
+    <row r="74" spans="1:9" ht="15.75" customHeight="1">
       <c r="A74" s="1" t="s">
         <v>50</v>
       </c>
@@ -2705,11 +2724,11 @@
       <c r="G74" s="9">
         <v>43435</v>
       </c>
-      <c r="H74" t="s">
+      <c r="I74" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15.75" customHeight="1">
+    <row r="75" spans="1:9" ht="15.75" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>62</v>
       </c>
@@ -2731,11 +2750,11 @@
       <c r="G75" s="9">
         <v>43469</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15.75" customHeight="1">
+    <row r="76" spans="1:9" ht="15.75" customHeight="1">
       <c r="A76" s="1" t="s">
         <v>52</v>
       </c>
@@ -2757,11 +2776,11 @@
       <c r="G76" s="9">
         <v>43530</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15.75" customHeight="1">
+    <row r="77" spans="1:9" ht="15.75" customHeight="1">
       <c r="A77" s="1" t="s">
         <v>61</v>
       </c>
@@ -2784,7 +2803,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15.75" customHeight="1">
+    <row r="78" spans="1:9" ht="15.75" customHeight="1">
       <c r="A78" s="11" t="s">
         <v>133</v>
       </c>
@@ -2806,11 +2825,11 @@
       <c r="G78" s="9">
         <v>43508</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.75" customHeight="1">
+    <row r="79" spans="1:9" ht="15.75" customHeight="1">
       <c r="A79" s="1" t="s">
         <v>63</v>
       </c>
@@ -2833,7 +2852,7 @@
         <v>43508</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15.75" customHeight="1">
+    <row r="80" spans="1:9" ht="15.75" customHeight="1">
       <c r="A80" s="1" t="s">
         <v>56</v>
       </c>
@@ -2853,7 +2872,7 @@
         <v>-5.4718400000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15.75" customHeight="1">
+    <row r="81" spans="1:9" ht="15.75" customHeight="1">
       <c r="A81" s="1" t="s">
         <v>57</v>
       </c>
@@ -2873,7 +2892,7 @@
         <v>-5.1052</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15.75" customHeight="1">
+    <row r="82" spans="1:9" ht="15.75" customHeight="1">
       <c r="A82" s="1" t="s">
         <v>58</v>
       </c>
@@ -2896,7 +2915,7 @@
         <v>43551</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15.75" customHeight="1">
+    <row r="83" spans="1:9" ht="15.75" customHeight="1">
       <c r="A83" s="1" t="s">
         <v>60</v>
       </c>
@@ -2919,7 +2938,7 @@
         <v>43552</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15.75" customHeight="1">
+    <row r="84" spans="1:9" ht="15.75" customHeight="1">
       <c r="A84" s="1" t="s">
         <v>54</v>
       </c>
@@ -2941,11 +2960,11 @@
       <c r="G84" s="9">
         <v>43542</v>
       </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15.75" customHeight="1">
+    <row r="85" spans="1:9" ht="15.75" customHeight="1">
       <c r="A85" s="8" t="s">
         <v>160</v>
       </c>
@@ -2967,11 +2986,11 @@
       <c r="G85" s="9">
         <v>44805</v>
       </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15.75" customHeight="1">
+    <row r="86" spans="1:9" ht="15.75" customHeight="1">
       <c r="A86" s="8" t="s">
         <v>242</v>
       </c>
@@ -2993,11 +3012,11 @@
       <c r="G86" s="9">
         <v>45052</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15.75" customHeight="1">
+    <row r="87" spans="1:9" ht="15.75" customHeight="1">
       <c r="A87" s="1" t="s">
         <v>109</v>
       </c>
@@ -3019,11 +3038,11 @@
       <c r="G87" s="9">
         <v>44591</v>
       </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15.75" customHeight="1">
+    <row r="88" spans="1:9" ht="15.75" customHeight="1">
       <c r="A88" t="s">
         <v>176</v>
       </c>
@@ -3045,11 +3064,11 @@
       <c r="G88" s="9">
         <v>44920</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15.75" customHeight="1">
+    <row r="89" spans="1:9" ht="15.75" customHeight="1">
       <c r="A89" s="1" t="s">
         <v>17</v>
       </c>
@@ -3072,7 +3091,7 @@
         <v>44366</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15.75" customHeight="1">
+    <row r="90" spans="1:9" ht="15.75" customHeight="1">
       <c r="A90" s="1" t="s">
         <v>27</v>
       </c>
@@ -3094,11 +3113,11 @@
       <c r="G90" s="9">
         <v>44198</v>
       </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15.75" customHeight="1">
+    <row r="91" spans="1:9" ht="15.75" customHeight="1">
       <c r="A91" s="1" t="s">
         <v>24</v>
       </c>
@@ -3120,11 +3139,14 @@
       <c r="G91" s="9">
         <v>44290</v>
       </c>
-      <c r="H91" t="s">
+      <c r="H91" s="9">
+        <v>45123</v>
+      </c>
+      <c r="I91" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15.75" customHeight="1">
+    <row r="92" spans="1:9" ht="15.75" customHeight="1">
       <c r="A92" s="1" t="s">
         <v>25</v>
       </c>
@@ -3146,11 +3168,14 @@
       <c r="G92" s="9">
         <v>44290</v>
       </c>
-      <c r="H92" t="s">
+      <c r="H92" s="9">
+        <v>45123</v>
+      </c>
+      <c r="I92" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15.75" customHeight="1">
+    <row r="93" spans="1:9" ht="15.75" customHeight="1">
       <c r="A93" s="1" t="s">
         <v>26</v>
       </c>
@@ -3172,11 +3197,14 @@
       <c r="G93" s="9">
         <v>44290</v>
       </c>
-      <c r="H93" t="s">
+      <c r="H93" s="9">
+        <v>45123</v>
+      </c>
+      <c r="I93" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15.75" customHeight="1">
+    <row r="94" spans="1:9" ht="15.75" customHeight="1">
       <c r="A94" s="1" t="s">
         <v>19</v>
       </c>
@@ -3198,11 +3226,11 @@
       <c r="G94" s="9">
         <v>44363</v>
       </c>
-      <c r="H94" t="s">
+      <c r="I94" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15.75" customHeight="1">
+    <row r="95" spans="1:9" ht="15.75" customHeight="1">
       <c r="A95" s="1" t="s">
         <v>20</v>
       </c>
@@ -3224,11 +3252,11 @@
       <c r="G95" s="9">
         <v>44363</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15.75" customHeight="1">
+    <row r="96" spans="1:9" ht="15.75" customHeight="1">
       <c r="A96" s="1" t="s">
         <v>10</v>
       </c>
@@ -3250,11 +3278,11 @@
       <c r="G96" s="9">
         <v>44290</v>
       </c>
-      <c r="H96" t="s">
+      <c r="I96" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="15.75" customHeight="1">
+    <row r="97" spans="1:9" ht="15.75" customHeight="1">
       <c r="A97" s="1" t="s">
         <v>15</v>
       </c>
@@ -3276,11 +3304,11 @@
       <c r="G97" s="9">
         <v>44329</v>
       </c>
-      <c r="H97" t="s">
+      <c r="I97" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15.75" customHeight="1">
+    <row r="98" spans="1:9" ht="15.75" customHeight="1">
       <c r="A98" s="1" t="s">
         <v>21</v>
       </c>
@@ -3302,11 +3330,11 @@
       <c r="G98" s="9">
         <v>43775</v>
       </c>
-      <c r="H98" t="s">
+      <c r="I98" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="15.75" customHeight="1">
+    <row r="99" spans="1:9" ht="15.75" customHeight="1">
       <c r="A99" s="1" t="s">
         <v>23</v>
       </c>
@@ -3329,7 +3357,7 @@
         <v>43775</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15.75" customHeight="1">
+    <row r="100" spans="1:9" ht="15.75" customHeight="1">
       <c r="A100" t="s">
         <v>195</v>
       </c>
@@ -3351,11 +3379,11 @@
       <c r="G100" s="9">
         <v>44948</v>
       </c>
-      <c r="H100" t="s">
+      <c r="I100" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="15.75" customHeight="1">
+    <row r="101" spans="1:9" ht="15.75" customHeight="1">
       <c r="A101" s="8" t="s">
         <v>118</v>
       </c>
@@ -3377,11 +3405,11 @@
       <c r="G101" s="9">
         <v>44716</v>
       </c>
-      <c r="H101" t="s">
+      <c r="I101" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="15.75" customHeight="1">
+    <row r="102" spans="1:9" ht="15.75" customHeight="1">
       <c r="A102" s="11" t="s">
         <v>128</v>
       </c>
@@ -3403,11 +3431,11 @@
       <c r="G102" s="9">
         <v>44706</v>
       </c>
-      <c r="H102" s="11" t="s">
+      <c r="I102" s="11" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="15.75" customHeight="1">
+    <row r="103" spans="1:9" ht="15.75" customHeight="1">
       <c r="A103" s="8" t="s">
         <v>117</v>
       </c>
@@ -3429,11 +3457,11 @@
       <c r="G103" s="9">
         <v>44707</v>
       </c>
-      <c r="H103" t="s">
+      <c r="I103" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="15.75" customHeight="1">
+    <row r="104" spans="1:9" ht="15.75" customHeight="1">
       <c r="A104" t="s">
         <v>119</v>
       </c>
@@ -3455,11 +3483,11 @@
       <c r="G104" s="9">
         <v>44723</v>
       </c>
-      <c r="H104" t="s">
+      <c r="I104" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="15.75" customHeight="1">
+    <row r="105" spans="1:9" ht="15.75" customHeight="1">
       <c r="A105" t="s">
         <v>183</v>
       </c>
@@ -3481,11 +3509,11 @@
       <c r="G105" s="9">
         <v>44583</v>
       </c>
-      <c r="H105" t="s">
+      <c r="I105" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="15.75" customHeight="1">
+    <row r="106" spans="1:9" ht="15.75" customHeight="1">
       <c r="A106" s="8" t="s">
         <v>126</v>
       </c>
@@ -3507,11 +3535,11 @@
       <c r="G106" s="9">
         <v>44764</v>
       </c>
-      <c r="H106" s="11" t="s">
+      <c r="I106" s="11" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="15.75" customHeight="1">
+    <row r="107" spans="1:9" ht="15.75" customHeight="1">
       <c r="A107" s="8" t="s">
         <v>129</v>
       </c>
@@ -3533,11 +3561,11 @@
       <c r="G107" s="9">
         <v>44765</v>
       </c>
-      <c r="H107" s="11" t="s">
+      <c r="I107" s="11" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="15.75" customHeight="1">
+    <row r="108" spans="1:9" ht="15.75" customHeight="1">
       <c r="A108" s="8" t="s">
         <v>121</v>
       </c>
@@ -3559,11 +3587,11 @@
       <c r="G108" s="9">
         <v>44766</v>
       </c>
-      <c r="H108" s="11" t="s">
+      <c r="I108" s="11" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="15.75" customHeight="1">
+    <row r="109" spans="1:9" ht="15.75" customHeight="1">
       <c r="A109" t="s">
         <v>180</v>
       </c>
@@ -3585,11 +3613,11 @@
       <c r="G109" s="9">
         <v>44940</v>
       </c>
-      <c r="H109" t="s">
+      <c r="I109" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="15.75" customHeight="1">
+    <row r="110" spans="1:9" ht="15.75" customHeight="1">
       <c r="A110" s="1" t="s">
         <v>16</v>
       </c>
@@ -3611,11 +3639,11 @@
       <c r="G110" s="9">
         <v>44525</v>
       </c>
-      <c r="H110" t="s">
+      <c r="I110" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="15.75" customHeight="1">
+    <row r="111" spans="1:9" ht="15.75" customHeight="1">
       <c r="A111" s="1" t="s">
         <v>12</v>
       </c>
@@ -3637,11 +3665,11 @@
       <c r="G111" s="9">
         <v>44527</v>
       </c>
-      <c r="H111" t="s">
+      <c r="I111" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="15.75" customHeight="1">
+    <row r="112" spans="1:9" ht="15.75" customHeight="1">
       <c r="A112" t="s">
         <v>123</v>
       </c>
@@ -3663,11 +3691,11 @@
       <c r="G112" s="9">
         <v>44772</v>
       </c>
-      <c r="H112" t="s">
+      <c r="I112" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="15.75" customHeight="1">
+    <row r="113" spans="1:9" ht="15.75" customHeight="1">
       <c r="A113" t="s">
         <v>150</v>
       </c>
@@ -3689,11 +3717,11 @@
       <c r="G113" s="9">
         <v>44795</v>
       </c>
-      <c r="H113" t="s">
+      <c r="I113" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="15.75" customHeight="1">
+    <row r="114" spans="1:9" ht="15.75" customHeight="1">
       <c r="A114" s="8" t="s">
         <v>247</v>
       </c>
@@ -3715,11 +3743,11 @@
       <c r="G114" s="9">
         <v>44730</v>
       </c>
-      <c r="H114" s="11" t="s">
+      <c r="I114" s="11" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="15.75" customHeight="1">
+    <row r="115" spans="1:9" ht="15.75" customHeight="1">
       <c r="A115" s="8" t="s">
         <v>206</v>
       </c>
@@ -3741,11 +3769,11 @@
       <c r="G115" s="9">
         <v>44983</v>
       </c>
-      <c r="H115" t="s">
+      <c r="I115" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15.75" customHeight="1">
+    <row r="116" spans="1:9" ht="15.75" customHeight="1">
       <c r="A116" s="8" t="s">
         <v>249</v>
       </c>
@@ -3767,11 +3795,11 @@
       <c r="G116" s="9">
         <v>45095</v>
       </c>
-      <c r="H116" s="11" t="s">
+      <c r="I116" s="11" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15.75" customHeight="1">
+    <row r="117" spans="1:9" ht="15.75" customHeight="1">
       <c r="A117" t="s">
         <v>218</v>
       </c>
@@ -3793,11 +3821,11 @@
       <c r="G117" s="9">
         <v>45004</v>
       </c>
-      <c r="H117" s="12" t="s">
+      <c r="I117" s="12" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="15.75" customHeight="1">
+    <row r="118" spans="1:9" ht="15.75" customHeight="1">
       <c r="A118" s="8" t="s">
         <v>245</v>
       </c>
@@ -3819,11 +3847,12 @@
       <c r="G118" s="13">
         <v>45066</v>
       </c>
-      <c r="H118" s="11" t="s">
+      <c r="H118" s="13"/>
+      <c r="I118" s="11" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15.75" customHeight="1">
+    <row r="119" spans="1:9" ht="15.75" customHeight="1">
       <c r="A119" s="1" t="s">
         <v>29</v>
       </c>
@@ -3845,11 +3874,11 @@
       <c r="G119" s="9">
         <v>44548</v>
       </c>
-      <c r="H119" t="s">
+      <c r="I119" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15.75" customHeight="1">
+    <row r="120" spans="1:9" ht="15.75" customHeight="1">
       <c r="A120" s="1" t="s">
         <v>31</v>
       </c>
@@ -3868,11 +3897,11 @@
       <c r="F120" s="5">
         <v>8.1598400000000009</v>
       </c>
-      <c r="H120" t="s">
+      <c r="I120" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15.75" customHeight="1">
+    <row r="121" spans="1:9" ht="15.75" customHeight="1">
       <c r="A121" s="1" t="s">
         <v>32</v>
       </c>
@@ -3891,36 +3920,39 @@
       <c r="F121" s="5">
         <v>7.6216600000000003</v>
       </c>
-      <c r="H121" t="s">
+      <c r="I121" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15.75" customHeight="1">
+    <row r="122" spans="1:9" ht="15.75" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>8</v>
+        <v>273</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C122" s="1" t="s">
+        <v>272</v>
+      </c>
       <c r="D122" s="1">
         <v>2021</v>
       </c>
       <c r="E122" s="5">
-        <v>47.366669999999999</v>
+        <v>47.292544999999997</v>
       </c>
       <c r="F122" s="5">
-        <v>8.5500000000000007</v>
+        <v>8.6105529999999995</v>
       </c>
       <c r="G122" s="9">
-        <v>44068</v>
-      </c>
-      <c r="H122" t="s">
+        <v>44099</v>
+      </c>
+      <c r="I122" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="15.75" customHeight="1">
+    <row r="123" spans="1:9" ht="15.75" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>7</v>
@@ -3929,21 +3961,18 @@
         <v>2021</v>
       </c>
       <c r="E123" s="5">
-        <v>47.50564</v>
+        <v>47.366669999999999</v>
       </c>
       <c r="F123" s="5">
-        <v>8.7241300000000006</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="G123" s="9">
-        <v>44440</v>
-      </c>
-      <c r="H123" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="15.75" customHeight="1">
+        <v>44068</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="15.75" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>7</v>
@@ -3952,15 +3981,21 @@
         <v>2021</v>
       </c>
       <c r="E124" s="5">
-        <v>47.225569999999998</v>
+        <v>47.50564</v>
       </c>
       <c r="F124" s="5">
-        <v>8.8222799999999992</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="15.75" customHeight="1">
+        <v>8.7241300000000006</v>
+      </c>
+      <c r="G124" s="9">
+        <v>44440</v>
+      </c>
+      <c r="I124" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="15.75" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>7</v>
@@ -3969,45 +4004,62 @@
         <v>2021</v>
       </c>
       <c r="E125" s="5">
+        <v>47.225569999999998</v>
+      </c>
+      <c r="F125" s="5">
+        <v>8.8222799999999992</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A126" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D126" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E126" s="5">
         <v>47.697319999999998</v>
       </c>
-      <c r="F125" s="5">
+      <c r="F126" s="5">
         <v>8.6349300000000007</v>
       </c>
-      <c r="H125" t="s">
+      <c r="I126" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A126" s="1" t="s">
+    <row r="127" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A127" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B127" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C127" t="s">
         <v>262</v>
       </c>
-      <c r="D126" s="1">
+      <c r="D127" s="1">
         <v>2023</v>
       </c>
-      <c r="E126">
+      <c r="E127">
         <v>55.693223000000003</v>
       </c>
-      <c r="F126" s="5">
+      <c r="F127" s="5">
         <v>12.590375999999999</v>
       </c>
-      <c r="G126" s="9">
+      <c r="G127" s="9">
         <v>45129</v>
       </c>
-      <c r="H126" t="s">
+      <c r="I127" t="s">
         <v>265</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H125">
-    <sortCondition ref="B2:B125"/>
-    <sortCondition ref="C2:C125"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I126">
+    <sortCondition ref="B2:B126"/>
+    <sortCondition ref="C2:C126"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Places.xlsx
+++ b/Places.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georg\Documents\Travel\Places\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50730FC2-22A3-4E5C-9A1A-73E669519D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE956486-501E-4E52-A443-841F51E755B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="284">
   <si>
     <t>Place</t>
   </si>
@@ -845,6 +845,36 @@
   </si>
   <si>
     <t>Herrliberg</t>
+  </si>
+  <si>
+    <t>Metamorfosi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekend trip in Chalkidiki with Kato and Filothei. Nice way to start my summer holidays. </t>
+  </si>
+  <si>
+    <t>Tristinika</t>
+  </si>
+  <si>
+    <t>Swim at Tristinika beach and a beer at ethnik beach bar. Day trip with Kato and Filothei.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swim at Trani amouda in Chalkidiki. Almost traditional way to start summer holidays. </t>
+  </si>
+  <si>
+    <t>Trani amouda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stavros </t>
+  </si>
+  <si>
+    <t>Kalamitsi</t>
+  </si>
+  <si>
+    <t>Kimo, Ilias, Maria, Maria, Myrto, Dimitris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End of 2nd greade of Lukeio camping experience. </t>
   </si>
 </sst>
 </file>
@@ -1166,10 +1196,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I127"/>
+  <dimension ref="A1:I132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I132" sqref="I132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4056,6 +4086,124 @@
         <v>265</v>
       </c>
     </row>
+    <row r="128" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A128" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C128" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E128">
+        <v>40.229362000000002</v>
+      </c>
+      <c r="F128" s="5">
+        <v>23.606514000000001</v>
+      </c>
+      <c r="G128" s="9">
+        <v>45143</v>
+      </c>
+      <c r="I128" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A129" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C129" t="s">
+        <v>13</v>
+      </c>
+      <c r="D129" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E129">
+        <v>39.996034999999999</v>
+      </c>
+      <c r="F129">
+        <v>23.875952000000002</v>
+      </c>
+      <c r="G129" s="9">
+        <v>45144</v>
+      </c>
+      <c r="I129" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A130" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C130" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E130">
+        <v>40.243563000000002</v>
+      </c>
+      <c r="F130">
+        <v>23.724177999999998</v>
+      </c>
+      <c r="G130" s="9">
+        <v>45143</v>
+      </c>
+      <c r="I130" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A131" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C131" t="s">
+        <v>229</v>
+      </c>
+      <c r="D131" s="1">
+        <v>2020</v>
+      </c>
+      <c r="E131">
+        <v>40.675697</v>
+      </c>
+      <c r="F131">
+        <v>23.687878999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A132" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C132" t="s">
+        <v>282</v>
+      </c>
+      <c r="E132">
+        <v>39.990836999999999</v>
+      </c>
+      <c r="F132">
+        <v>23.990808000000001</v>
+      </c>
+      <c r="I132" t="s">
+        <v>283</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I126">
     <sortCondition ref="B2:B126"/>

--- a/Places.xlsx
+++ b/Places.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georg\Documents\Travel\Places\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE956486-501E-4E52-A443-841F51E755B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB59374B-1865-4DE1-A98B-F3AC808A46F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="295">
   <si>
     <t>Place</t>
   </si>
@@ -871,10 +871,43 @@
     <t>Kalamitsi</t>
   </si>
   <si>
-    <t>Kimo, Ilias, Maria, Maria, Myrto, Dimitris</t>
-  </si>
-  <si>
     <t xml:space="preserve">End of 2nd greade of Lukeio camping experience. </t>
+  </si>
+  <si>
+    <t>Castelló</t>
+  </si>
+  <si>
+    <t>Sofia's pace.</t>
+  </si>
+  <si>
+    <t>Mykonos</t>
+  </si>
+  <si>
+    <t>Kimon, Ilias, Maria, Maria, Myrto, Dimitris</t>
+  </si>
+  <si>
+    <t>Kimon, Sabrina, Christian, Eleni, Rafaela, Andrea, Andrea, Marika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sailing in Cyclades </t>
+  </si>
+  <si>
+    <t>Rineia</t>
+  </si>
+  <si>
+    <t>Syros</t>
+  </si>
+  <si>
+    <t>Monastiri, Paros</t>
+  </si>
+  <si>
+    <t>Mama, Dad, Aglaia</t>
+  </si>
+  <si>
+    <t>Ano Kariofuto</t>
+  </si>
+  <si>
+    <t>2 day trip with mam and dad.</t>
   </si>
 </sst>
 </file>
@@ -1196,10 +1229,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I132"/>
+  <dimension ref="A1:I138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I132" sqref="I132"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I139" sqref="I139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3022,7 +3055,7 @@
     </row>
     <row r="86" spans="1:9" ht="15.75" customHeight="1">
       <c r="A86" s="8" t="s">
-        <v>242</v>
+        <v>283</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>159</v>
@@ -3034,151 +3067,148 @@
         <v>2023</v>
       </c>
       <c r="E86">
-        <v>39.475171000000003</v>
+        <v>39.984146000000003</v>
       </c>
       <c r="F86" s="5">
-        <v>-0.37599399999999999</v>
+        <v>2.205E-2</v>
       </c>
       <c r="G86" s="9">
         <v>45052</v>
       </c>
       <c r="I86" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A87" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C87" t="s">
+        <v>241</v>
+      </c>
+      <c r="D87">
+        <v>2023</v>
+      </c>
+      <c r="E87">
+        <v>39.475171000000003</v>
+      </c>
+      <c r="F87" s="5">
+        <v>-0.37599399999999999</v>
+      </c>
+      <c r="G87" s="9">
+        <v>45052</v>
+      </c>
+      <c r="I87" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A87" s="1" t="s">
+    <row r="88" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A88" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D87" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E87" s="5">
-        <v>47.636623999999998</v>
-      </c>
-      <c r="F87" s="5">
-        <v>8.7891720000000007</v>
-      </c>
-      <c r="G87" s="9">
-        <v>44591</v>
-      </c>
-      <c r="I87" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A88" t="s">
-        <v>176</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="1">
         <v>2022</v>
       </c>
-      <c r="E88">
-        <v>47.630859999999998</v>
-      </c>
-      <c r="F88">
-        <v>7.665832</v>
+      <c r="E88" s="5">
+        <v>47.636623999999998</v>
+      </c>
+      <c r="F88" s="5">
+        <v>8.7891720000000007</v>
       </c>
       <c r="G88" s="9">
-        <v>44920</v>
+        <v>44591</v>
       </c>
       <c r="I88" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A89" s="1" t="s">
-        <v>17</v>
+      <c r="A89" t="s">
+        <v>176</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D89" s="1">
-        <v>2021</v>
-      </c>
-      <c r="E89" s="5">
-        <v>46.991790000000002</v>
-      </c>
-      <c r="F89" s="5">
-        <v>6.931</v>
+      <c r="C89" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D89">
+        <v>2022</v>
+      </c>
+      <c r="E89">
+        <v>47.630859999999998</v>
+      </c>
+      <c r="F89">
+        <v>7.665832</v>
       </c>
       <c r="G89" s="9">
-        <v>44366</v>
+        <v>44920</v>
+      </c>
+      <c r="I89" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="15.75" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D90" s="1">
         <v>2021</v>
       </c>
       <c r="E90" s="5">
-        <v>46.533990000000003</v>
+        <v>46.991790000000002</v>
       </c>
       <c r="F90" s="5">
-        <v>9.8727599999999995</v>
+        <v>6.931</v>
       </c>
       <c r="G90" s="9">
-        <v>44198</v>
-      </c>
-      <c r="I90" t="s">
-        <v>145</v>
+        <v>44366</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="15.75" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>267</v>
+        <v>28</v>
       </c>
       <c r="D91" s="1">
         <v>2021</v>
       </c>
       <c r="E91" s="5">
-        <v>46.170859999999998</v>
+        <v>46.533990000000003</v>
       </c>
       <c r="F91" s="5">
-        <v>8.7995300000000007</v>
+        <v>9.8727599999999995</v>
       </c>
       <c r="G91" s="9">
-        <v>44290</v>
-      </c>
-      <c r="H91" s="9">
-        <v>45123</v>
+        <v>44198</v>
       </c>
       <c r="I91" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.75" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>7</v>
@@ -3190,10 +3220,10 @@
         <v>2021</v>
       </c>
       <c r="E92" s="5">
-        <v>46.192779999999999</v>
+        <v>46.170859999999998</v>
       </c>
       <c r="F92" s="5">
-        <v>9.0170300000000001</v>
+        <v>8.7995300000000007</v>
       </c>
       <c r="G92" s="9">
         <v>44290</v>
@@ -3207,7 +3237,7 @@
     </row>
     <row r="93" spans="1:9" ht="15.75" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>7</v>
@@ -3219,10 +3249,10 @@
         <v>2021</v>
       </c>
       <c r="E93" s="5">
-        <v>46.010080000000002</v>
+        <v>46.192779999999999</v>
       </c>
       <c r="F93" s="5">
-        <v>8.9600399999999993</v>
+        <v>9.0170300000000001</v>
       </c>
       <c r="G93" s="9">
         <v>44290</v>
@@ -3231,142 +3261,145 @@
         <v>45123</v>
       </c>
       <c r="I93" t="s">
-        <v>268</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.75" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>11</v>
+        <v>267</v>
       </c>
       <c r="D94" s="1">
         <v>2021</v>
       </c>
       <c r="E94" s="5">
-        <v>46.802370000000003</v>
+        <v>46.010080000000002</v>
       </c>
       <c r="F94" s="5">
-        <v>7.1512799999999999</v>
+        <v>8.9600399999999993</v>
       </c>
       <c r="G94" s="9">
-        <v>44363</v>
+        <v>44290</v>
+      </c>
+      <c r="H94" s="9">
+        <v>45123</v>
       </c>
       <c r="I94" t="s">
-        <v>149</v>
+        <v>268</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="15.75" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>270</v>
+        <v>11</v>
       </c>
       <c r="D95" s="1">
         <v>2021</v>
       </c>
       <c r="E95" s="5">
-        <v>46.433010000000003</v>
+        <v>46.802370000000003</v>
       </c>
       <c r="F95" s="5">
-        <v>6.9114300000000002</v>
+        <v>7.1512799999999999</v>
       </c>
       <c r="G95" s="9">
         <v>44363</v>
       </c>
       <c r="I95" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="15.75" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>11</v>
+        <v>270</v>
       </c>
       <c r="D96" s="1">
         <v>2021</v>
       </c>
       <c r="E96" s="5">
-        <v>47.172420000000002</v>
+        <v>46.433010000000003</v>
       </c>
       <c r="F96" s="5">
-        <v>8.5174500000000002</v>
+        <v>6.9114300000000002</v>
       </c>
       <c r="G96" s="9">
-        <v>44290</v>
+        <v>44363</v>
       </c>
       <c r="I96" t="s">
-        <v>253</v>
+        <v>179</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="15.75" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>269</v>
+        <v>11</v>
       </c>
       <c r="D97" s="1">
         <v>2021</v>
       </c>
       <c r="E97" s="5">
-        <v>46.948090000000001</v>
+        <v>47.172420000000002</v>
       </c>
       <c r="F97" s="5">
-        <v>7.4474400000000003</v>
+        <v>8.5174500000000002</v>
       </c>
       <c r="G97" s="9">
-        <v>44329</v>
+        <v>44290</v>
       </c>
       <c r="I97" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="15.75" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>22</v>
+        <v>269</v>
       </c>
       <c r="D98" s="1">
         <v>2021</v>
       </c>
       <c r="E98" s="5">
-        <v>46.515999999999998</v>
+        <v>46.948090000000001</v>
       </c>
       <c r="F98" s="5">
-        <v>6.6328199999999997</v>
+        <v>7.4474400000000003</v>
       </c>
       <c r="G98" s="9">
-        <v>43775</v>
+        <v>44329</v>
       </c>
       <c r="I98" t="s">
-        <v>143</v>
+        <v>254</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>7</v>
@@ -3378,140 +3411,140 @@
         <v>2021</v>
       </c>
       <c r="E99" s="5">
-        <v>46.204391000000001</v>
+        <v>46.515999999999998</v>
       </c>
       <c r="F99" s="5">
-        <v>6.1431579999999997</v>
+        <v>6.6328199999999997</v>
       </c>
       <c r="G99" s="9">
         <v>43775</v>
       </c>
+      <c r="I99" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A100" t="s">
-        <v>195</v>
+      <c r="A100" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E100" s="5">
+        <v>46.204391000000001</v>
+      </c>
+      <c r="F100" s="5">
+        <v>6.1431579999999997</v>
+      </c>
+      <c r="G100" s="9">
+        <v>43775</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A101" t="s">
+        <v>195</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="D100">
+      <c r="D101">
         <v>2023</v>
       </c>
-      <c r="E100">
+      <c r="E101">
         <v>46.734780000000001</v>
       </c>
-      <c r="F100">
+      <c r="F101">
         <v>8.5217100000000006</v>
       </c>
-      <c r="G100" s="9">
+      <c r="G101" s="9">
         <v>44948</v>
       </c>
-      <c r="I100" t="s">
+      <c r="I101" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A101" s="8" t="s">
+    <row r="102" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A102" s="8" t="s">
         <v>118</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101" t="s">
-        <v>120</v>
-      </c>
-      <c r="D101">
-        <v>2022</v>
-      </c>
-      <c r="E101">
-        <v>46.793889</v>
-      </c>
-      <c r="F101">
-        <v>8.3908330000000007</v>
-      </c>
-      <c r="G101" s="9">
-        <v>44716</v>
-      </c>
-      <c r="I101" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A102" s="11" t="s">
-        <v>128</v>
       </c>
       <c r="B102" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C102" s="11" t="s">
-        <v>127</v>
+      <c r="C102" t="s">
+        <v>120</v>
       </c>
       <c r="D102">
         <v>2022</v>
       </c>
-      <c r="E102" s="11">
-        <v>47.423560000000002</v>
-      </c>
-      <c r="F102" s="11">
-        <v>9.3774899999999999</v>
+      <c r="E102">
+        <v>46.793889</v>
+      </c>
+      <c r="F102">
+        <v>8.3908330000000007</v>
       </c>
       <c r="G102" s="9">
-        <v>44706</v>
-      </c>
-      <c r="I102" s="11" t="s">
-        <v>130</v>
+        <v>44716</v>
+      </c>
+      <c r="I102" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A103" s="8" t="s">
-        <v>117</v>
+      <c r="A103" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="11" t="s">
         <v>127</v>
       </c>
       <c r="D103">
         <v>2022</v>
       </c>
-      <c r="E103">
-        <v>47.268889000000001</v>
-      </c>
-      <c r="F103">
-        <v>9.4</v>
+      <c r="E103" s="11">
+        <v>47.423560000000002</v>
+      </c>
+      <c r="F103" s="11">
+        <v>9.3774899999999999</v>
       </c>
       <c r="G103" s="9">
-        <v>44707</v>
-      </c>
-      <c r="I103" t="s">
-        <v>141</v>
+        <v>44706</v>
+      </c>
+      <c r="I103" s="11" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A104" t="s">
-        <v>119</v>
+      <c r="A104" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="B104" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C104" s="11" t="s">
-        <v>132</v>
+      <c r="C104" t="s">
+        <v>127</v>
       </c>
       <c r="D104">
         <v>2022</v>
       </c>
       <c r="E104">
-        <v>46.498333000000002</v>
+        <v>47.268889000000001</v>
       </c>
       <c r="F104">
-        <v>7.7269439999999996</v>
+        <v>9.4</v>
       </c>
       <c r="G104" s="9">
-        <v>44723</v>
+        <v>44707</v>
       </c>
       <c r="I104" t="s">
         <v>141</v>
@@ -3519,59 +3552,59 @@
     </row>
     <row r="105" spans="1:9" ht="15.75" customHeight="1">
       <c r="A105" t="s">
+        <v>119</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D105">
+        <v>2022</v>
+      </c>
+      <c r="E105">
+        <v>46.498333000000002</v>
+      </c>
+      <c r="F105">
+        <v>7.7269439999999996</v>
+      </c>
+      <c r="G105" s="9">
+        <v>44723</v>
+      </c>
+      <c r="I105" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A106" t="s">
         <v>183</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B106" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C105" s="8" t="s">
+      <c r="C106" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="D105">
+      <c r="D106">
         <v>2023</v>
       </c>
-      <c r="E105">
+      <c r="E106">
         <v>46.635497458000003</v>
       </c>
-      <c r="F105">
+      <c r="F106">
         <v>8.5894976419999995</v>
       </c>
-      <c r="G105" s="9">
+      <c r="G106" s="9">
         <v>44583</v>
       </c>
-      <c r="I105" t="s">
+      <c r="I106" t="s">
         <v>185</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A106" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D106">
-        <v>2022</v>
-      </c>
-      <c r="E106" s="11">
-        <v>46.599991000000003</v>
-      </c>
-      <c r="F106" s="11">
-        <v>7.908887</v>
-      </c>
-      <c r="G106" s="9">
-        <v>44764</v>
-      </c>
-      <c r="I106" s="11" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="15.75" customHeight="1">
       <c r="A107" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B107" s="8" t="s">
         <v>7</v>
@@ -3583,334 +3616,334 @@
         <v>2022</v>
       </c>
       <c r="E107" s="11">
-        <v>46.316136</v>
+        <v>46.599991000000003</v>
       </c>
       <c r="F107" s="11">
-        <v>7.9872899999999998</v>
+        <v>7.908887</v>
       </c>
       <c r="G107" s="9">
-        <v>44765</v>
+        <v>44764</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>210</v>
+        <v>131</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="15.75" customHeight="1">
       <c r="A108" s="8" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B108" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="11" t="s">
         <v>122</v>
       </c>
       <c r="D108">
         <v>2022</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="11">
+        <v>46.316136</v>
+      </c>
+      <c r="F108" s="11">
+        <v>7.9872899999999998</v>
+      </c>
+      <c r="G108" s="9">
+        <v>44765</v>
+      </c>
+      <c r="I108" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A109" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" t="s">
+        <v>122</v>
+      </c>
+      <c r="D109">
+        <v>2022</v>
+      </c>
+      <c r="E109">
         <v>46.023603999999999</v>
       </c>
-      <c r="F108">
+      <c r="F109">
         <v>7.7486069999999998</v>
       </c>
-      <c r="G108" s="9">
+      <c r="G109" s="9">
         <v>44766</v>
       </c>
-      <c r="I108" s="11" t="s">
+      <c r="I109" s="11" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A109" t="s">
+    <row r="110" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A110" t="s">
         <v>180</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D109">
-        <v>2023</v>
-      </c>
-      <c r="E109">
-        <v>46.938800999999998</v>
-      </c>
-      <c r="F109">
-        <v>8.4761690000000005</v>
-      </c>
-      <c r="G109" s="9">
-        <v>44940</v>
-      </c>
-      <c r="I109" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A110" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D110" s="1">
-        <v>2021</v>
-      </c>
-      <c r="E110" s="5">
-        <v>47.558390000000003</v>
-      </c>
-      <c r="F110" s="5">
-        <v>7.5732699999999999</v>
+      <c r="C110" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D110">
+        <v>2023</v>
+      </c>
+      <c r="E110">
+        <v>46.938800999999998</v>
+      </c>
+      <c r="F110">
+        <v>8.4761690000000005</v>
       </c>
       <c r="G110" s="9">
-        <v>44525</v>
+        <v>44940</v>
       </c>
       <c r="I110" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="15.75" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>198</v>
+        <v>266</v>
       </c>
       <c r="D111" s="1">
         <v>2021</v>
       </c>
       <c r="E111" s="5">
+        <v>47.558390000000003</v>
+      </c>
+      <c r="F111" s="5">
+        <v>7.5732699999999999</v>
+      </c>
+      <c r="G111" s="9">
+        <v>44525</v>
+      </c>
+      <c r="I111" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A112" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D112" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E112" s="5">
         <v>47.0505</v>
       </c>
-      <c r="F111" s="5">
+      <c r="F112" s="5">
         <v>8.3064</v>
       </c>
-      <c r="G111" s="9">
+      <c r="G112" s="9">
         <v>44527</v>
       </c>
-      <c r="I111" t="s">
+      <c r="I112" t="s">
         <v>199</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A112" t="s">
-        <v>123</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C112" t="s">
-        <v>221</v>
-      </c>
-      <c r="D112">
-        <v>2022</v>
-      </c>
-      <c r="E112">
-        <v>46.616110999999997</v>
-      </c>
-      <c r="F112">
-        <v>8.3322219999999998</v>
-      </c>
-      <c r="G112" s="9">
-        <v>44772</v>
-      </c>
-      <c r="I112" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="15.75" customHeight="1">
       <c r="A113" t="s">
-        <v>150</v>
-      </c>
-      <c r="B113" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B113" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C113" s="8" t="s">
-        <v>222</v>
+      <c r="C113" t="s">
+        <v>221</v>
       </c>
       <c r="D113">
         <v>2022</v>
       </c>
       <c r="E113">
-        <v>46.25</v>
+        <v>46.616110999999997</v>
       </c>
       <c r="F113">
-        <v>8.8333329999999997</v>
+        <v>8.3322219999999998</v>
       </c>
       <c r="G113" s="9">
-        <v>44795</v>
+        <v>44772</v>
       </c>
       <c r="I113" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A114" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="B114" s="8" t="s">
+      <c r="A114" t="s">
+        <v>150</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C114" s="11" t="s">
-        <v>261</v>
+      <c r="C114" s="8" t="s">
+        <v>222</v>
       </c>
       <c r="D114">
         <v>2022</v>
       </c>
       <c r="E114">
-        <v>46.821510000000004</v>
-      </c>
-      <c r="F114" s="7">
-        <v>7.5713210000000002</v>
+        <v>46.25</v>
+      </c>
+      <c r="F114">
+        <v>8.8333329999999997</v>
       </c>
       <c r="G114" s="9">
-        <v>44730</v>
-      </c>
-      <c r="I114" s="11" t="s">
-        <v>260</v>
+        <v>44795</v>
+      </c>
+      <c r="I114" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="15.75" customHeight="1">
       <c r="A115" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B115" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B115" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C115" t="s">
-        <v>207</v>
+      <c r="C115" s="11" t="s">
+        <v>261</v>
       </c>
       <c r="D115">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E115">
-        <v>47.484813000000003</v>
-      </c>
-      <c r="F115">
-        <v>7.7341870000000004</v>
+        <v>46.821510000000004</v>
+      </c>
+      <c r="F115" s="7">
+        <v>7.5713210000000002</v>
       </c>
       <c r="G115" s="9">
-        <v>44983</v>
-      </c>
-      <c r="I115" t="s">
-        <v>208</v>
+        <v>44730</v>
+      </c>
+      <c r="I115" s="11" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="15.75" customHeight="1">
       <c r="A116" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="B116" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C116" s="11" t="s">
-        <v>248</v>
+      <c r="C116" t="s">
+        <v>207</v>
       </c>
       <c r="D116">
         <v>2023</v>
       </c>
       <c r="E116">
-        <v>47.253703999999999</v>
-      </c>
-      <c r="F116" s="7">
-        <v>9.4245389999999993</v>
+        <v>47.484813000000003</v>
+      </c>
+      <c r="F116">
+        <v>7.7341870000000004</v>
       </c>
       <c r="G116" s="9">
-        <v>45095</v>
-      </c>
-      <c r="I116" s="11" t="s">
-        <v>250</v>
+        <v>44983</v>
+      </c>
+      <c r="I116" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A117" t="s">
-        <v>218</v>
-      </c>
-      <c r="B117" s="1" t="s">
+      <c r="A117" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B117" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C117" t="s">
-        <v>217</v>
+      <c r="C117" s="11" t="s">
+        <v>248</v>
       </c>
       <c r="D117">
         <v>2023</v>
       </c>
       <c r="E117">
-        <v>46.583629000000002</v>
-      </c>
-      <c r="F117" s="5">
-        <v>7.0815279999999996</v>
+        <v>47.253703999999999</v>
+      </c>
+      <c r="F117" s="7">
+        <v>9.4245389999999993</v>
       </c>
       <c r="G117" s="9">
-        <v>45004</v>
-      </c>
-      <c r="I117" s="12" t="s">
-        <v>216</v>
+        <v>45095</v>
+      </c>
+      <c r="I117" s="11" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A118" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="B118" s="8" t="s">
+      <c r="A118" t="s">
+        <v>218</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C118" s="11" t="s">
-        <v>244</v>
+      <c r="C118" t="s">
+        <v>217</v>
       </c>
       <c r="D118">
         <v>2023</v>
       </c>
       <c r="E118">
+        <v>46.583629000000002</v>
+      </c>
+      <c r="F118" s="5">
+        <v>7.0815279999999996</v>
+      </c>
+      <c r="G118" s="9">
+        <v>45004</v>
+      </c>
+      <c r="I118" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A119" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D119">
+        <v>2023</v>
+      </c>
+      <c r="E119">
         <v>47.055830999999998</v>
       </c>
-      <c r="F118" s="7">
+      <c r="F119" s="7">
         <v>8.4851500000000009</v>
       </c>
-      <c r="G118" s="13">
+      <c r="G119" s="13">
         <v>45066</v>
       </c>
-      <c r="H118" s="13"/>
-      <c r="I118" s="11" t="s">
+      <c r="H119" s="13"/>
+      <c r="I119" s="11" t="s">
         <v>246</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A119" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D119" s="1">
-        <v>2021</v>
-      </c>
-      <c r="E119" s="5">
-        <v>46.683869999999999</v>
-      </c>
-      <c r="F119" s="5">
-        <v>7.8663800000000004</v>
-      </c>
-      <c r="G119" s="9">
-        <v>44548</v>
-      </c>
-      <c r="I119" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="15.75" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>7</v>
@@ -3922,18 +3955,21 @@
         <v>2021</v>
       </c>
       <c r="E120" s="5">
-        <v>46.785780000000003</v>
+        <v>46.683869999999999</v>
       </c>
       <c r="F120" s="5">
-        <v>8.1598400000000009</v>
+        <v>7.8663800000000004</v>
+      </c>
+      <c r="G120" s="9">
+        <v>44548</v>
       </c>
       <c r="I120" t="s">
-        <v>213</v>
+        <v>146</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="15.75" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>7</v>
@@ -3945,64 +3981,67 @@
         <v>2021</v>
       </c>
       <c r="E121" s="5">
-        <v>46.751179999999998</v>
+        <v>46.785780000000003</v>
       </c>
       <c r="F121" s="5">
-        <v>7.6216600000000003</v>
+        <v>8.1598400000000009</v>
       </c>
       <c r="I121" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="15.75" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>273</v>
+        <v>32</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>272</v>
+        <v>30</v>
       </c>
       <c r="D122" s="1">
         <v>2021</v>
       </c>
       <c r="E122" s="5">
-        <v>47.292544999999997</v>
+        <v>46.751179999999998</v>
       </c>
       <c r="F122" s="5">
-        <v>8.6105529999999995</v>
-      </c>
-      <c r="G122" s="9">
-        <v>44099</v>
+        <v>7.6216600000000003</v>
       </c>
       <c r="I122" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="15.75" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>8</v>
+        <v>273</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C123" s="1" t="s">
+        <v>272</v>
+      </c>
       <c r="D123" s="1">
         <v>2021</v>
       </c>
       <c r="E123" s="5">
-        <v>47.366669999999999</v>
+        <v>47.292544999999997</v>
       </c>
       <c r="F123" s="5">
-        <v>8.5500000000000007</v>
+        <v>8.6105529999999995</v>
       </c>
       <c r="G123" s="9">
-        <v>44068</v>
+        <v>44099</v>
+      </c>
+      <c r="I123" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="15.75" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>7</v>
@@ -4011,21 +4050,18 @@
         <v>2021</v>
       </c>
       <c r="E124" s="5">
-        <v>47.50564</v>
+        <v>47.366669999999999</v>
       </c>
       <c r="F124" s="5">
-        <v>8.7241300000000006</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="G124" s="9">
-        <v>44440</v>
-      </c>
-      <c r="I124" t="s">
-        <v>201</v>
+        <v>44068</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="15.75" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>7</v>
@@ -4034,15 +4070,21 @@
         <v>2021</v>
       </c>
       <c r="E125" s="5">
-        <v>47.225569999999998</v>
+        <v>47.50564</v>
       </c>
       <c r="F125" s="5">
-        <v>8.8222799999999992</v>
+        <v>8.7241300000000006</v>
+      </c>
+      <c r="G125" s="9">
+        <v>44440</v>
+      </c>
+      <c r="I125" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="15.75" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>7</v>
@@ -4051,70 +4093,61 @@
         <v>2021</v>
       </c>
       <c r="E126" s="5">
-        <v>47.697319999999998</v>
+        <v>47.225569999999998</v>
       </c>
       <c r="F126" s="5">
-        <v>8.6349300000000007</v>
-      </c>
-      <c r="I126" t="s">
-        <v>211</v>
+        <v>8.8222799999999992</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="15.75" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>264</v>
+        <v>14</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C127" t="s">
-        <v>262</v>
+        <v>7</v>
       </c>
       <c r="D127" s="1">
-        <v>2023</v>
-      </c>
-      <c r="E127">
-        <v>55.693223000000003</v>
+        <v>2021</v>
+      </c>
+      <c r="E127" s="5">
+        <v>47.697319999999998</v>
       </c>
       <c r="F127" s="5">
-        <v>12.590375999999999</v>
-      </c>
-      <c r="G127" s="9">
-        <v>45129</v>
+        <v>8.6349300000000007</v>
       </c>
       <c r="I127" t="s">
-        <v>265</v>
+        <v>211</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="15.75" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="C128" t="s">
-        <v>13</v>
+        <v>262</v>
       </c>
       <c r="D128" s="1">
         <v>2023</v>
       </c>
       <c r="E128">
-        <v>40.229362000000002</v>
+        <v>55.693223000000003</v>
       </c>
       <c r="F128" s="5">
-        <v>23.606514000000001</v>
+        <v>12.590375999999999</v>
       </c>
       <c r="G128" s="9">
-        <v>45143</v>
+        <v>45129</v>
       </c>
       <c r="I128" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="15.75" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>79</v>
@@ -4126,21 +4159,21 @@
         <v>2023</v>
       </c>
       <c r="E129">
-        <v>39.996034999999999</v>
-      </c>
-      <c r="F129">
-        <v>23.875952000000002</v>
+        <v>40.229362000000002</v>
+      </c>
+      <c r="F129" s="5">
+        <v>23.606514000000001</v>
       </c>
       <c r="G129" s="9">
-        <v>45144</v>
+        <v>45143</v>
       </c>
       <c r="I129" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="15.75" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>79</v>
@@ -4152,62 +4185,209 @@
         <v>2023</v>
       </c>
       <c r="E130">
-        <v>40.243563000000002</v>
+        <v>39.996034999999999</v>
       </c>
       <c r="F130">
-        <v>23.724177999999998</v>
+        <v>23.875952000000002</v>
       </c>
       <c r="G130" s="9">
-        <v>45143</v>
+        <v>45144</v>
       </c>
       <c r="I130" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="15.75" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C131" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="D131" s="1">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="E131">
-        <v>40.675697</v>
+        <v>40.243563000000002</v>
       </c>
       <c r="F131">
-        <v>23.687878999999999</v>
+        <v>23.724177999999998</v>
+      </c>
+      <c r="G131" s="9">
+        <v>45143</v>
+      </c>
+      <c r="I131" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="15.75" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C132" t="s">
+        <v>229</v>
+      </c>
+      <c r="D132" s="1">
+        <v>2020</v>
+      </c>
+      <c r="E132">
+        <v>40.675697</v>
+      </c>
+      <c r="F132">
+        <v>23.687878999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A133" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C133" t="s">
+        <v>286</v>
+      </c>
+      <c r="E133">
+        <v>39.990836999999999</v>
+      </c>
+      <c r="F133">
+        <v>23.990808000000001</v>
+      </c>
+      <c r="I133" t="s">
         <v>282</v>
       </c>
-      <c r="E132">
-        <v>39.990836999999999</v>
-      </c>
-      <c r="F132">
-        <v>23.990808000000001</v>
-      </c>
-      <c r="I132" t="s">
-        <v>283</v>
+    </row>
+    <row r="134" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A134" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C134" t="s">
+        <v>287</v>
+      </c>
+      <c r="D134" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E134">
+        <v>37.447319</v>
+      </c>
+      <c r="F134">
+        <v>25.331893000000001</v>
+      </c>
+      <c r="G134" s="9">
+        <v>45153</v>
+      </c>
+      <c r="I134" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A135" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C135" t="s">
+        <v>287</v>
+      </c>
+      <c r="D135" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E135">
+        <v>37.403429000000003</v>
+      </c>
+      <c r="F135">
+        <v>25.225902000000001</v>
+      </c>
+      <c r="G135" s="9">
+        <v>45154</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A136" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C136" t="s">
+        <v>287</v>
+      </c>
+      <c r="D136" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E136">
+        <v>37.442714000000002</v>
+      </c>
+      <c r="F136">
+        <v>24.944464</v>
+      </c>
+      <c r="G136" s="9">
+        <v>45155</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A137" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C137" t="s">
+        <v>287</v>
+      </c>
+      <c r="D137" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E137">
+        <v>37.146124</v>
+      </c>
+      <c r="F137">
+        <v>25.225349999999999</v>
+      </c>
+      <c r="G137" s="9">
+        <v>45156</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A138" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="D138" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E138">
+        <v>41.260348999999998</v>
+      </c>
+      <c r="F138">
+        <v>24.661873</v>
+      </c>
+      <c r="G138" s="9">
+        <v>45161</v>
+      </c>
+      <c r="I138" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I126">
-    <sortCondition ref="B2:B126"/>
-    <sortCondition ref="C2:C126"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I127">
+    <sortCondition ref="B2:B127"/>
+    <sortCondition ref="C2:C127"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Places.xlsx
+++ b/Places.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georg\Documents\Travel\Places\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB59374B-1865-4DE1-A98B-F3AC808A46F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C1B12E-BB9B-4D9F-BBCF-49DEDDD3E79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="298">
   <si>
     <t>Place</t>
   </si>
@@ -908,6 +908,15 @@
   </si>
   <si>
     <t>2 day trip with mam and dad.</t>
+  </si>
+  <si>
+    <t>Sofia, Nina, Tamas, Solene, Valentina</t>
+  </si>
+  <si>
+    <t>Bachalpsee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The first hike of the 2023 winter season. Around the time that the whole Sofia - Alex initiative starts to sink. </t>
   </si>
 </sst>
 </file>
@@ -1229,7 +1238,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I138"/>
+  <dimension ref="A1:I139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I139" sqref="I139"/>
@@ -4384,6 +4393,32 @@
         <v>294</v>
       </c>
     </row>
+    <row r="139" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A139" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="D139" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E139">
+        <v>46.668177</v>
+      </c>
+      <c r="F139">
+        <v>8.0234740000000002</v>
+      </c>
+      <c r="G139" s="9">
+        <v>45172</v>
+      </c>
+      <c r="I139" t="s">
+        <v>297</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I127">
     <sortCondition ref="B2:B127"/>

--- a/Places.xlsx
+++ b/Places.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georg\Documents\Travel\Places\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C1B12E-BB9B-4D9F-BBCF-49DEDDD3E79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C2F7C2-2CEE-4BAB-892F-0B307F39A4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="303">
   <si>
     <t>Place</t>
   </si>
@@ -917,6 +917,21 @@
   </si>
   <si>
     <t xml:space="preserve">The first hike of the 2023 winter season. Around the time that the whole Sofia - Alex initiative starts to sink. </t>
+  </si>
+  <si>
+    <t>Antibes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia, Nina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First day of our two day trip in Nice area. Today we stayed in Antibes area biking and swimming in hidden beaches, lunching by the sea and dinning with live music, fine cheese and great beer. Yet another stress free way to finish a stressfull week. As increadible the place was, the company was finally the thing that made the trip unforgetable. </t>
+  </si>
+  <si>
+    <t>Eze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second day of our two day trip in Nice area. Probably the best photoshooting we have ever done while walking in the gardens of Eze. Last swim in the sea for this summer probably. </t>
   </si>
 </sst>
 </file>
@@ -1238,10 +1253,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I139"/>
+  <dimension ref="A1:I141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I139" sqref="I139"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I142" sqref="I142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4419,6 +4434,58 @@
         <v>297</v>
       </c>
     </row>
+    <row r="140" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A140" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="D140" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E140">
+        <v>43.576137000000003</v>
+      </c>
+      <c r="F140">
+        <v>7.1053680000000004</v>
+      </c>
+      <c r="G140" s="9">
+        <v>45177</v>
+      </c>
+      <c r="I140" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A141" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="D141" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E141">
+        <v>43.728296</v>
+      </c>
+      <c r="F141">
+        <v>7.3617720000000002</v>
+      </c>
+      <c r="G141" s="9">
+        <v>45178</v>
+      </c>
+      <c r="I141" t="s">
+        <v>302</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I127">
     <sortCondition ref="B2:B127"/>

--- a/Places.xlsx
+++ b/Places.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georg\Documents\Travel\Places\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C2F7C2-2CEE-4BAB-892F-0B307F39A4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EABE078-75C0-4648-81B6-79536F5475EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="307">
   <si>
     <t>Place</t>
   </si>
@@ -932,6 +932,18 @@
   </si>
   <si>
     <t xml:space="preserve">Second day of our two day trip in Nice area. Probably the best photoshooting we have ever done while walking in the gardens of Eze. Last swim in the sea for this summer probably. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stoos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia, Noellia, Myriam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hike trip the weekend of the Birthday of Sofia. After a nice partying Friday with her friends and a hangovering Saturday. Probably the last summerish weekend of 2023. The birthday was supposed to happen in Baragraph but things did not go as expected during summer. Stoos is so far the most crowded mountain we have ever hiked. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second to last day of sailing in Cyclades. That day we made an extremely high bill in the beach bar in Paros. We were trying to figure out how to go to Naousa all together with two taxis but at the end we were not able to make it. At night, the captain said me to pay him in cash and I had ot take a taxi around 11pm to go to Naousa and get money to pay the captain. </t>
   </si>
 </sst>
 </file>
@@ -1253,10 +1265,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I141"/>
+  <dimension ref="A1:I142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I142" sqref="I142"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I138" sqref="I138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4381,6 +4393,9 @@
       <c r="G137" s="9">
         <v>45156</v>
       </c>
+      <c r="I137" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="138" spans="1:9" ht="15.75" customHeight="1">
       <c r="A138" s="8" t="s">
@@ -4484,6 +4499,32 @@
       </c>
       <c r="I141" t="s">
         <v>302</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A142" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="D142" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E142">
+        <v>46.971915000000003</v>
+      </c>
+      <c r="F142">
+        <v>8.67347</v>
+      </c>
+      <c r="G142" s="9">
+        <v>45186</v>
+      </c>
+      <c r="I142" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/Places.xlsx
+++ b/Places.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georg\Documents\Travel\Places\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EABE078-75C0-4648-81B6-79536F5475EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF844EC-F220-4715-BB83-C74ACAE43E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="313">
   <si>
     <t>Place</t>
   </si>
@@ -823,9 +823,6 @@
     <t xml:space="preserve">I self invited myself and Sofia to Gemma's place in Cph. We went there from Thursday night until Monday morning. Relatively chill weekend compared to the previous ones. The weather was quite winterish given that it was middle of summer. Also visited the christiantown which is technically another "nation". At that point I am very happy with my relationship with Sofia. Feelings are mutual. Probably the first time I was obviously angry in front of Sofia and Gemma because Yasmin, a friend of Sofia, through some very direct questions, brings me back feelings similar to those from when I was living with Ilias. Both of them handled it expectedly good. Last day, Sunday, we also visited Jægersborg Dyrehave which is a natural park with deers just outside Cph. Notes from the weekend: seen movie "About time" which was suggested to my by Sofia. Discussions about when would we go if we could travel in time and what we would do. Sofia would go somewhere back and do a wild party with costumes. Gemma and I did not know yet. Probably in the future. </t>
   </si>
   <si>
-    <t>Kato, Sofia, Gemma, Sabrina, Jule, Nina, Daniel</t>
-  </si>
-  <si>
     <t>Daniel, Sofia, Nina, Tamas</t>
   </si>
   <si>
@@ -944,6 +941,27 @@
   </si>
   <si>
     <t xml:space="preserve">Second to last day of sailing in Cyclades. That day we made an extremely high bill in the beach bar in Paros. We were trying to figure out how to go to Naousa all together with two taxis but at the end we were not able to make it. At night, the captain said me to pay him in cash and I had ot take a taxi around 11pm to go to Naousa and get money to pay the captain. </t>
+  </si>
+  <si>
+    <t>Sofia, Nina, Gemma, Joelle, Steffi, Tamas, Kristina</t>
+  </si>
+  <si>
+    <t>Dézaley</t>
+  </si>
+  <si>
+    <t>Danai, Despoina, Petros, Kimon</t>
+  </si>
+  <si>
+    <t>Kimon, Danai, Despoina, Kato</t>
+  </si>
+  <si>
+    <t>Kato, Sofia, Gemma, Sabrina, Jule, Nina, Daniel, Kimon, Kato, Danai, George, Alexandra, Nikoleta</t>
+  </si>
+  <si>
+    <t>Kato, Kimon, Daniel, Anastasia, Maria, Nikoleta, Danai, George, Alexandra, Gemma, Sabri, Christian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gemma visited for a weekend and we wend for a wanna be hike in the French part of Switzerland. After 30 mins of walking in a flat path, we stoped for a couple of glasses of Wine. The drive back and forth with Sofia, Tamas, Steffi and Joelle was amazingly fun. We were pretending to be a family. A nice reunion approximately half a year after Gemma finished her intership and left fot Denmark. </t>
   </si>
 </sst>
 </file>
@@ -1265,10 +1283,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I142"/>
+  <dimension ref="A1:I143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I138" sqref="I138"/>
+    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I143" sqref="I143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1304,7 +1322,7 @@
         <v>124</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>125</v>
@@ -1710,6 +1728,9 @@
       <c r="B20" s="8" t="s">
         <v>79</v>
       </c>
+      <c r="C20" t="s">
+        <v>309</v>
+      </c>
       <c r="E20" s="7">
         <v>40.626631000000003</v>
       </c>
@@ -1738,6 +1759,9 @@
       <c r="B22" s="8" t="s">
         <v>79</v>
       </c>
+      <c r="C22" t="s">
+        <v>308</v>
+      </c>
       <c r="E22" s="7">
         <v>39.669618999999997</v>
       </c>
@@ -3091,7 +3115,7 @@
     </row>
     <row r="86" spans="1:9" ht="15.75" customHeight="1">
       <c r="A86" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>159</v>
@@ -3112,7 +3136,7 @@
         <v>45052</v>
       </c>
       <c r="I86" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15.75" customHeight="1">
@@ -3250,7 +3274,7 @@
         <v>7</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D92" s="1">
         <v>2021</v>
@@ -3279,7 +3303,7 @@
         <v>7</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D93" s="1">
         <v>2021</v>
@@ -3308,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D94" s="1">
         <v>2021</v>
@@ -3326,7 +3350,7 @@
         <v>45123</v>
       </c>
       <c r="I94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="15.75" customHeight="1">
@@ -3363,7 +3387,7 @@
         <v>7</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D96" s="1">
         <v>2021</v>
@@ -3415,7 +3439,7 @@
         <v>7</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D98" s="1">
         <v>2021</v>
@@ -3750,7 +3774,7 @@
         <v>7</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="D111" s="1">
         <v>2021</v>
@@ -4051,13 +4075,13 @@
     </row>
     <row r="123" spans="1:9" ht="15.75" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D123" s="1">
         <v>2021</v>
@@ -4082,6 +4106,9 @@
       <c r="B124" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C124" s="1" t="s">
+        <v>311</v>
+      </c>
       <c r="D124" s="1">
         <v>2021</v>
       </c>
@@ -4183,7 +4210,7 @@
     </row>
     <row r="129" spans="1:9" ht="15.75" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>79</v>
@@ -4204,12 +4231,12 @@
         <v>45143</v>
       </c>
       <c r="I129" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="15.75" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>79</v>
@@ -4230,12 +4257,12 @@
         <v>45144</v>
       </c>
       <c r="I130" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="15.75" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>79</v>
@@ -4256,12 +4283,12 @@
         <v>45143</v>
       </c>
       <c r="I131" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="15.75" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>79</v>
@@ -4281,13 +4308,13 @@
     </row>
     <row r="133" spans="1:9" ht="15.75" customHeight="1">
       <c r="A133" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C133" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E133">
         <v>39.990836999999999</v>
@@ -4296,18 +4323,18 @@
         <v>23.990808000000001</v>
       </c>
       <c r="I133" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="15.75" customHeight="1">
       <c r="A134" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C134" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D134" s="1">
         <v>2023</v>
@@ -4322,18 +4349,18 @@
         <v>45153</v>
       </c>
       <c r="I134" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="15.75" customHeight="1">
       <c r="A135" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C135" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D135" s="1">
         <v>2023</v>
@@ -4350,13 +4377,13 @@
     </row>
     <row r="136" spans="1:9" ht="15.75" customHeight="1">
       <c r="A136" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C136" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D136" s="1">
         <v>2023</v>
@@ -4373,13 +4400,13 @@
     </row>
     <row r="137" spans="1:9" ht="15.75" customHeight="1">
       <c r="A137" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C137" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D137" s="1">
         <v>2023</v>
@@ -4394,18 +4421,18 @@
         <v>45156</v>
       </c>
       <c r="I137" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="15.75" customHeight="1">
       <c r="A138" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D138" s="1">
         <v>2023</v>
@@ -4420,18 +4447,18 @@
         <v>45161</v>
       </c>
       <c r="I138" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="15.75" customHeight="1">
       <c r="A139" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D139" s="1">
         <v>2023</v>
@@ -4446,18 +4473,18 @@
         <v>45172</v>
       </c>
       <c r="I139" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="15.75" customHeight="1">
       <c r="A140" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D140" s="1">
         <v>2023</v>
@@ -4472,18 +4499,18 @@
         <v>45177</v>
       </c>
       <c r="I140" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="15.75" customHeight="1">
       <c r="A141" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D141" s="1">
         <v>2023</v>
@@ -4498,18 +4525,18 @@
         <v>45178</v>
       </c>
       <c r="I141" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="15.75" customHeight="1">
       <c r="A142" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D142" s="1">
         <v>2023</v>
@@ -4524,7 +4551,33 @@
         <v>45186</v>
       </c>
       <c r="I142" t="s">
-        <v>305</v>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A143" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="D143" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E143">
+        <v>46.488424000000002</v>
+      </c>
+      <c r="F143">
+        <v>6.7528680000000003</v>
+      </c>
+      <c r="G143" s="9">
+        <v>45192</v>
+      </c>
+      <c r="I143" t="s">
+        <v>312</v>
       </c>
     </row>
   </sheetData>

--- a/Places.xlsx
+++ b/Places.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georg\Documents\Travel\Places\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF844EC-F220-4715-BB83-C74ACAE43E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64318E7-ED3B-4A86-BF38-8B8FE530A17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="316">
   <si>
     <t>Place</t>
   </si>
@@ -962,6 +962,15 @@
   </si>
   <si>
     <t xml:space="preserve">Gemma visited for a weekend and we wend for a wanna be hike in the French part of Switzerland. After 30 mins of walking in a flat path, we stoped for a couple of glasses of Wine. The drive back and forth with Sofia, Tamas, Steffi and Joelle was amazingly fun. We were pretending to be a family. A nice reunion approximately half a year after Gemma finished her intership and left fot Denmark. </t>
+  </si>
+  <si>
+    <t>Nina</t>
+  </si>
+  <si>
+    <t>Santis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somehow the most intense hiking I have ever done so far was also the most relaxing one. Memories of the day were naked guy swimming in Seealpsee, lady in the train speaking like she swallowed a ballon of helioum and wearing two pairs of soaks is not yet accepted from our society yet. </t>
   </si>
 </sst>
 </file>
@@ -1283,10 +1292,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I143"/>
+  <dimension ref="A1:I144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I143" sqref="I143"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I145" sqref="I145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4580,6 +4589,32 @@
         <v>312</v>
       </c>
     </row>
+    <row r="144" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A144" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="D144" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E144">
+        <v>47.249125999999997</v>
+      </c>
+      <c r="F144">
+        <v>9.3436690000000002</v>
+      </c>
+      <c r="G144" s="9">
+        <v>45207</v>
+      </c>
+      <c r="I144" t="s">
+        <v>315</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I127">
     <sortCondition ref="B2:B127"/>

--- a/Places.xlsx
+++ b/Places.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georg\Documents\Travel\Places\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64318E7-ED3B-4A86-BF38-8B8FE530A17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311E9794-177D-4217-8174-D04AC17C19D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="319">
   <si>
     <t>Place</t>
   </si>
@@ -971,6 +971,15 @@
   </si>
   <si>
     <t xml:space="preserve">Somehow the most intense hiking I have ever done so far was also the most relaxing one. Memories of the day were naked guy swimming in Seealpsee, lady in the train speaking like she swallowed a ballon of helioum and wearing two pairs of soaks is not yet accepted from our society yet. </t>
+  </si>
+  <si>
+    <t>Jaun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nina, Valentina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day hike with Nina and Valentina. First time around Fribourg. Quite intense once again. Great lunch in traditional tavern. Probably the last hike of the year. Weird questions of the day: what is your favorite advertisment? How does the perfect Saturday look like? which songs are connected with intense memories. Weird fact my brain chooses to remember. It was the second time Nina was wearing her favorite hiking pants. </t>
   </si>
 </sst>
 </file>
@@ -1292,10 +1301,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I144"/>
+  <dimension ref="A1:I145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A135" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I145" sqref="I145"/>
+      <selection activeCell="I146" sqref="I146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4615,6 +4624,32 @@
         <v>315</v>
       </c>
     </row>
+    <row r="145" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A145" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="D145" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E145">
+        <v>46.575812999999997</v>
+      </c>
+      <c r="F145">
+        <v>7.2527039999999996</v>
+      </c>
+      <c r="G145" s="9">
+        <v>45214</v>
+      </c>
+      <c r="I145" t="s">
+        <v>318</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I127">
     <sortCondition ref="B2:B127"/>

--- a/Places.xlsx
+++ b/Places.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georg\Documents\Travel\Places\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311E9794-177D-4217-8174-D04AC17C19D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E9F51A-E389-4567-A455-5C4650BC7C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="325">
   <si>
     <t>Place</t>
   </si>
@@ -980,6 +980,24 @@
   </si>
   <si>
     <t xml:space="preserve">Day hike with Nina and Valentina. First time around Fribourg. Quite intense once again. Great lunch in traditional tavern. Probably the last hike of the year. Weird questions of the day: what is your favorite advertisment? How does the perfect Saturday look like? which songs are connected with intense memories. Weird fact my brain chooses to remember. It was the second time Nina was wearing her favorite hiking pants. </t>
+  </si>
+  <si>
+    <t>Utrecht    </t>
+  </si>
+  <si>
+    <t>Sabrina, Kimon, Francois, Petros</t>
+  </si>
+  <si>
+    <t>Bayes Biostatistics for Pharma 3 day conference. Went together with Francois. First time I present as a PhD student.</t>
+  </si>
+  <si>
+    <t>Leiden    </t>
+  </si>
+  <si>
+    <t>Sabrina    </t>
+  </si>
+  <si>
+    <t>After the Bayes23 conference in Utrecht I stay for the weekend in Leiden with Sabri. Drinks with Sabri, Kimon, Petros, Frank and Alex on Friday, lame Greek party in Delft on Saturday.</t>
   </si>
 </sst>
 </file>
@@ -990,7 +1008,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00000"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1032,6 +1050,10 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1301,10 +1323,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I145"/>
+  <dimension ref="A1:I147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I146" sqref="I146"/>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D148" sqref="D148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4650,11 +4672,64 @@
         <v>318</v>
       </c>
     </row>
+    <row r="146" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A146" t="s">
+        <v>319</v>
+      </c>
+      <c r="B146" t="s">
+        <v>34</v>
+      </c>
+      <c r="C146" t="s">
+        <v>320</v>
+      </c>
+      <c r="D146">
+        <v>2023</v>
+      </c>
+      <c r="E146">
+        <v>52.091363999999999</v>
+      </c>
+      <c r="F146">
+        <v>5.1140600000000003</v>
+      </c>
+      <c r="G146" s="9">
+        <v>45224</v>
+      </c>
+      <c r="I146" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A147" t="s">
+        <v>322</v>
+      </c>
+      <c r="B147" t="s">
+        <v>34</v>
+      </c>
+      <c r="C147" t="s">
+        <v>323</v>
+      </c>
+      <c r="D147">
+        <v>2023</v>
+      </c>
+      <c r="E147">
+        <v>52.158278000000003</v>
+      </c>
+      <c r="F147">
+        <v>4.4934250000000002</v>
+      </c>
+      <c r="G147" s="9">
+        <v>45227</v>
+      </c>
+      <c r="I147" t="s">
+        <v>324</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I127">
     <sortCondition ref="B2:B127"/>
     <sortCondition ref="C2:C127"/>
   </sortState>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Places.xlsx
+++ b/Places.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georg\Documents\Travel\Places\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E9F51A-E389-4567-A455-5C4650BC7C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911DC304-B24B-4C53-B7EA-D8CE4A91FADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="330">
   <si>
     <t>Place</t>
   </si>
@@ -835,9 +835,6 @@
     <t>Daniel, Gemma, Marina, Joelle, Jule</t>
   </si>
   <si>
-    <t>Date_2</t>
-  </si>
-  <si>
     <t>Aninnia, Carlos, Corina</t>
   </si>
   <si>
@@ -958,9 +955,6 @@
     <t>Kato, Sofia, Gemma, Sabrina, Jule, Nina, Daniel, Kimon, Kato, Danai, George, Alexandra, Nikoleta</t>
   </si>
   <si>
-    <t>Kato, Kimon, Daniel, Anastasia, Maria, Nikoleta, Danai, George, Alexandra, Gemma, Sabri, Christian</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gemma visited for a weekend and we wend for a wanna be hike in the French part of Switzerland. After 30 mins of walking in a flat path, we stoped for a couple of glasses of Wine. The drive back and forth with Sofia, Tamas, Steffi and Joelle was amazingly fun. We were pretending to be a family. A nice reunion approximately half a year after Gemma finished her intership and left fot Denmark. </t>
   </si>
   <si>
@@ -998,6 +992,27 @@
   </si>
   <si>
     <t>After the Bayes23 conference in Utrecht I stay for the weekend in Leiden with Sabri. Drinks with Sabri, Kimon, Petros, Frank and Alex on Friday, lame Greek party in Delft on Saturday.</t>
+  </si>
+  <si>
+    <t>Kato, Kimon, Daniel, Anastasia, Maria, Nikoleta, Danai, George, Alexandra, Gemma, Sabri, Christian, Sofia, Alex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other_dates </t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/03/2023; 30- 4-2023; 1-6-2023; 27-7-2023; 11-9-2023; 9-10-2023; 5- 12-2023; </t>
+  </si>
+  <si>
+    <t>Feldberg</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Patricia, Katia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My first ski lesson. Day trip to Feldberg in Germany with Patricia and Katia to learn how to ski. </t>
   </si>
 </sst>
 </file>
@@ -1323,10 +1338,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I147"/>
+  <dimension ref="A1:I148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D148" sqref="D148"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E149" sqref="E149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1362,7 +1377,7 @@
         <v>124</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>270</v>
+        <v>324</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>125</v>
@@ -1436,6 +1451,9 @@
       <c r="G4" s="9">
         <v>45012</v>
       </c>
+      <c r="H4" s="9" t="s">
+        <v>325</v>
+      </c>
       <c r="I4" t="s">
         <v>240</v>
       </c>
@@ -1769,7 +1787,7 @@
         <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E20" s="7">
         <v>40.626631000000003</v>
@@ -1800,7 +1818,7 @@
         <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E22" s="7">
         <v>39.669618999999997</v>
@@ -3155,7 +3173,7 @@
     </row>
     <row r="86" spans="1:9" ht="15.75" customHeight="1">
       <c r="A86" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>159</v>
@@ -3176,7 +3194,7 @@
         <v>45052</v>
       </c>
       <c r="I86" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15.75" customHeight="1">
@@ -3814,7 +3832,7 @@
         <v>7</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D111" s="1">
         <v>2021</v>
@@ -4115,13 +4133,13 @@
     </row>
     <row r="123" spans="1:9" ht="15.75" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D123" s="1">
         <v>2021</v>
@@ -4147,7 +4165,7 @@
         <v>7</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="D124" s="1">
         <v>2021</v>
@@ -4160,6 +4178,9 @@
       </c>
       <c r="G124" s="9">
         <v>44068</v>
+      </c>
+      <c r="H124" s="9">
+        <v>45202</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="15.75" customHeight="1">
@@ -4250,7 +4271,7 @@
     </row>
     <row r="129" spans="1:9" ht="15.75" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>79</v>
@@ -4271,12 +4292,12 @@
         <v>45143</v>
       </c>
       <c r="I129" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="15.75" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>79</v>
@@ -4297,12 +4318,12 @@
         <v>45144</v>
       </c>
       <c r="I130" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="15.75" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>79</v>
@@ -4323,12 +4344,12 @@
         <v>45143</v>
       </c>
       <c r="I131" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="15.75" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>79</v>
@@ -4348,13 +4369,13 @@
     </row>
     <row r="133" spans="1:9" ht="15.75" customHeight="1">
       <c r="A133" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C133" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E133">
         <v>39.990836999999999</v>
@@ -4363,18 +4384,18 @@
         <v>23.990808000000001</v>
       </c>
       <c r="I133" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="15.75" customHeight="1">
       <c r="A134" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C134" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D134" s="1">
         <v>2023</v>
@@ -4389,18 +4410,18 @@
         <v>45153</v>
       </c>
       <c r="I134" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="15.75" customHeight="1">
       <c r="A135" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C135" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D135" s="1">
         <v>2023</v>
@@ -4417,13 +4438,13 @@
     </row>
     <row r="136" spans="1:9" ht="15.75" customHeight="1">
       <c r="A136" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C136" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D136" s="1">
         <v>2023</v>
@@ -4440,13 +4461,13 @@
     </row>
     <row r="137" spans="1:9" ht="15.75" customHeight="1">
       <c r="A137" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C137" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D137" s="1">
         <v>2023</v>
@@ -4461,18 +4482,18 @@
         <v>45156</v>
       </c>
       <c r="I137" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="15.75" customHeight="1">
       <c r="A138" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D138" s="1">
         <v>2023</v>
@@ -4487,18 +4508,18 @@
         <v>45161</v>
       </c>
       <c r="I138" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="15.75" customHeight="1">
       <c r="A139" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D139" s="1">
         <v>2023</v>
@@ -4513,18 +4534,18 @@
         <v>45172</v>
       </c>
       <c r="I139" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="15.75" customHeight="1">
       <c r="A140" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D140" s="1">
         <v>2023</v>
@@ -4539,18 +4560,18 @@
         <v>45177</v>
       </c>
       <c r="I140" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="15.75" customHeight="1">
       <c r="A141" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D141" s="1">
         <v>2023</v>
@@ -4565,18 +4586,18 @@
         <v>45178</v>
       </c>
       <c r="I141" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="15.75" customHeight="1">
       <c r="A142" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D142" s="1">
         <v>2023</v>
@@ -4591,18 +4612,18 @@
         <v>45186</v>
       </c>
       <c r="I142" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="15.75" customHeight="1">
       <c r="A143" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D143" s="1">
         <v>2023</v>
@@ -4617,18 +4638,18 @@
         <v>45192</v>
       </c>
       <c r="I143" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="15.75" customHeight="1">
       <c r="A144" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D144" s="1">
         <v>2023</v>
@@ -4643,18 +4664,18 @@
         <v>45207</v>
       </c>
       <c r="I144" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="15.75" customHeight="1">
       <c r="A145" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D145" s="1">
         <v>2023</v>
@@ -4669,18 +4690,18 @@
         <v>45214</v>
       </c>
       <c r="I145" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="15.75" customHeight="1">
       <c r="A146" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B146" t="s">
         <v>34</v>
       </c>
       <c r="C146" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D146">
         <v>2023</v>
@@ -4695,18 +4716,18 @@
         <v>45224</v>
       </c>
       <c r="I146" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="15.75" customHeight="1">
       <c r="A147" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B147" t="s">
         <v>34</v>
       </c>
       <c r="C147" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D147">
         <v>2023</v>
@@ -4721,7 +4742,33 @@
         <v>45227</v>
       </c>
       <c r="I147" t="s">
-        <v>324</v>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A148" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C148" t="s">
+        <v>328</v>
+      </c>
+      <c r="D148" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E148" s="11">
+        <v>47.857779999999998</v>
+      </c>
+      <c r="F148">
+        <v>8.0450409999999994</v>
+      </c>
+      <c r="G148" s="9">
+        <v>45276</v>
+      </c>
+      <c r="I148" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/Places.xlsx
+++ b/Places.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georg\Documents\Travel\Places\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3187B592-2D51-46AF-8658-4C953F08DF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7328BD5-2A1C-429E-A2FF-A9BCB4C0C4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="353">
   <si>
     <t>Place</t>
   </si>
@@ -620,9 +620,6 @@
   </si>
   <si>
     <t>Kato visitied me to Winterthur exactly after I presented my half thesis and we went a trip together.</t>
-  </si>
-  <si>
-    <t>Lived there from December 2018 and until march 2019. During that period, Despoina, Maria, Petros, Kimon, Kato and my parrents visited me.</t>
   </si>
   <si>
     <t xml:space="preserve">Lived here from September 2021 and until March 2022. No h best period of my life. I was doing my master thesis. It was after coid era. During that period, Maria, Kimon and Kato visited me. There I met Anastasia. </t>
@@ -826,9 +823,6 @@
     <t>Daniel, Sofia, Nina, Tamas</t>
   </si>
   <si>
-    <t xml:space="preserve">One day trip to Ticino with Daniel during my studies at UZH. Also with Sofia, Nina and Tamas on July 2023 for 3 days. </t>
-  </si>
-  <si>
     <t>Daniel, Kato, Sofia, Nina, Alex, Jule, Gemma, Sabri, Marina, Kristina</t>
   </si>
   <si>
@@ -991,12 +985,6 @@
     <t>Kato, Kimon, Daniel, Anastasia, Maria, Nikoleta, Danai, George, Alexandra, Gemma, Sabri, Christian, Sofia, Alex</t>
   </si>
   <si>
-    <t xml:space="preserve">Other_dates </t>
-  </si>
-  <si>
-    <t xml:space="preserve">27/03/2023; 30- 4-2023; 1-6-2023; 27-7-2023; 11-9-2023; 9-10-2023; 5- 12-2023; </t>
-  </si>
-  <si>
     <t>Feldberg</t>
   </si>
   <si>
@@ -1073,6 +1061,27 @@
   </si>
   <si>
     <t xml:space="preserve">Day trip to Zaragoza with Daniel and Pilar. Daniel picked me up from an significantly large train station and he guided me around the city. Later on, Pilar joined us for a couple of drinks. Its so nice when if feels like home so far away from home. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I went to Neuchatel for the performance of an artistic event of the Daughter of the new wife of Andrie, the brother of Corina. I stayed there for a day. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First time I went there it was with Despoina, George and Alex. I was just visiting Switzerland at that time. </t>
+  </si>
+  <si>
+    <t>Lived there from December 2018 and until march 2019. During that period, Despoina, Maria, Petros, Kimon, Kato and my parrents visited me. Maria Visited on the 2nd of Marche 2019.</t>
+  </si>
+  <si>
+    <t>One day trip to Ticino with Daniel during my studies at UZH. Also with Sofia, Nina and Tamas on July 2023 for 3 days. With Maria I was there on the 20th of March 2022.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I just remembe that we went to a place and we had dinner that mad us both sick. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">After a full day of driving in the different side of the road with strong rains and winds, Kato was finally mostrly afraid of a Seagull trying to steal his fish and chips. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two facts from that day. First, it was the time I was chating a lot with that girl from my master programme. Secondly, I had long hair. </t>
   </si>
 </sst>
 </file>
@@ -1398,10 +1407,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I154"/>
+  <dimension ref="A1:H154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I104" sqref="I104"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1410,11 +1419,10 @@
     <col min="3" max="3" width="23.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.1796875" customWidth="1"/>
     <col min="7" max="7" width="26.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.6328125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="21.6328125" customWidth="1"/>
+    <col min="8" max="8" width="21.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1436,14 +1444,11 @@
       <c r="G1" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>67</v>
       </c>
@@ -1465,11 +1470,11 @@
       <c r="G2" s="9">
         <v>42933</v>
       </c>
-      <c r="I2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
@@ -1477,7 +1482,7 @@
         <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D3" s="1">
         <v>2019</v>
@@ -1491,11 +1496,11 @@
       <c r="G3" s="9">
         <v>43435</v>
       </c>
-      <c r="I3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>62</v>
       </c>
@@ -1517,11 +1522,11 @@
       <c r="G4" s="9">
         <v>43469</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>61</v>
       </c>
@@ -1543,8 +1548,11 @@
       <c r="G5" s="9">
         <v>43507</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>133</v>
       </c>
@@ -1566,11 +1574,11 @@
       <c r="G6" s="9">
         <v>43508</v>
       </c>
-      <c r="I6" t="s">
+      <c r="H6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>63</v>
       </c>
@@ -1592,8 +1600,11 @@
       <c r="G7" s="9">
         <v>43508</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H7" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
@@ -1615,11 +1626,11 @@
       <c r="G8" s="9">
         <v>43530</v>
       </c>
-      <c r="I8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>54</v>
       </c>
@@ -1641,11 +1652,11 @@
       <c r="G9" s="9">
         <v>43542</v>
       </c>
-      <c r="I9" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>58</v>
       </c>
@@ -1668,7 +1679,7 @@
         <v>43551</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>60</v>
       </c>
@@ -1691,7 +1702,7 @@
         <v>43552</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="A12" s="8" t="s">
         <v>105</v>
       </c>
@@ -1713,11 +1724,11 @@
       <c r="G12" s="9">
         <v>43683</v>
       </c>
-      <c r="I12" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1739,11 +1750,11 @@
       <c r="G13" s="9">
         <v>43775</v>
       </c>
-      <c r="I13" t="s">
+      <c r="H13" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -1765,8 +1776,11 @@
       <c r="G14" s="9">
         <v>43775</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H14" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -1774,7 +1788,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D15" s="1">
         <v>2021</v>
@@ -1788,19 +1802,16 @@
       <c r="G15" s="9">
         <v>44068</v>
       </c>
-      <c r="H15" s="9">
-        <v>45202</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1">
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D16" s="1">
         <v>2021</v>
@@ -1814,11 +1825,11 @@
       <c r="G16" s="9">
         <v>44099</v>
       </c>
-      <c r="I16" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -1840,11 +1851,11 @@
       <c r="G17" s="9">
         <v>44198</v>
       </c>
-      <c r="I17" t="s">
+      <c r="H17" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
@@ -1866,11 +1877,11 @@
       <c r="G18" s="9">
         <v>44290</v>
       </c>
-      <c r="I18" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H18" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
@@ -1878,7 +1889,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D19" s="1">
         <v>2021</v>
@@ -1892,14 +1903,11 @@
       <c r="G19" s="9">
         <v>44290</v>
       </c>
-      <c r="H19" s="9">
-        <v>45123</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="H19" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -1907,7 +1915,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D20" s="1">
         <v>2021</v>
@@ -1921,14 +1929,11 @@
       <c r="G20" s="9">
         <v>44290</v>
       </c>
-      <c r="H20" s="9">
-        <v>45123</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="H20" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
@@ -1936,7 +1941,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D21" s="1">
         <v>2021</v>
@@ -1950,14 +1955,11 @@
       <c r="G21" s="9">
         <v>44290</v>
       </c>
-      <c r="H21" s="9">
-        <v>45123</v>
-      </c>
-      <c r="I21" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H21" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -1965,7 +1967,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D22" s="1">
         <v>2021</v>
@@ -1979,11 +1981,11 @@
       <c r="G22" s="9">
         <v>44329</v>
       </c>
-      <c r="I22" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="12.5">
+      <c r="H22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="12.5">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
@@ -2005,11 +2007,11 @@
       <c r="G23" s="9">
         <v>44363</v>
       </c>
-      <c r="I23" t="s">
+      <c r="H23" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="12.5">
+    <row r="24" spans="1:8" ht="12.5">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -2017,7 +2019,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D24" s="1">
         <v>2021</v>
@@ -2031,11 +2033,11 @@
       <c r="G24" s="9">
         <v>44363</v>
       </c>
-      <c r="I24" t="s">
+      <c r="H24" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="12.5">
+    <row r="25" spans="1:8" ht="12.5">
       <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
@@ -2057,8 +2059,11 @@
       <c r="G25" s="9">
         <v>44366</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="12.5">
+      <c r="H25" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="12.5">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
@@ -2080,11 +2085,11 @@
       <c r="G26" s="9">
         <v>44381</v>
       </c>
-      <c r="I26" t="s">
+      <c r="H26" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="12.5">
+    <row r="27" spans="1:8" ht="12.5">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -2106,11 +2111,11 @@
       <c r="G27" s="9">
         <v>44381</v>
       </c>
-      <c r="I27" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="12.5">
+      <c r="H27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="12.5">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
@@ -2132,8 +2137,11 @@
       <c r="G28" s="9">
         <v>44382</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="12.5">
+      <c r="H28" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="12.5">
       <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
@@ -2155,11 +2163,11 @@
       <c r="G29" s="9">
         <v>44382</v>
       </c>
-      <c r="I29" t="s">
+      <c r="H29" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="12.5">
+    <row r="30" spans="1:8" ht="12.5">
       <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
@@ -2182,7 +2190,7 @@
         <v>44383</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="12.5">
+    <row r="31" spans="1:8" ht="12.5">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
@@ -2204,11 +2212,11 @@
       <c r="G31" s="9">
         <v>44383</v>
       </c>
-      <c r="I31" t="s">
+      <c r="H31" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="12.5">
+    <row r="32" spans="1:8" ht="12.5">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
@@ -2230,11 +2238,11 @@
       <c r="G32" s="9">
         <v>44384</v>
       </c>
-      <c r="I32" t="s">
+      <c r="H32" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="12.5">
+    <row r="33" spans="1:8" ht="12.5">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
@@ -2242,7 +2250,7 @@
         <v>7</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D33" s="1">
         <v>2021</v>
@@ -2256,11 +2264,11 @@
       <c r="G33" s="9">
         <v>44440</v>
       </c>
-      <c r="I33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="12.5">
+      <c r="H33" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="12.5">
       <c r="A34" s="1" t="s">
         <v>16</v>
       </c>
@@ -2268,7 +2276,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D34" s="1">
         <v>2021</v>
@@ -2282,11 +2290,11 @@
       <c r="G34" s="9">
         <v>44525</v>
       </c>
-      <c r="I34" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="12.5">
+      <c r="H34" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="12.5">
       <c r="A35" s="1" t="s">
         <v>12</v>
       </c>
@@ -2308,11 +2316,11 @@
       <c r="G35" s="9">
         <v>44527</v>
       </c>
-      <c r="I35" t="s">
+      <c r="H35" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="12.5">
+    <row r="36" spans="1:8" ht="12.5">
       <c r="A36" s="1" t="s">
         <v>29</v>
       </c>
@@ -2334,11 +2342,11 @@
       <c r="G36" s="9">
         <v>44548</v>
       </c>
-      <c r="I36" t="s">
+      <c r="H36" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="12.5">
+    <row r="37" spans="1:8" ht="12.5">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -2346,7 +2354,7 @@
         <v>34</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D37" s="1">
         <v>2021</v>
@@ -2360,11 +2368,11 @@
       <c r="G37" s="9">
         <v>44557</v>
       </c>
-      <c r="I37" t="s">
+      <c r="H37" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="12.5">
+    <row r="38" spans="1:8" ht="12.5">
       <c r="A38" s="1" t="s">
         <v>47</v>
       </c>
@@ -2386,11 +2394,11 @@
       <c r="G38" s="9">
         <v>44560</v>
       </c>
-      <c r="I38" t="s">
+      <c r="H38" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="12.5">
+    <row r="39" spans="1:8" ht="12.5">
       <c r="A39" s="1" t="s">
         <v>45</v>
       </c>
@@ -2412,11 +2420,11 @@
       <c r="G39" s="9">
         <v>44560</v>
       </c>
-      <c r="I39" t="s">
+      <c r="H39" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="12.5">
+    <row r="40" spans="1:8" ht="12.5">
       <c r="A40" s="2" t="s">
         <v>46</v>
       </c>
@@ -2438,11 +2446,11 @@
       <c r="G40" s="9">
         <v>44560</v>
       </c>
-      <c r="I40" t="s">
+      <c r="H40" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="12.5">
+    <row r="41" spans="1:8" ht="12.5">
       <c r="A41" t="s">
         <v>183</v>
       </c>
@@ -2464,11 +2472,11 @@
       <c r="G41" s="9">
         <v>44583</v>
       </c>
-      <c r="I41" t="s">
+      <c r="H41" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="12.5">
+    <row r="42" spans="1:8" ht="12.5">
       <c r="A42" s="1" t="s">
         <v>109</v>
       </c>
@@ -2490,11 +2498,11 @@
       <c r="G42" s="9">
         <v>44591</v>
       </c>
-      <c r="I42" t="s">
+      <c r="H42" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="12.5">
+    <row r="43" spans="1:8" ht="12.5">
       <c r="A43" s="8" t="s">
         <v>110</v>
       </c>
@@ -2516,11 +2524,11 @@
       <c r="G43" s="9">
         <v>44625</v>
       </c>
-      <c r="I43" t="s">
+      <c r="H43" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="12.5">
+    <row r="44" spans="1:8" ht="12.5">
       <c r="A44" s="8" t="s">
         <v>111</v>
       </c>
@@ -2542,11 +2550,11 @@
       <c r="G44" s="9">
         <v>44666</v>
       </c>
-      <c r="I44" t="s">
+      <c r="H44" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15.75" customHeight="1">
+    <row r="45" spans="1:8" ht="15.75" customHeight="1">
       <c r="A45" s="8" t="s">
         <v>113</v>
       </c>
@@ -2568,11 +2576,11 @@
       <c r="G45" s="9">
         <v>44690</v>
       </c>
-      <c r="I45" t="s">
+      <c r="H45" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15.75" customHeight="1">
+    <row r="46" spans="1:8" ht="15.75" customHeight="1">
       <c r="A46" s="11" t="s">
         <v>128</v>
       </c>
@@ -2594,11 +2602,11 @@
       <c r="G46" s="9">
         <v>44706</v>
       </c>
-      <c r="I46" s="11" t="s">
+      <c r="H46" s="11" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15.75" customHeight="1">
+    <row r="47" spans="1:8" ht="15.75" customHeight="1">
       <c r="A47" s="8" t="s">
         <v>117</v>
       </c>
@@ -2620,11 +2628,11 @@
       <c r="G47" s="9">
         <v>44707</v>
       </c>
-      <c r="I47" t="s">
+      <c r="H47" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15.75" customHeight="1">
+    <row r="48" spans="1:8" ht="15.75" customHeight="1">
       <c r="A48" s="8" t="s">
         <v>118</v>
       </c>
@@ -2646,11 +2654,11 @@
       <c r="G48" s="9">
         <v>44716</v>
       </c>
-      <c r="I48" t="s">
+      <c r="H48" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.75" customHeight="1">
+    <row r="49" spans="1:8" ht="15.75" customHeight="1">
       <c r="A49" t="s">
         <v>119</v>
       </c>
@@ -2672,19 +2680,19 @@
       <c r="G49" s="9">
         <v>44723</v>
       </c>
-      <c r="I49" t="s">
+      <c r="H49" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15.75" customHeight="1">
+    <row r="50" spans="1:8" ht="15.75" customHeight="1">
       <c r="A50" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D50">
         <v>2022</v>
@@ -2698,11 +2706,11 @@
       <c r="G50" s="9">
         <v>44730</v>
       </c>
-      <c r="I50" s="11" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H50" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" customHeight="1">
       <c r="A51" s="8" t="s">
         <v>126</v>
       </c>
@@ -2724,11 +2732,11 @@
       <c r="G51" s="9">
         <v>44764</v>
       </c>
-      <c r="I51" s="11" t="s">
+      <c r="H51" s="11" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15.75" customHeight="1">
+    <row r="52" spans="1:8" ht="15.75" customHeight="1">
       <c r="A52" s="8" t="s">
         <v>129</v>
       </c>
@@ -2750,11 +2758,11 @@
       <c r="G52" s="9">
         <v>44765</v>
       </c>
-      <c r="I52" s="11" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H52" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" customHeight="1">
       <c r="A53" s="8" t="s">
         <v>121</v>
       </c>
@@ -2776,11 +2784,11 @@
       <c r="G53" s="9">
         <v>44766</v>
       </c>
-      <c r="I53" s="11" t="s">
+      <c r="H53" s="11" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15.75" customHeight="1">
+    <row r="54" spans="1:8" ht="15.75" customHeight="1">
       <c r="A54" t="s">
         <v>123</v>
       </c>
@@ -2788,7 +2796,7 @@
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D54">
         <v>2022</v>
@@ -2802,11 +2810,11 @@
       <c r="G54" s="9">
         <v>44772</v>
       </c>
-      <c r="I54" t="s">
+      <c r="H54" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15.75" customHeight="1">
+    <row r="55" spans="1:8" ht="15.75" customHeight="1">
       <c r="A55" t="s">
         <v>150</v>
       </c>
@@ -2814,7 +2822,7 @@
         <v>7</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D55">
         <v>2022</v>
@@ -2828,11 +2836,11 @@
       <c r="G55" s="9">
         <v>44795</v>
       </c>
-      <c r="I55" t="s">
+      <c r="H55" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15.75" customHeight="1">
+    <row r="56" spans="1:8" ht="15.75" customHeight="1">
       <c r="A56" s="8" t="s">
         <v>154</v>
       </c>
@@ -2854,11 +2862,11 @@
       <c r="G56" s="9">
         <v>44800</v>
       </c>
-      <c r="I56" t="s">
+      <c r="H56" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15.75" customHeight="1">
+    <row r="57" spans="1:8" ht="15.75" customHeight="1">
       <c r="A57" s="8" t="s">
         <v>155</v>
       </c>
@@ -2880,11 +2888,11 @@
       <c r="G57" s="9">
         <v>44801</v>
       </c>
-      <c r="I57" t="s">
+      <c r="H57" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15.75" customHeight="1">
+    <row r="58" spans="1:8" ht="15.75" customHeight="1">
       <c r="A58" s="8" t="s">
         <v>156</v>
       </c>
@@ -2906,11 +2914,11 @@
       <c r="G58" s="9">
         <v>44802</v>
       </c>
-      <c r="I58" t="s">
+      <c r="H58" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15.75" customHeight="1">
+    <row r="59" spans="1:8" ht="15.75" customHeight="1">
       <c r="A59" s="8" t="s">
         <v>158</v>
       </c>
@@ -2932,11 +2940,11 @@
       <c r="G59" s="9">
         <v>44802</v>
       </c>
-      <c r="I59" t="s">
+      <c r="H59" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15.75" customHeight="1">
+    <row r="60" spans="1:8" ht="15.75" customHeight="1">
       <c r="A60" s="8" t="s">
         <v>157</v>
       </c>
@@ -2944,7 +2952,7 @@
         <v>112</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D60">
         <v>2022</v>
@@ -2958,11 +2966,11 @@
       <c r="G60" s="9">
         <v>44802</v>
       </c>
-      <c r="I60" t="s">
+      <c r="H60" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15.75" customHeight="1">
+    <row r="61" spans="1:8" ht="15.75" customHeight="1">
       <c r="A61" s="8" t="s">
         <v>160</v>
       </c>
@@ -2970,7 +2978,7 @@
         <v>159</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D61">
         <v>2022</v>
@@ -2984,11 +2992,11 @@
       <c r="G61" s="9">
         <v>44805</v>
       </c>
-      <c r="I61" t="s">
+      <c r="H61" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15.75" customHeight="1">
+    <row r="62" spans="1:8" ht="15.75" customHeight="1">
       <c r="A62" s="8" t="s">
         <v>161</v>
       </c>
@@ -3010,11 +3018,11 @@
       <c r="G62" s="9">
         <v>44807</v>
       </c>
-      <c r="I62" t="s">
+      <c r="H62" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15.75" customHeight="1">
+    <row r="63" spans="1:8" ht="15.75" customHeight="1">
       <c r="A63" s="8" t="s">
         <v>163</v>
       </c>
@@ -3036,11 +3044,11 @@
       <c r="G63" s="9">
         <v>44822</v>
       </c>
-      <c r="I63" t="s">
+      <c r="H63" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.75" customHeight="1">
+    <row r="64" spans="1:8" ht="15.75" customHeight="1">
       <c r="A64" t="s">
         <v>164</v>
       </c>
@@ -3062,11 +3070,11 @@
       <c r="G64" s="9">
         <v>44823</v>
       </c>
-      <c r="I64" t="s">
+      <c r="H64" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15.75" customHeight="1">
+    <row r="65" spans="1:8" ht="15.75" customHeight="1">
       <c r="A65" t="s">
         <v>165</v>
       </c>
@@ -3088,11 +3096,11 @@
       <c r="G65" s="9">
         <v>44824</v>
       </c>
-      <c r="I65" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H65" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" customHeight="1">
       <c r="A66" t="s">
         <v>166</v>
       </c>
@@ -3114,11 +3122,11 @@
       <c r="G66" s="9">
         <v>44824</v>
       </c>
-      <c r="I66" t="s">
+      <c r="H66" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="15.75" customHeight="1">
+    <row r="67" spans="1:8" ht="15.75" customHeight="1">
       <c r="A67" t="s">
         <v>176</v>
       </c>
@@ -3140,11 +3148,11 @@
       <c r="G67" s="9">
         <v>44920</v>
       </c>
-      <c r="I67" t="s">
+      <c r="H67" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15.75" customHeight="1">
+    <row r="68" spans="1:8" ht="15.75" customHeight="1">
       <c r="A68" t="s">
         <v>180</v>
       </c>
@@ -3166,11 +3174,11 @@
       <c r="G68" s="9">
         <v>44940</v>
       </c>
-      <c r="I68" t="s">
+      <c r="H68" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15.75" customHeight="1">
+    <row r="69" spans="1:8" ht="15.75" customHeight="1">
       <c r="A69" t="s">
         <v>195</v>
       </c>
@@ -3192,11 +3200,11 @@
       <c r="G69" s="9">
         <v>44948</v>
       </c>
-      <c r="I69" t="s">
+      <c r="H69" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="15.75" customHeight="1">
+    <row r="70" spans="1:8" ht="15.75" customHeight="1">
       <c r="A70" t="s">
         <v>186</v>
       </c>
@@ -3204,7 +3212,7 @@
         <v>68</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D70">
         <v>2023</v>
@@ -3218,11 +3226,11 @@
       <c r="G70" s="9">
         <v>44973</v>
       </c>
-      <c r="I70" t="s">
+      <c r="H70" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="15.75" customHeight="1">
+    <row r="71" spans="1:8" ht="15.75" customHeight="1">
       <c r="A71" t="s">
         <v>190</v>
       </c>
@@ -3230,7 +3238,7 @@
         <v>68</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D71">
         <v>2023</v>
@@ -3244,11 +3252,11 @@
       <c r="G71" s="9">
         <v>44974</v>
       </c>
-      <c r="I71" t="s">
+      <c r="H71" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="15.75" customHeight="1">
+    <row r="72" spans="1:8" ht="15.75" customHeight="1">
       <c r="A72" t="s">
         <v>188</v>
       </c>
@@ -3256,7 +3264,7 @@
         <v>68</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D72">
         <v>2023</v>
@@ -3270,19 +3278,19 @@
       <c r="G72" s="9">
         <v>44975</v>
       </c>
-      <c r="I72" t="s">
+      <c r="H72" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15.75" customHeight="1">
+    <row r="73" spans="1:8" ht="15.75" customHeight="1">
       <c r="A73" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D73">
         <v>2023</v>
@@ -3296,19 +3304,19 @@
       <c r="G73" s="9">
         <v>44983</v>
       </c>
-      <c r="I73" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H73" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" customHeight="1">
       <c r="A74" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D74">
         <v>2023</v>
@@ -3322,13 +3330,13 @@
       <c r="G74" s="9">
         <v>45004</v>
       </c>
-      <c r="I74" s="12" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H74" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" customHeight="1">
       <c r="A75" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>112</v>
@@ -3348,19 +3356,16 @@
       <c r="G75" s="9">
         <v>45012</v>
       </c>
-      <c r="H75" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="I75" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H75" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" customHeight="1">
       <c r="A76" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>178</v>
@@ -3377,16 +3382,16 @@
       <c r="G76" s="9">
         <v>45033</v>
       </c>
-      <c r="I76" t="s">
+      <c r="H76" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A77" s="8" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A77" s="8" t="s">
-        <v>239</v>
-      </c>
       <c r="B77" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>178</v>
@@ -3403,19 +3408,19 @@
       <c r="G77" s="9">
         <v>45037</v>
       </c>
-      <c r="I77" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H77" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" customHeight="1">
       <c r="A78" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>159</v>
       </c>
       <c r="C78" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D78">
         <v>2023</v>
@@ -3429,19 +3434,19 @@
       <c r="G78" s="9">
         <v>45052</v>
       </c>
-      <c r="I78" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H78" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15.75" customHeight="1">
       <c r="A79" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>159</v>
       </c>
       <c r="C79" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D79">
         <v>2023</v>
@@ -3455,19 +3460,19 @@
       <c r="G79" s="9">
         <v>45052</v>
       </c>
-      <c r="I79" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H79" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" customHeight="1">
       <c r="A80" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D80">
         <v>2023</v>
@@ -3481,20 +3486,19 @@
       <c r="G80" s="13">
         <v>45066</v>
       </c>
-      <c r="H80" s="13"/>
-      <c r="I80" s="11" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H80" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15.75" customHeight="1">
       <c r="A81" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D81">
         <v>2023</v>
@@ -3508,19 +3512,19 @@
       <c r="G81" s="9">
         <v>45095</v>
       </c>
-      <c r="I81" s="11" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H81" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15.75" customHeight="1">
       <c r="A82" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>114</v>
       </c>
       <c r="C82" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D82">
         <v>2023</v>
@@ -3534,19 +3538,19 @@
       <c r="G82" s="9">
         <v>45107</v>
       </c>
-      <c r="I82" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H82" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15.75" customHeight="1">
       <c r="A83" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>114</v>
       </c>
       <c r="C83" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D83">
         <v>2023</v>
@@ -3560,19 +3564,19 @@
       <c r="G83" s="9">
         <v>45108</v>
       </c>
-      <c r="I83" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H83" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15.75" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C84" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D84" s="1">
         <v>2023</v>
@@ -3586,13 +3590,13 @@
       <c r="G84" s="9">
         <v>45129</v>
       </c>
-      <c r="I84" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H84" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15.75" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>79</v>
@@ -3612,13 +3616,13 @@
       <c r="G85" s="9">
         <v>45143</v>
       </c>
-      <c r="I85" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H85" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15.75" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>79</v>
@@ -3638,13 +3642,13 @@
       <c r="G86" s="9">
         <v>45143</v>
       </c>
-      <c r="I86" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H86" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15.75" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>79</v>
@@ -3664,19 +3668,19 @@
       <c r="G87" s="9">
         <v>45144</v>
       </c>
-      <c r="I87" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H87" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15.75" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C88" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D88" s="1">
         <v>2023</v>
@@ -3690,19 +3694,19 @@
       <c r="G88" s="9">
         <v>45153</v>
       </c>
-      <c r="I88" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H88" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15.75" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C89" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D89" s="1">
         <v>2023</v>
@@ -3717,15 +3721,15 @@
         <v>45154</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="15.75" customHeight="1">
+    <row r="90" spans="1:8" ht="15.75" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C90" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D90" s="1">
         <v>2023</v>
@@ -3740,15 +3744,15 @@
         <v>45155</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="15.75" customHeight="1">
+    <row r="91" spans="1:8" ht="15.75" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C91" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D91" s="1">
         <v>2023</v>
@@ -3762,19 +3766,19 @@
       <c r="G91" s="9">
         <v>45156</v>
       </c>
-      <c r="I91" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H91" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15.75" customHeight="1">
       <c r="A92" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D92" s="1">
         <v>2023</v>
@@ -3788,19 +3792,19 @@
       <c r="G92" s="9">
         <v>45161</v>
       </c>
-      <c r="I92" t="s">
+      <c r="H92" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A93" s="8" t="s">
         <v>292</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A93" s="8" t="s">
-        <v>294</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D93" s="1">
         <v>2023</v>
@@ -3814,19 +3818,19 @@
       <c r="G93" s="9">
         <v>45172</v>
       </c>
-      <c r="I93" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H93" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15.75" customHeight="1">
       <c r="A94" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D94" s="1">
         <v>2023</v>
@@ -3840,19 +3844,19 @@
       <c r="G94" s="9">
         <v>45177</v>
       </c>
-      <c r="I94" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H94" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15.75" customHeight="1">
       <c r="A95" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D95" s="1">
         <v>2023</v>
@@ -3866,19 +3870,19 @@
       <c r="G95" s="9">
         <v>45178</v>
       </c>
-      <c r="I95" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H95" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15.75" customHeight="1">
       <c r="A96" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D96" s="1">
         <v>2023</v>
@@ -3892,19 +3896,19 @@
       <c r="G96" s="9">
         <v>45186</v>
       </c>
-      <c r="I96" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H96" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="15.75" customHeight="1">
       <c r="A97" s="8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D97" s="1">
         <v>2023</v>
@@ -3918,19 +3922,19 @@
       <c r="G97" s="9">
         <v>45192</v>
       </c>
-      <c r="I97" t="s">
+      <c r="H97" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A98" s="8" t="s">
         <v>308</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A98" s="8" t="s">
-        <v>310</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D98" s="1">
         <v>2023</v>
@@ -3944,19 +3948,19 @@
       <c r="G98" s="9">
         <v>45207</v>
       </c>
-      <c r="I98" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H98" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="15.75" customHeight="1">
       <c r="A99" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D99" s="1">
         <v>2023</v>
@@ -3970,19 +3974,19 @@
       <c r="G99" s="9">
         <v>45214</v>
       </c>
-      <c r="I99" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H99" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15.75" customHeight="1">
       <c r="A100" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B100" t="s">
         <v>34</v>
       </c>
       <c r="C100" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D100">
         <v>2023</v>
@@ -3996,19 +4000,19 @@
       <c r="G100" s="9">
         <v>45224</v>
       </c>
-      <c r="I100" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H100" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="15.75" customHeight="1">
       <c r="A101" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B101" t="s">
         <v>34</v>
       </c>
       <c r="C101" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D101">
         <v>2023</v>
@@ -4022,19 +4026,19 @@
       <c r="G101" s="9">
         <v>45227</v>
       </c>
-      <c r="I101" t="s">
+      <c r="H101" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A102" s="8" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A102" s="8" t="s">
-        <v>324</v>
-      </c>
       <c r="B102" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C102" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D102" s="1">
         <v>2023</v>
@@ -4048,19 +4052,19 @@
       <c r="G102" s="9">
         <v>45276</v>
       </c>
-      <c r="I102" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H102" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="15.75" customHeight="1">
       <c r="A103" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>159</v>
       </c>
       <c r="C103" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D103" s="1">
         <v>2023</v>
@@ -4074,19 +4078,19 @@
       <c r="G103" s="9">
         <v>45281</v>
       </c>
-      <c r="I103" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H103" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="15.75" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D104" s="1">
         <v>2024</v>
@@ -4100,19 +4104,19 @@
       <c r="G104" s="9">
         <v>45304</v>
       </c>
-      <c r="I104" s="11" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H104" s="11" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="15.75" customHeight="1">
       <c r="A105" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D105" s="1">
         <v>2024</v>
@@ -4126,19 +4130,19 @@
       <c r="G105" s="9">
         <v>45310</v>
       </c>
-      <c r="I105" s="11" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H105" s="11" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="15.75" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D106" s="1">
         <v>2024</v>
@@ -4152,19 +4156,19 @@
       <c r="G106" s="9">
         <v>45311</v>
       </c>
-      <c r="I106" s="11" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H106" s="11" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="15.75" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C107" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D107" s="1">
         <v>2024</v>
@@ -4178,19 +4182,19 @@
       <c r="G107" s="9">
         <v>45331</v>
       </c>
-      <c r="I107" s="11" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H107" s="11" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="15.75" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C108" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D108" s="1">
         <v>2024</v>
@@ -4204,11 +4208,11 @@
       <c r="G108" s="9">
         <v>45333</v>
       </c>
-      <c r="I108" s="11" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H108" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="15.75" customHeight="1">
       <c r="A109" s="8" t="s">
         <v>71</v>
       </c>
@@ -4216,7 +4220,7 @@
         <v>72</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E109" s="7">
         <v>42.697510000000001</v>
@@ -4224,11 +4228,11 @@
       <c r="F109" s="7">
         <v>23.324149999999999</v>
       </c>
-      <c r="I109" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H109" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="15.75" customHeight="1">
       <c r="A110" s="8" t="s">
         <v>82</v>
       </c>
@@ -4236,7 +4240,7 @@
         <v>79</v>
       </c>
       <c r="C110" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E110" s="7">
         <v>39.669618999999997</v>
@@ -4245,7 +4249,7 @@
         <v>20.857987000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="15.75" customHeight="1">
+    <row r="111" spans="1:8" ht="15.75" customHeight="1">
       <c r="A111" s="8" t="s">
         <v>106</v>
       </c>
@@ -4253,7 +4257,7 @@
         <v>79</v>
       </c>
       <c r="C111" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E111" s="7">
         <v>40.504716999999999</v>
@@ -4262,7 +4266,7 @@
         <v>22.923787000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="15.75" customHeight="1">
+    <row r="112" spans="1:8" ht="15.75" customHeight="1">
       <c r="A112" s="8" t="s">
         <v>107</v>
       </c>
@@ -4270,7 +4274,7 @@
         <v>79</v>
       </c>
       <c r="C112" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E112" s="7">
         <v>39.769033</v>
@@ -4279,7 +4283,7 @@
         <v>21.181526999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="15.75" customHeight="1">
+    <row r="113" spans="1:8" ht="15.75" customHeight="1">
       <c r="A113" s="8" t="s">
         <v>85</v>
       </c>
@@ -4296,7 +4300,7 @@
         <v>20.700458999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="15.75" customHeight="1">
+    <row r="114" spans="1:8" ht="15.75" customHeight="1">
       <c r="A114" s="8" t="s">
         <v>103</v>
       </c>
@@ -4304,7 +4308,7 @@
         <v>79</v>
       </c>
       <c r="C114" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E114" s="7">
         <v>39.165528999999999</v>
@@ -4313,7 +4317,7 @@
         <v>23.489733999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="15.75" customHeight="1">
+    <row r="115" spans="1:8" ht="15.75" customHeight="1">
       <c r="A115" s="8" t="s">
         <v>80</v>
       </c>
@@ -4321,7 +4325,7 @@
         <v>79</v>
       </c>
       <c r="C115" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E115" s="7">
         <v>40.626631000000003</v>
@@ -4330,7 +4334,7 @@
         <v>22.950029000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="15.75" customHeight="1">
+    <row r="116" spans="1:8" ht="15.75" customHeight="1">
       <c r="A116" s="8" t="s">
         <v>98</v>
       </c>
@@ -4338,7 +4342,7 @@
         <v>79</v>
       </c>
       <c r="C116" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E116" s="7">
         <v>39.106766</v>
@@ -4347,15 +4351,15 @@
         <v>26.549226000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="15.75" customHeight="1">
+    <row r="117" spans="1:8" ht="15.75" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C117" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E117">
         <v>39.990836999999999</v>
@@ -4363,11 +4367,11 @@
       <c r="F117">
         <v>23.990808000000001</v>
       </c>
-      <c r="I117" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H117" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="15.75" customHeight="1">
       <c r="A118" s="8" t="s">
         <v>102</v>
       </c>
@@ -4384,7 +4388,7 @@
         <v>25.240739000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="15.75" customHeight="1">
+    <row r="119" spans="1:8" ht="15.75" customHeight="1">
       <c r="A119" s="8" t="s">
         <v>86</v>
       </c>
@@ -4392,7 +4396,7 @@
         <v>79</v>
       </c>
       <c r="C119" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E119" s="7">
         <v>38.244990999999999</v>
@@ -4400,11 +4404,11 @@
       <c r="F119" s="7">
         <v>21.734522999999999</v>
       </c>
-      <c r="I119" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H119" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="15.75" customHeight="1">
       <c r="A120" s="8" t="s">
         <v>90</v>
       </c>
@@ -4412,7 +4416,7 @@
         <v>79</v>
       </c>
       <c r="C120" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E120" s="7">
         <v>40.154102000000002</v>
@@ -4421,15 +4425,15 @@
         <v>23.915412</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="15.75" customHeight="1">
+    <row r="121" spans="1:8" ht="15.75" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C121" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D121" s="1">
         <v>2020</v>
@@ -4441,7 +4445,7 @@
         <v>23.687878999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="15.75" customHeight="1">
+    <row r="122" spans="1:8" ht="15.75" customHeight="1">
       <c r="A122" s="8" t="s">
         <v>81</v>
       </c>
@@ -4455,7 +4459,7 @@
         <v>21.263010999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="15.75" customHeight="1">
+    <row r="123" spans="1:8" ht="15.75" customHeight="1">
       <c r="A123" s="8" t="s">
         <v>83</v>
       </c>
@@ -4469,7 +4473,7 @@
         <v>20.184436000000002</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="15.75" customHeight="1">
+    <row r="124" spans="1:8" ht="15.75" customHeight="1">
       <c r="A124" s="8" t="s">
         <v>84</v>
       </c>
@@ -4483,7 +4487,7 @@
         <v>20.75263</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="15.75" customHeight="1">
+    <row r="125" spans="1:8" ht="15.75" customHeight="1">
       <c r="A125" s="8" t="s">
         <v>87</v>
       </c>
@@ -4497,7 +4501,7 @@
         <v>23.72784</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="15.75" customHeight="1">
+    <row r="126" spans="1:8" ht="15.75" customHeight="1">
       <c r="A126" s="8" t="s">
         <v>88</v>
       </c>
@@ -4511,7 +4515,7 @@
         <v>22.947213000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="15.75" customHeight="1">
+    <row r="127" spans="1:8" ht="15.75" customHeight="1">
       <c r="A127" s="8" t="s">
         <v>89</v>
       </c>
@@ -4525,7 +4529,7 @@
         <v>23.173162999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.75" customHeight="1">
+    <row r="128" spans="1:8" ht="15.75" customHeight="1">
       <c r="A128" s="8" t="s">
         <v>91</v>
       </c>
@@ -4539,7 +4543,7 @@
         <v>24.147006000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="15.75" customHeight="1">
+    <row r="129" spans="1:8" ht="15.75" customHeight="1">
       <c r="A129" s="8" t="s">
         <v>92</v>
       </c>
@@ -4553,7 +4557,7 @@
         <v>24.029107</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="15.75" customHeight="1">
+    <row r="130" spans="1:8" ht="15.75" customHeight="1">
       <c r="A130" s="8" t="s">
         <v>93</v>
       </c>
@@ -4567,7 +4571,7 @@
         <v>24.412331999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="15.75" customHeight="1">
+    <row r="131" spans="1:8" ht="15.75" customHeight="1">
       <c r="A131" s="8" t="s">
         <v>94</v>
       </c>
@@ -4581,7 +4585,7 @@
         <v>24.88841</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="15.75" customHeight="1">
+    <row r="132" spans="1:8" ht="15.75" customHeight="1">
       <c r="A132" s="8" t="s">
         <v>95</v>
       </c>
@@ -4595,7 +4599,7 @@
         <v>24.575970999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="15.75" customHeight="1">
+    <row r="133" spans="1:8" ht="15.75" customHeight="1">
       <c r="A133" s="8" t="s">
         <v>96</v>
       </c>
@@ -4609,7 +4613,7 @@
         <v>25.588498999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="15.75" customHeight="1">
+    <row r="134" spans="1:8" ht="15.75" customHeight="1">
       <c r="A134" s="8" t="s">
         <v>97</v>
       </c>
@@ -4623,7 +4627,7 @@
         <v>25.065902000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="15.75" customHeight="1">
+    <row r="135" spans="1:8" ht="15.75" customHeight="1">
       <c r="A135" s="8" t="s">
         <v>99</v>
       </c>
@@ -4637,7 +4641,7 @@
         <v>26.130711999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="15.75" customHeight="1">
+    <row r="136" spans="1:8" ht="15.75" customHeight="1">
       <c r="A136" s="8" t="s">
         <v>100</v>
       </c>
@@ -4651,7 +4655,7 @@
         <v>28.216380999999998</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="15.75" customHeight="1">
+    <row r="137" spans="1:8" ht="15.75" customHeight="1">
       <c r="A137" s="8" t="s">
         <v>101</v>
       </c>
@@ -4665,7 +4669,7 @@
         <v>25.449898000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.75" customHeight="1">
+    <row r="138" spans="1:8" ht="15.75" customHeight="1">
       <c r="A138" s="8" t="s">
         <v>104</v>
       </c>
@@ -4679,7 +4683,7 @@
         <v>23.726915999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="15.75" customHeight="1">
+    <row r="139" spans="1:8" ht="15.75" customHeight="1">
       <c r="A139" s="8" t="s">
         <v>108</v>
       </c>
@@ -4693,7 +4697,7 @@
         <v>21.128466</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="15.75" customHeight="1">
+    <row r="140" spans="1:8" ht="15.75" customHeight="1">
       <c r="A140" s="8" t="s">
         <v>73</v>
       </c>
@@ -4713,7 +4717,7 @@
         <v>18.172440000000002</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="15.75" customHeight="1">
+    <row r="141" spans="1:8" ht="15.75" customHeight="1">
       <c r="A141" s="8" t="s">
         <v>77</v>
       </c>
@@ -4733,7 +4737,7 @@
         <v>15.28664</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="15.75" customHeight="1">
+    <row r="142" spans="1:8" ht="15.75" customHeight="1">
       <c r="A142" s="8" t="s">
         <v>74</v>
       </c>
@@ -4753,7 +4757,7 @@
         <v>13.576610000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="15.75" customHeight="1">
+    <row r="143" spans="1:8" ht="15.75" customHeight="1">
       <c r="A143" s="8" t="s">
         <v>75</v>
       </c>
@@ -4773,7 +4777,7 @@
         <v>15.28851</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="15.75" customHeight="1">
+    <row r="144" spans="1:8" ht="15.75" customHeight="1">
       <c r="A144" s="8" t="s">
         <v>76</v>
       </c>
@@ -4792,11 +4796,11 @@
       <c r="F144" s="7">
         <v>14.990641999999999</v>
       </c>
-      <c r="I144" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H144" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="15.75" customHeight="1">
       <c r="A145" s="8" t="s">
         <v>69</v>
       </c>
@@ -4813,7 +4817,7 @@
         <v>11.246259999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="15.75" customHeight="1">
+    <row r="146" spans="1:8" ht="15.75" customHeight="1">
       <c r="A146" s="8" t="s">
         <v>70</v>
       </c>
@@ -4830,7 +4834,7 @@
         <v>14.496980000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="15.75" customHeight="1">
+    <row r="147" spans="1:8" ht="15.75" customHeight="1">
       <c r="A147" s="3" t="s">
         <v>64</v>
       </c>
@@ -4838,7 +4842,7 @@
         <v>65</v>
       </c>
       <c r="C147" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E147" s="5">
         <v>42.672719999999998</v>
@@ -4846,11 +4850,11 @@
       <c r="F147" s="5">
         <v>21.166879999999999</v>
       </c>
-      <c r="I147" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H147" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="15.75" customHeight="1">
       <c r="A148" s="8" t="s">
         <v>66</v>
       </c>
@@ -4867,7 +4871,7 @@
         <v>20.1663</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="15.75" customHeight="1">
+    <row r="149" spans="1:8" ht="15.75" customHeight="1">
       <c r="A149" s="1" t="s">
         <v>56</v>
       </c>
@@ -4887,7 +4891,7 @@
         <v>-5.4718400000000003</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="15.75" customHeight="1">
+    <row r="150" spans="1:8" ht="15.75" customHeight="1">
       <c r="A150" s="1" t="s">
         <v>57</v>
       </c>
@@ -4907,7 +4911,7 @@
         <v>-5.1052</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="15.75" customHeight="1">
+    <row r="151" spans="1:8" ht="15.75" customHeight="1">
       <c r="A151" s="1" t="s">
         <v>31</v>
       </c>
@@ -4926,11 +4930,11 @@
       <c r="F151" s="5">
         <v>8.1598400000000009</v>
       </c>
-      <c r="I151" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H151" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="15.75" customHeight="1">
       <c r="A152" s="1" t="s">
         <v>32</v>
       </c>
@@ -4949,11 +4953,11 @@
       <c r="F152" s="5">
         <v>7.6216600000000003</v>
       </c>
-      <c r="I152" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="15.75" customHeight="1">
+      <c r="H152" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="15.75" customHeight="1">
       <c r="A153" s="1" t="s">
         <v>9</v>
       </c>
@@ -4970,7 +4974,7 @@
         <v>8.8222799999999992</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="15.75" customHeight="1">
+    <row r="154" spans="1:8" ht="15.75" customHeight="1">
       <c r="A154" s="1" t="s">
         <v>14</v>
       </c>
@@ -4986,12 +4990,12 @@
       <c r="F154" s="5">
         <v>8.6349300000000007</v>
       </c>
-      <c r="I154" t="s">
-        <v>211</v>
+      <c r="H154" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I156">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H156">
     <sortCondition ref="G1:G156"/>
   </sortState>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/Places.xlsx
+++ b/Places.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georg\Documents\Travel\Places\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7328BD5-2A1C-429E-A2FF-A9BCB4C0C4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A422A85F-EB50-40E5-A442-B58322007EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="356">
   <si>
     <t>Place</t>
   </si>
@@ -1082,6 +1082,15 @@
   </si>
   <si>
     <t xml:space="preserve">Two facts from that day. First, it was the time I was chating a lot with that girl from my master programme. Secondly, I had long hair. </t>
+  </si>
+  <si>
+    <t>Mürren</t>
+  </si>
+  <si>
+    <t>Sofia, Kimon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feb 2024 Day trip to Lauterbrunnen area. Hike in the snow. Snow really bad for skiing but nice to walk on. Sofia recalls her satement regarding going back to the past (see trip to Copenhagen) and now wants to go to the future. The party is still happening though. We filmed the greatest video of all times "We live in Switzerland, of course..". After the hike (for wich we woke up at 7), we came back home around 9pm, had dinner all together and started drinking waiting for the Morgenstrike at 4am. As expected, although we started going home imidiately after the morgenstrike, it took us 1.5 to get back home so we went to sleep around 6.30am. </t>
   </si>
 </sst>
 </file>
@@ -1407,10 +1416,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H154"/>
+  <dimension ref="A1:H155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H156" sqref="H156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4994,6 +5003,32 @@
         <v>210</v>
       </c>
     </row>
+    <row r="155" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A155" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D155" s="1">
+        <v>2024</v>
+      </c>
+      <c r="E155">
+        <v>46.560913999999997</v>
+      </c>
+      <c r="F155" s="5">
+        <v>7.8888470000000002</v>
+      </c>
+      <c r="G155" s="9">
+        <v>45340</v>
+      </c>
+      <c r="H155" t="s">
+        <v>355</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H156">
     <sortCondition ref="G1:G156"/>

--- a/Places.xlsx
+++ b/Places.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georg\Documents\Travel\Places\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A422A85F-EB50-40E5-A442-B58322007EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFD8606-56BF-40A9-87A9-0564FE7688F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="366">
   <si>
     <t>Place</t>
   </si>
@@ -1033,9 +1033,6 @@
     <t>Omodos</t>
   </si>
   <si>
-    <t>Extended weekend to visit Maria first time in Cyprus. Since I know Maria 13 years, that was one of the first times that I felt more intence and deciring feelings about her. He had a very nice meeting/reunion in Greece at Christmass 2023 after which we would start texting and talking A LOT. Like every day. The discussion topics were about our kids. Orpheas and Nefeli. When I went to Cyprous nothing actually happened but the vibe was different this time. At least thats how I felt. My evaluation of the situation is that we both have different thoughts and feelings about our relationship but we are also both afraid to open up risking a lifelong friendship. At least we had a nice dinner at an extremely good italian restaurant.</t>
-  </si>
-  <si>
     <t xml:space="preserve">The third day we had a trip to a small vilage in Cyprus with Maria and Fotis. The discussion topic was friendships turning into romantic relationships. </t>
   </si>
   <si>
@@ -1091,6 +1088,39 @@
   </si>
   <si>
     <t xml:space="preserve">Feb 2024 Day trip to Lauterbrunnen area. Hike in the snow. Snow really bad for skiing but nice to walk on. Sofia recalls her satement regarding going back to the past (see trip to Copenhagen) and now wants to go to the future. The party is still happening though. We filmed the greatest video of all times "We live in Switzerland, of course..". After the hike (for wich we woke up at 7), we came back home around 9pm, had dinner all together and started drinking waiting for the Morgenstrike at 4am. As expected, although we started going home imidiately after the morgenstrike, it took us 1.5 to get back home so we went to sleep around 6.30am. </t>
+  </si>
+  <si>
+    <t>Extended weekend to visit Maria first time in Cyprus. Since I know Maria 13 years, that was one of the first times that I felt more intence and deciring feelings about her. He had a very nice meeting/reunion in Greece at Christmass 2023 after which we would start texting and talking A LOT. Like every day. The discussion topics were about our kids. Orpheas and Nefeli. When I went to Cyprous nothing actually happened but the vibe was different this time. At least thats how I felt. My evaluation of the situation is that we both have different thoughts and feelings about our relationship but we are also both afraid to open up risking a lifelong friendship. At least we had a nice dinner at an extremely good italian restaurant. https://share.icloud.com/photos/0edCMqYn8jxqvCMZmp3O3eZ8w</t>
+  </si>
+  <si>
+    <t>Sofia, Philip, Charlie, Julia</t>
+  </si>
+  <si>
+    <t>Engelberg, Jochpass</t>
+  </si>
+  <si>
+    <t>Day trip skiing with Sofia, Charlie, Julia and Philips friends form Zurich. Sofia and I took the train from Basel. 5th time skiing. First time doing a black slope. All credits to Sofia. All first time that I have more fun than anxiety when skiing. This time Sofia was teaching me how to turn quickly and how to safely increase my speed. Stupid as I am, the most difficult part for me was to put on my skis when they would fall off. But Sofia was there once again haha. Probably the last time skiing this year. We both agreed that German music might not be the best for apres ski. PS: It was the longest Sofia has been from her headphones. "Chill day teaching George some pro skills".</t>
+  </si>
+  <si>
+    <t>Sofia, Nina, Joelle, Maria, Fer</t>
+  </si>
+  <si>
+    <t>Maspalomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 day trip to Gran Canarias for my 28th birtday and for the local carnival. From Thursday evening to Tuesday night. Maria came from Cyprus again doing a more than 24 hour trip by plane. The greatest birthday of my life. Insanely good surprises with nice pictures and memes. The theme of the carnival on Saturday was burning man. All 4 girls were so sexy.. Things to remember from the trip. Joelles epic "I am a woman" response when I tryied to tickle her. And the guy on the plane that shouted pio pio when we landed. </t>
+  </si>
+  <si>
+    <t>Las Palmas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last day of the trip we visited Las Palmas, the Capital of the island. </t>
+  </si>
+  <si>
+    <t>Pico de las Nieves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We went on the center of the Island to see the view from a viewpoint. </t>
   </si>
 </sst>
 </file>
@@ -1416,10 +1446,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:H159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H156" sqref="H156"/>
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G160" sqref="G160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1491,7 +1521,7 @@
         <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D3" s="1">
         <v>2019</v>
@@ -1506,7 +1536,7 @@
         <v>43435</v>
       </c>
       <c r="H3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
@@ -1558,7 +1588,7 @@
         <v>43507</v>
       </c>
       <c r="H5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
@@ -1610,7 +1640,7 @@
         <v>43508</v>
       </c>
       <c r="H7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
@@ -1786,7 +1816,7 @@
         <v>43775</v>
       </c>
       <c r="H14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
@@ -1950,7 +1980,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D21" s="1">
         <v>2021</v>
@@ -1965,7 +1995,7 @@
         <v>44290</v>
       </c>
       <c r="H21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
@@ -2069,7 +2099,7 @@
         <v>44366</v>
       </c>
       <c r="H25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="12.5">
@@ -2147,7 +2177,7 @@
         <v>44382</v>
       </c>
       <c r="H28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="12.5">
@@ -2259,7 +2289,7 @@
         <v>7</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D33" s="1">
         <v>2021</v>
@@ -2363,7 +2393,7 @@
         <v>34</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D37" s="1">
         <v>2021</v>
@@ -4088,7 +4118,7 @@
         <v>45281</v>
       </c>
       <c r="H103" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15.75" customHeight="1">
@@ -4140,7 +4170,7 @@
         <v>45310</v>
       </c>
       <c r="H105" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="15.75" customHeight="1">
@@ -4166,7 +4196,7 @@
         <v>45311</v>
       </c>
       <c r="H106" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15.75" customHeight="1">
@@ -4192,7 +4222,7 @@
         <v>45331</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15.75" customHeight="1">
@@ -4218,7 +4248,7 @@
         <v>45333</v>
       </c>
       <c r="H108" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="15.75" customHeight="1">
@@ -4249,7 +4279,7 @@
         <v>79</v>
       </c>
       <c r="C110" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E110" s="7">
         <v>39.669618999999997</v>
@@ -4334,7 +4364,7 @@
         <v>79</v>
       </c>
       <c r="C115" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E115" s="7">
         <v>40.626631000000003</v>
@@ -5005,13 +5035,13 @@
     </row>
     <row r="155" spans="1:8" ht="15.75" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D155" s="1">
         <v>2024</v>
@@ -5026,7 +5056,111 @@
         <v>45340</v>
       </c>
       <c r="H155" t="s">
-        <v>355</v>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A156" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="D156" s="8">
+        <v>2024</v>
+      </c>
+      <c r="E156" s="11">
+        <v>46.7789</v>
+      </c>
+      <c r="F156" s="7">
+        <v>8.3865999999999996</v>
+      </c>
+      <c r="G156" s="9">
+        <v>45353</v>
+      </c>
+      <c r="H156" s="11" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A157" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D157" s="8">
+        <v>2024</v>
+      </c>
+      <c r="E157" s="11">
+        <v>27.785305999999999</v>
+      </c>
+      <c r="F157">
+        <v>-15.635121</v>
+      </c>
+      <c r="G157" s="9">
+        <v>45366</v>
+      </c>
+      <c r="H157" s="11" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A158" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D158" s="8">
+        <v>2024</v>
+      </c>
+      <c r="E158" s="11">
+        <v>28.100311999999999</v>
+      </c>
+      <c r="F158" s="7">
+        <v>-15.415868</v>
+      </c>
+      <c r="G158" s="9">
+        <v>45370</v>
+      </c>
+      <c r="H158" s="11" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A159" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D159" s="8">
+        <v>2024</v>
+      </c>
+      <c r="E159" s="11">
+        <v>27.964023999999998</v>
+      </c>
+      <c r="F159" s="7">
+        <v>-15.566144</v>
+      </c>
+      <c r="G159" s="9">
+        <v>45368</v>
+      </c>
+      <c r="H159" s="11" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>

--- a/Places.xlsx
+++ b/Places.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georg\Documents\Travel\Places\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFD8606-56BF-40A9-87A9-0564FE7688F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984AFB34-6F37-4BE3-832E-2E14030B6785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1448,8 +1448,8 @@
   </sheetPr>
   <dimension ref="A1:H159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G160" sqref="G160"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2509,7 +2509,7 @@
         <v>8.5894976419999995</v>
       </c>
       <c r="G41" s="9">
-        <v>44583</v>
+        <v>44948</v>
       </c>
       <c r="H41" t="s">
         <v>185</v>

--- a/Places.xlsx
+++ b/Places.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georg\Documents\Travel\Places\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984AFB34-6F37-4BE3-832E-2E14030B6785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE7D901-F1EE-4AD7-9407-AF9B98E5CD20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="368">
   <si>
     <t>Place</t>
   </si>
@@ -1093,9 +1093,6 @@
     <t>Extended weekend to visit Maria first time in Cyprus. Since I know Maria 13 years, that was one of the first times that I felt more intence and deciring feelings about her. He had a very nice meeting/reunion in Greece at Christmass 2023 after which we would start texting and talking A LOT. Like every day. The discussion topics were about our kids. Orpheas and Nefeli. When I went to Cyprous nothing actually happened but the vibe was different this time. At least thats how I felt. My evaluation of the situation is that we both have different thoughts and feelings about our relationship but we are also both afraid to open up risking a lifelong friendship. At least we had a nice dinner at an extremely good italian restaurant. https://share.icloud.com/photos/0edCMqYn8jxqvCMZmp3O3eZ8w</t>
   </si>
   <si>
-    <t>Sofia, Philip, Charlie, Julia</t>
-  </si>
-  <si>
     <t>Engelberg, Jochpass</t>
   </si>
   <si>
@@ -1121,6 +1118,15 @@
   </si>
   <si>
     <t xml:space="preserve">We went on the center of the Island to see the view from a viewpoint. </t>
+  </si>
+  <si>
+    <t>Sofia, Philipp, Charlie, Julia</t>
+  </si>
+  <si>
+    <t>Le Noirmont</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day trip with Nina in the Jura mountains. It was kinda weird that we only went to this place because the weather in the rest of the country was supposed to be horrible. Turned out to be insanly good hike with great views and super satisfing trail. We took super cute photos together in amazing spots. I still remember her laughting when I accidentally steped in the middle of the mad pond. In the way there we scheduled out trip to Creta. In our way back we posted our photos in instagram. </t>
   </si>
 </sst>
 </file>
@@ -1446,16 +1452,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H159"/>
+  <dimension ref="A1:H160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A155" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H161" sqref="H161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="92.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.1796875" customWidth="1"/>
     <col min="7" max="7" width="26.6328125" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.6328125" customWidth="1"/>
@@ -5061,13 +5067,13 @@
     </row>
     <row r="156" spans="1:8" ht="15.75" customHeight="1">
       <c r="A156" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="D156" s="8">
         <v>2024</v>
@@ -5082,18 +5088,18 @@
         <v>45353</v>
       </c>
       <c r="H156" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="15.75" customHeight="1">
       <c r="A157" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B157" s="8" t="s">
         <v>159</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D157" s="8">
         <v>2024</v>
@@ -5108,18 +5114,18 @@
         <v>45366</v>
       </c>
       <c r="H157" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="15.75" customHeight="1">
       <c r="A158" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B158" s="8" t="s">
         <v>159</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D158" s="8">
         <v>2024</v>
@@ -5134,18 +5140,18 @@
         <v>45370</v>
       </c>
       <c r="H158" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="15.75" customHeight="1">
       <c r="A159" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B159" s="8" t="s">
         <v>159</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D159" s="8">
         <v>2024</v>
@@ -5160,7 +5166,33 @@
         <v>45368</v>
       </c>
       <c r="H159" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A160" t="s">
+        <v>366</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D160" s="8">
+        <v>2024</v>
+      </c>
+      <c r="E160" s="11">
+        <v>47.235700000000001</v>
+      </c>
+      <c r="F160" s="7">
+        <v>6.9455999999999998</v>
+      </c>
+      <c r="G160" s="9">
+        <v>45458</v>
+      </c>
+      <c r="H160" s="11" t="s">
+        <v>367</v>
       </c>
     </row>
   </sheetData>
